--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -765,10 +765,10 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.57</v>
@@ -777,10 +777,10 @@
         <v>2.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
         <v>1.62</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -944,7 +944,7 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
@@ -962,7 +962,7 @@
         <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
@@ -971,16 +971,16 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
@@ -1001,19 +1001,19 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
         <v>8.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>51</v>
@@ -1028,10 +1028,10 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1058,7 +1058,7 @@
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1070,13 +1070,13 @@
         <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.3</v>
@@ -1141,16 +1141,16 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
         <v>2.1</v>
@@ -1165,7 +1165,7 @@
         <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>12</v>
@@ -1177,10 +1177,10 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1210,7 +1210,7 @@
         <v>501</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
         <v>9</v>
@@ -1228,7 +1228,7 @@
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
         <v>9.5</v>
@@ -1296,10 +1296,10 @@
         <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J5" t="n">
         <v>2.63</v>
@@ -1311,10 +1311,10 @@
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1329,16 +1329,16 @@
         <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
@@ -1359,10 +1359,10 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1371,13 +1371,13 @@
         <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH5" t="n">
         <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
         <v>51</v>
@@ -1410,7 +1410,7 @@
         <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
         <v>9.5</v>
@@ -1434,7 +1434,7 @@
         <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1475,148 +1475,148 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>7.7</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="S6" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="T6" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.77</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1657,148 +1657,148 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="H7" t="n">
-        <v>3.44</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.37</v>
+        <v>3.85</v>
       </c>
       <c r="J7" t="n">
-        <v>2.59</v>
+        <v>2.47</v>
       </c>
       <c r="K7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="M7" t="n">
-        <v>9.6</v>
+        <v>9.65</v>
       </c>
       <c r="N7" t="n">
         <v>1.05</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="P7" t="n">
-        <v>3.34</v>
+        <v>3.1</v>
       </c>
       <c r="Q7" t="n">
         <v>1.85</v>
       </c>
       <c r="R7" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S7" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="T7" t="n">
-        <v>2.94</v>
+        <v>2.57</v>
       </c>
       <c r="U7" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
-        <v>2.11</v>
+        <v>1.91</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA7" t="n">
         <v>15</v>
       </c>
-      <c r="AA7" t="n">
-        <v>12</v>
-      </c>
       <c r="AB7" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>10.25</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AG7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO7" t="n">
         <v>9.5</v>
       </c>
-      <c r="AH7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>11</v>
-      </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AR7" t="n">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AS7" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.88</v>
+        <v>2.55</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AV7" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="BA7" t="n">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="BB7" t="n">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
@@ -2013,10 +2013,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
         <v>9.5</v>
@@ -2067,7 +2067,7 @@
         <v>6</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
         <v>9</v>
@@ -2216,7 +2216,7 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.3</v>
@@ -2225,10 +2225,10 @@
         <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="R10" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="S10" t="n">
         <v>1.4</v>
@@ -2285,7 +2285,7 @@
         <v>67</v>
       </c>
       <c r="AK10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
         <v>51</v>
@@ -2377,13 +2377,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J11" t="n">
         <v>3.6</v>
@@ -2392,7 +2392,7 @@
         <v>1.95</v>
       </c>
       <c r="L11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
@@ -2401,10 +2401,10 @@
         <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" t="n">
         <v>2.4</v>
@@ -2419,16 +2419,16 @@
         <v>2.38</v>
       </c>
       <c r="U11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
         <v>11</v>
@@ -2443,22 +2443,22 @@
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
         <v>11</v>
@@ -2473,7 +2473,7 @@
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AN11" t="n">
         <v>4.75</v>
@@ -2607,7 +2607,7 @@
         <v>1.8</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X12" t="n">
         <v>9.5</v>
@@ -2628,16 +2628,16 @@
         <v>8.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH12" t="n">
         <v>17</v>
@@ -2682,7 +2682,7 @@
         <v>8.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW12" t="n">
         <v>5.5</v>
@@ -2759,10 +2759,10 @@
         <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -2771,10 +2771,10 @@
         <v>3.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R13" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S13" t="n">
         <v>1.44</v>
@@ -2807,7 +2807,7 @@
         <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
@@ -2932,7 +2932,7 @@
         <v>1.91</v>
       </c>
       <c r="J14" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>1.95</v>
@@ -2965,16 +2965,16 @@
         <v>2.25</v>
       </c>
       <c r="U14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W14" t="n">
         <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="n">
         <v>15</v>
@@ -3037,7 +3037,7 @@
         <v>151</v>
       </c>
       <c r="AS14" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AT14" t="n">
         <v>2.25</v>
@@ -3049,7 +3049,7 @@
         <v>81</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AX14" t="n">
         <v>11</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H15" t="n">
         <v>3.7</v>
@@ -3120,7 +3120,7 @@
         <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -3153,7 +3153,7 @@
         <v>1.95</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
         <v>8</v>
@@ -3162,7 +3162,7 @@
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA15" t="n">
         <v>13</v>
@@ -3186,7 +3186,7 @@
         <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
         <v>17</v>
@@ -3213,7 +3213,7 @@
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR15" t="n">
         <v>51</v>
@@ -3240,10 +3240,10 @@
         <v>34</v>
       </c>
       <c r="AZ15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA15" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB15" t="n">
         <v>251</v>
@@ -3287,28 +3287,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.4</v>
@@ -3347,7 +3347,7 @@
         <v>34</v>
       </c>
       <c r="AA16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
@@ -3359,7 +3359,7 @@
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
         <v>51</v>
@@ -3395,10 +3395,10 @@
         <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
         <v>251</v>
@@ -3651,22 +3651,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K18" t="n">
         <v>1.95</v>
       </c>
       <c r="L18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
         <v>1.1</v>
@@ -3687,10 +3687,10 @@
         <v>1.53</v>
       </c>
       <c r="S18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T18" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U18" t="n">
         <v>2.1</v>
@@ -3699,28 +3699,28 @@
         <v>1.67</v>
       </c>
       <c r="W18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y18" t="n">
         <v>9.5</v>
       </c>
       <c r="Z18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="n">
         <v>19</v>
       </c>
-      <c r="AA18" t="n">
-        <v>21</v>
-      </c>
       <c r="AB18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD18" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6</v>
       </c>
       <c r="AE18" t="n">
         <v>19</v>
@@ -3729,10 +3729,10 @@
         <v>67</v>
       </c>
       <c r="AG18" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
         <v>15</v>
@@ -3741,34 +3741,34 @@
         <v>41</v>
       </c>
       <c r="AK18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ18" t="n">
         <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS18" t="n">
         <v>251</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU18" t="n">
         <v>9</v>
@@ -3777,13 +3777,13 @@
         <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ18" t="n">
         <v>81</v>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3925,139 +3925,139 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="H20" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="J20" t="n">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="K20" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="L20" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="O20" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="R20" t="n">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="S20" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="T20" t="n">
-        <v>3.28</v>
+        <v>2.55</v>
       </c>
       <c r="U20" t="n">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="V20" t="n">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="W20" t="n">
-        <v>9.5</v>
+        <v>7.2</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y20" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z20" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AA20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB20" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AC20" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AE20" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>11.25</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
         <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="n">
         <v>35</v>
       </c>
       <c r="AL20" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS20" t="n">
         <v>250</v>
       </c>
-      <c r="AN20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>150</v>
-      </c>
       <c r="AT20" t="n">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="AU20" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AV20" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AW20" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="AX20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY20" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AZ20" t="n">
         <v>120</v>
@@ -4066,12 +4066,14 @@
         <v>150</v>
       </c>
       <c r="BB20" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="BC20" t="n">
         <v>500</v>
       </c>
-      <c r="BD20" t="inlineStr"/>
+      <c r="BD20" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4105,16 +4107,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
         <v>1.91</v>
@@ -4156,7 +4158,7 @@
         <v>5.5</v>
       </c>
       <c r="X21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y21" t="n">
         <v>10</v>
@@ -4207,7 +4209,7 @@
         <v>4</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP21" t="n">
         <v>29</v>
@@ -4231,7 +4233,7 @@
         <v>81</v>
       </c>
       <c r="AW21" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX21" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -777,10 +777,10 @@
         <v>2.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
         <v>1.62</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -944,7 +944,7 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
@@ -953,16 +953,16 @@
         <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q3" t="n">
         <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
@@ -971,19 +971,19 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
         <v>17</v>
@@ -1001,19 +1001,19 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
         <v>8.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
         <v>51</v>
@@ -1058,7 +1058,7 @@
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1070,13 +1070,13 @@
         <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -1141,10 +1141,10 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1299,7 +1299,7 @@
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
         <v>2.63</v>
@@ -1323,10 +1323,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1341,7 +1341,7 @@
         <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
         <v>7.5</v>
@@ -1398,7 +1398,7 @@
         <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
@@ -1407,7 +1407,7 @@
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
         <v>2.25</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K6" t="n">
         <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1526,16 +1526,16 @@
         <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
@@ -1577,13 +1577,13 @@
         <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP6" t="n">
         <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1657,148 +1657,148 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>9.65</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>1.05</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R7" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S7" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>2.57</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
         <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AK7" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>450</v>
+        <v>251</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AR7" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="BA7" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
         <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
@@ -2067,7 +2067,7 @@
         <v>6</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
         <v>9</v>
@@ -2091,13 +2091,13 @@
         <v>81</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>41</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ9" t="n">
         <v>101</v>
@@ -2139,7 +2139,7 @@
         <v>81</v>
       </c>
       <c r="AW9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX9" t="n">
         <v>41</v>
@@ -2216,7 +2216,7 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
         <v>1.3</v>
@@ -2759,22 +2759,22 @@
         <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S13" t="n">
         <v>1.44</v>
@@ -2923,16 +2923,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
         <v>1.91</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K14" t="n">
         <v>1.95</v>
@@ -2941,22 +2941,22 @@
         <v>2.63</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S14" t="n">
         <v>1.57</v>
@@ -2965,16 +2965,16 @@
         <v>2.25</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V14" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
         <v>15</v>
@@ -2989,7 +2989,7 @@
         <v>51</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
@@ -3037,7 +3037,7 @@
         <v>151</v>
       </c>
       <c r="AS14" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AT14" t="n">
         <v>2.25</v>
@@ -3055,7 +3055,7 @@
         <v>11</v>
       </c>
       <c r="AY14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ14" t="n">
         <v>41</v>
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H15" t="n">
         <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J15" t="n">
         <v>2.25</v>
@@ -3120,7 +3120,7 @@
         <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -3129,16 +3129,16 @@
         <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S15" t="n">
         <v>1.36</v>
@@ -3162,7 +3162,7 @@
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
         <v>13</v>
@@ -3186,7 +3186,7 @@
         <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
         <v>17</v>
@@ -3213,7 +3213,7 @@
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR15" t="n">
         <v>51</v>
@@ -3243,7 +3243,7 @@
         <v>101</v>
       </c>
       <c r="BA15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
         <v>251</v>
@@ -3305,10 +3305,10 @@
         <v>3.1</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
         <v>1.4</v>
@@ -3469,34 +3469,34 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
       <c r="J17" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L17" t="n">
+        <v>6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N17" t="n">
         <v>6.5</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>7</v>
-      </c>
       <c r="O17" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P17" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
         <v>2.5</v>
@@ -3505,31 +3505,31 @@
         <v>1.5</v>
       </c>
       <c r="S17" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T17" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U17" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V17" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W17" t="n">
         <v>5</v>
       </c>
       <c r="X17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y17" t="n">
         <v>9.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="n">
         <v>41</v>
@@ -3538,40 +3538,40 @@
         <v>6.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH17" t="n">
         <v>23</v>
       </c>
-      <c r="AF17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>29</v>
-      </c>
       <c r="AI17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK17" t="n">
         <v>51</v>
       </c>
       <c r="AL17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM17" t="n">
         <v>201</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
         <v>26</v>
@@ -3586,7 +3586,7 @@
         <v>251</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU17" t="n">
         <v>10</v>
@@ -3595,7 +3595,7 @@
         <v>81</v>
       </c>
       <c r="AW17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX17" t="n">
         <v>34</v>
@@ -3604,7 +3604,7 @@
         <v>41</v>
       </c>
       <c r="AZ17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA17" t="n">
         <v>201</v>
@@ -3669,10 +3669,10 @@
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O18" t="n">
         <v>1.44</v>
@@ -3833,65 +3833,155 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="H19" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+        <v>5.3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N19" t="n">
+        <v>14</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
       <c r="Q19" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="R19" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr"/>
-      <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
-      <c r="AT19" t="inlineStr"/>
-      <c r="AU19" t="inlineStr"/>
-      <c r="AV19" t="inlineStr"/>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
-      <c r="BA19" t="inlineStr"/>
-      <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr"/>
-      <c r="BD19" t="inlineStr"/>
+        <v>2.07</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3925,148 +4015,148 @@
         </is>
       </c>
       <c r="G20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R20" t="n">
         <v>1.88</v>
       </c>
-      <c r="H20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N20" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.83</v>
-      </c>
       <c r="S20" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="T20" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="U20" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V20" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W20" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y20" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO20" t="n">
         <v>8.25</v>
       </c>
-      <c r="Z20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AP20" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AR20" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AS20" t="n">
         <v>250</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AV20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW20" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="AX20" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AZ20" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA20" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BB20" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC20" t="n">
         <v>500</v>
@@ -4289,22 +4379,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="I22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="J22" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="K22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
@@ -4328,37 +4418,37 @@
         <v>1.18</v>
       </c>
       <c r="T22" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="U22" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="V22" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W22" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="X22" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Y22" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB22" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AC22" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AD22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE22" t="n">
         <v>55</v>
@@ -4367,16 +4457,16 @@
         <v>250</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AI22" t="n">
         <v>14.5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AK22" t="n">
         <v>12.5</v>
@@ -4388,13 +4478,13 @@
         <v>900</v>
       </c>
       <c r="AN22" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AO22" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AP22" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="n">
@@ -4402,7 +4492,7 @@
       </c>
       <c r="AS22" t="inlineStr"/>
       <c r="AT22" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="AU22" t="n">
         <v>13</v>
@@ -4411,22 +4501,22 @@
         <v>120</v>
       </c>
       <c r="AW22" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AX22" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="BA22" t="n">
         <v>30</v>
       </c>
       <c r="BB22" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
         <v>4.5</v>
@@ -953,10 +953,10 @@
         <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
         <v>2.7</v>
@@ -983,10 +983,10 @@
         <v>7.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -1028,10 +1028,10 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1129,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1141,10 +1141,10 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1255,7 +1255,7 @@
         <v>401</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1311,10 +1311,10 @@
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
         <v>4.33</v>
@@ -1505,16 +1505,16 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
         <v>1.67</v>
@@ -1532,10 +1532,10 @@
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA6" t="n">
         <v>15</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>13</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
@@ -1553,7 +1553,7 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>21</v>
@@ -1577,13 +1577,13 @@
         <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
         <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1592,7 +1592,7 @@
         <v>126</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>7.5</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K7" t="n">
         <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1687,10 +1687,10 @@
         <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R7" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1699,106 +1699,106 @@
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
         <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
         <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
       </c>
       <c r="AG7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI7" t="n">
         <v>15</v>
       </c>
-      <c r="AH7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ7" t="n">
         <v>51</v>
       </c>
       <c r="AK7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT7" t="n">
         <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA7" t="n">
         <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1859,22 +1859,22 @@
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
         <v>1.73</v>
@@ -1886,19 +1886,19 @@
         <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
         <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
         <v>11</v>
@@ -1913,46 +1913,46 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
         <v>201</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1961,19 +1961,19 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
         <v>201</v>
@@ -2013,22 +2013,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="I9" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -2043,34 +2043,34 @@
         <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W9" t="n">
         <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA9" t="n">
         <v>13</v>
@@ -2079,43 +2079,43 @@
         <v>34</v>
       </c>
       <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD9" t="n">
-        <v>8</v>
-      </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
         <v>41</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="n">
         <v>67</v>
       </c>
       <c r="AL9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="n">
         <v>201</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
@@ -2130,16 +2130,16 @@
         <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV9" t="n">
         <v>81</v>
       </c>
       <c r="AW9" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AX9" t="n">
         <v>41</v>
@@ -2148,10 +2148,10 @@
         <v>51</v>
       </c>
       <c r="AZ9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA9" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB9" t="n">
         <v>501</v>
@@ -2195,22 +2195,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K10" t="n">
         <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -2225,10 +2225,10 @@
         <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="R10" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="S10" t="n">
         <v>1.4</v>
@@ -2246,13 +2246,13 @@
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y10" t="n">
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
         <v>13</v>
@@ -2261,7 +2261,7 @@
         <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
         <v>7</v>
@@ -2273,37 +2273,37 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK10" t="n">
         <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP10" t="n">
         <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
@@ -2315,28 +2315,28 @@
         <v>2.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY10" t="n">
         <v>34</v>
       </c>
-      <c r="AY10" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA10" t="n">
         <v>126</v>
       </c>
-      <c r="BA10" t="n">
-        <v>151</v>
-      </c>
       <c r="BB10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2577,16 +2577,16 @@
         <v>4.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
         <v>2.15</v>
@@ -2923,22 +2923,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" t="n">
         <v>1.91</v>
       </c>
-      <c r="J14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.95</v>
-      </c>
       <c r="L14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M14" t="n">
         <v>1.11</v>
@@ -2965,10 +2965,10 @@
         <v>2.25</v>
       </c>
       <c r="U14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W14" t="n">
         <v>9</v>
@@ -3004,13 +3004,13 @@
         <v>5.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI14" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
         <v>19</v>
@@ -3025,7 +3025,7 @@
         <v>6</v>
       </c>
       <c r="AO14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP14" t="n">
         <v>41</v>
@@ -3061,7 +3061,7 @@
         <v>41</v>
       </c>
       <c r="BA14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB14" t="n">
         <v>251</v>
@@ -3129,16 +3129,16 @@
         <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R15" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
         <v>1.36</v>
@@ -3487,10 +3487,10 @@
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
         <v>1.5</v>
@@ -3669,10 +3669,10 @@
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O18" t="n">
         <v>1.44</v>
@@ -3833,34 +3833,34 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="H19" t="n">
-        <v>4.15</v>
+        <v>4.55</v>
       </c>
       <c r="I19" t="n">
-        <v>5.3</v>
+        <v>6.9</v>
       </c>
       <c r="J19" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="K19" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="L19" t="n">
-        <v>5.2</v>
+        <v>6.3</v>
       </c>
       <c r="M19" t="n">
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
         <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="Q19" t="n">
         <v>1.6</v>
@@ -3872,76 +3872,76 @@
         <v>1.29</v>
       </c>
       <c r="T19" t="n">
-        <v>3.28</v>
+        <v>3.32</v>
       </c>
       <c r="U19" t="n">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="X19" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>8.75</v>
+        <v>7.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB19" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL19" t="n">
         <v>50</v>
       </c>
-      <c r="AG19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>37</v>
-      </c>
       <c r="AM19" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="AO19" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AP19" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AR19" t="n">
         <v>45</v>
@@ -3953,25 +3953,25 @@
         <v>3.1</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AW19" t="n">
-        <v>7.1</v>
+        <v>8.25</v>
       </c>
       <c r="AX19" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AY19" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AZ19" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="BA19" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="BB19" t="n">
         <v>400</v>
@@ -4200,13 +4200,13 @@
         <v>2.3</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="n">
         <v>1.91</v>
@@ -4245,7 +4245,7 @@
         <v>1.57</v>
       </c>
       <c r="W21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X21" t="n">
         <v>9.5</v>
@@ -4329,7 +4329,7 @@
         <v>21</v>
       </c>
       <c r="AY21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ21" t="n">
         <v>81</v>
@@ -4379,22 +4379,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H22" t="n">
         <v>8.75</v>
       </c>
       <c r="I22" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="J22" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="K22" t="n">
         <v>3.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
@@ -4406,7 +4406,7 @@
         <v>1.07</v>
       </c>
       <c r="P22" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Q22" t="n">
         <v>1.25</v>
@@ -4418,22 +4418,22 @@
         <v>1.18</v>
       </c>
       <c r="T22" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="U22" t="n">
-        <v>2.42</v>
+        <v>2.95</v>
       </c>
       <c r="V22" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="W22" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="X22" t="n">
         <v>300</v>
       </c>
       <c r="Y22" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -4442,49 +4442,49 @@
         <v>500</v>
       </c>
       <c r="AB22" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="AC22" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AD22" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AE22" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AF22" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AG22" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH22" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AI22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AK22" t="n">
         <v>14.5</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AL22" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AM22" t="n">
         <v>900</v>
       </c>
       <c r="AN22" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="AO22" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="AP22" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="n">
@@ -4492,31 +4492,31 @@
       </c>
       <c r="AS22" t="inlineStr"/>
       <c r="AT22" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="AU22" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AV22" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AW22" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AX22" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AY22" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AZ22" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="BA22" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="BB22" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -971,10 +971,10 @@
         <v>3.32</v>
       </c>
       <c r="U3" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W3" t="n">
         <v>6.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -756,7 +756,7 @@
         <v>8.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
         <v>2.25</v>
@@ -765,10 +765,10 @@
         <v>8.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -849,7 +849,7 @@
         <v>3.1</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
@@ -867,7 +867,7 @@
         <v>2.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -765,10 +765,10 @@
         <v>8.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -777,10 +777,10 @@
         <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="R2" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -747,40 +747,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
         <v>1.95</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -789,16 +789,16 @@
         <v>2.75</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -813,16 +813,16 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>101</v>
       </c>
       <c r="AK2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO2" t="n">
         <v>7</v>
@@ -861,7 +861,7 @@
         <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
         <v>2.75</v>
@@ -870,7 +870,7 @@
         <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
         <v>9</v>
@@ -879,16 +879,16 @@
         <v>41</v>
       </c>
       <c r="AY2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BA2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R2" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -771,16 +771,16 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -971,10 +971,10 @@
         <v>3.32</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="W3" t="n">
         <v>6.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -771,16 +771,16 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R2" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="R2" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vgnPzklr</t>
+          <t>GbLZ1izi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,355 +728,719 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>GV San Jose</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.3</v>
       </c>
       <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>9</v>
+      </c>
+      <c r="X2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD2" t="n">
         <v>7.5</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N2" t="n">
-        <v>11</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6</v>
-      </c>
-      <c r="X2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA2" t="n">
+      <c r="AE2" t="n">
         <v>13</v>
       </c>
-      <c r="AB2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>23</v>
-      </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
       </c>
       <c r="AS2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB2" t="n">
         <v>151</v>
       </c>
-      <c r="AT2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>451</v>
-      </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>vgnPzklr</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N3" t="n">
+        <v>11</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>451</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>468pA9I6</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>20/11/2024</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Grobina</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Alberts JDFS</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
         <v>1.34</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>4.55</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I4" t="n">
         <v>6.9</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J4" t="n">
         <v>1.8</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K4" t="n">
         <v>2.4</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L4" t="n">
         <v>6.3</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M4" t="n">
         <v>1.02</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N4" t="n">
         <v>15</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O4" t="n">
         <v>1.15</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P4" t="n">
         <v>4.05</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q4" t="n">
         <v>1.6</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R4" t="n">
         <v>2.07</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S4" t="n">
         <v>1.29</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T4" t="n">
         <v>3.32</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U4" t="n">
         <v>1.91</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V4" t="n">
         <v>1.85</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W4" t="n">
         <v>6.4</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X4" t="n">
         <v>5.7</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y4" t="n">
         <v>7.2</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z4" t="n">
         <v>7.3</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA4" t="n">
         <v>9.25</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB4" t="n">
         <v>21</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC4" t="n">
         <v>13</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD4" t="n">
         <v>8</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE4" t="n">
         <v>16.5</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF4" t="n">
         <v>65</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG4" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH4" t="n">
         <v>16</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI4" t="n">
         <v>35</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ4" t="n">
         <v>18</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AK4" t="n">
         <v>110</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AL4" t="n">
         <v>60</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM4" t="n">
         <v>50</v>
       </c>
-      <c r="AM3" t="n">
-        <v>450</v>
-      </c>
-      <c r="AN3" t="n">
+      <c r="AN4" t="n">
         <v>3.15</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO4" t="n">
         <v>6</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP4" t="n">
         <v>16</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ4" t="n">
         <v>16</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR4" t="n">
         <v>45</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS4" t="n">
         <v>200</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT4" t="n">
         <v>3.1</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU4" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV4" t="n">
         <v>80</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW4" t="n">
         <v>8.25</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX4" t="n">
         <v>40</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY4" t="n">
         <v>40</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ4" t="n">
         <v>300</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA4" t="n">
         <v>300</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB4" t="n">
         <v>400</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC4" t="n">
         <v>51</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD4" t="n">
         <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>zuhsk28K</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>468pA9I6</t>
+          <t>C6pXYSIf</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Alberts JDFS</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>4.55</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>6.9</v>
+        <v>5.75</v>
       </c>
       <c r="J4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.8</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.85</v>
-      </c>
       <c r="W4" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>5.7</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.3</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
-        <v>9.25</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP4" t="n">
         <v>21</v>
       </c>
-      <c r="AC4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>16</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
         <v>8.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AY4" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>zuhsk28K</t>
+          <t>IqoTZ83l</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,172 +1274,718 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.35</v>
+        <v>2.63</v>
       </c>
       <c r="H5" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.75</v>
       </c>
-      <c r="T5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.5</v>
-      </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
       </c>
       <c r="Z5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA5" t="n">
         <v>23</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
         <v>29</v>
       </c>
-      <c r="AB5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
         <v>41</v>
       </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
         <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
       </c>
       <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA5" t="n">
         <v>101</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="BB5" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>8YwtX6m7</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
         <v>351</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AH6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>468pA9I6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LATVIA - VIRSLIGA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Grobina</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alberts JDFS</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>300</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>zuhsk28K</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT8" t="n">
         <v>2</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU8" t="n">
         <v>11</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV8" t="n">
         <v>101</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW8" t="n">
         <v>5</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX8" t="n">
         <v>23</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY8" t="n">
         <v>41</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ8" t="n">
         <v>81</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA8" t="n">
         <v>151</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB8" t="n">
         <v>500</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC8" t="n">
         <v>81</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD8" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
@@ -938,13 +938,13 @@
         <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K3" t="n">
         <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -959,10 +959,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1016,7 +1016,7 @@
         <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
         <v>101</v>
@@ -1031,7 +1031,7 @@
         <v>3.2</v>
       </c>
       <c r="AO3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -1141,10 +1141,10 @@
         <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="R4" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1505,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1857,10 +1857,10 @@
         <v>4.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.67</v>
@@ -1875,10 +1875,10 @@
         <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T8" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="U8" t="n">
         <v>2.5</v>
@@ -1988,6 +1988,180 @@
       <c r="BD8" t="n">
         <v>81</v>
       </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6uOnIaCm</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Briton Ferry</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>40</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J9" t="n">
+        <v>29</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W9" t="n">
+        <v>200</v>
+      </c>
+      <c r="X9" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>300</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>800</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>500</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>500</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="n">
+        <v>500</v>
+      </c>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>175</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>32</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GbLZ1izi</t>
+          <t>CvxlIAM2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GV San Jose</t>
+          <t>Newells Old Boys</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Central Cordoba</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH2" t="n">
         <v>15</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>9</v>
-      </c>
-      <c r="X2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC2" t="n">
+      <c r="AI2" t="n">
         <v>13</v>
       </c>
-      <c r="AD2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF2" t="n">
+      <c r="AJ2" t="n">
         <v>41</v>
       </c>
-      <c r="AG2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>13</v>
-      </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>501</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY2" t="n">
         <v>41</v>
       </c>
-      <c r="AW2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>401</v>
       </c>
       <c r="BC2" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>vgnPzklr</t>
+          <t>GbLZ1izi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>GV San Jose</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.38</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V3" t="n">
         <v>2.2</v>
       </c>
-      <c r="V3" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC3" t="n">
         <v>13</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AD3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>34</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>21</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
       </c>
       <c r="AS3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB3" t="n">
         <v>151</v>
       </c>
-      <c r="AT3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>451</v>
-      </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C6pXYSIf</t>
+          <t>vgnPzklr</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,37 +1102,37 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
@@ -1141,10 +1141,10 @@
         <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1153,73 +1153,73 @@
         <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>12</v>
       </c>
       <c r="AA4" t="n">
         <v>13</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>351</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1231,28 +1231,28 @@
         <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BA4" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IqoTZ83l</t>
+          <t>C6pXYSIf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,133 +1284,133 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.63</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.95</v>
       </c>
-      <c r="L5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="V5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X5" t="n">
         <v>7</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD5" t="n">
         <v>7</v>
-      </c>
-      <c r="X5" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>5.5</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
       </c>
       <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>67</v>
       </c>
-      <c r="AG5" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
-      </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR5" t="n">
         <v>51</v>
       </c>
-      <c r="AR5" t="n">
-        <v>81</v>
-      </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="AU5" t="n">
         <v>9</v>
@@ -1419,19 +1419,19 @@
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
         <v>301</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8YwtX6m7</t>
+          <t>IqoTZ83l</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,157 +1466,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U6" t="n">
         <v>2</v>
       </c>
-      <c r="L6" t="n">
-        <v>4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W6" t="n">
         <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>451</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO6" t="n">
         <v>15</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AP6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>51</v>
       </c>
-      <c r="AG6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
         <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>468pA9I6</t>
+          <t>8YwtX6m7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Alberts JDFS</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.34</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>4.55</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>6.9</v>
+        <v>3.25</v>
       </c>
       <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.8</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="W7" t="n">
+        <v>7</v>
+      </c>
+      <c r="X7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
         <v>15</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X7" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC7" t="n">
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO7" t="n">
         <v>13</v>
       </c>
-      <c r="AD7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>6</v>
-      </c>
       <c r="AP7" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
         <v>8.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.25</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>400</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>zuhsk28K</t>
+          <t>468pA9I6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,348 +1820,530 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Grobina</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Alberts JDFS</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.35</v>
+        <v>1.34</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>4.55</v>
       </c>
       <c r="I8" t="n">
-        <v>3.7</v>
+        <v>6.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="K8" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>4.5</v>
+        <v>6.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.67</v>
+        <v>1.15</v>
       </c>
       <c r="P8" t="n">
-        <v>2.1</v>
+        <v>4.05</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.33</v>
+        <v>2.07</v>
       </c>
       <c r="S8" t="n">
-        <v>1.73</v>
+        <v>1.29</v>
       </c>
       <c r="T8" t="n">
-        <v>2.08</v>
+        <v>3.32</v>
       </c>
       <c r="U8" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="W8" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="X8" t="n">
-        <v>9.5</v>
+        <v>5.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>7.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>29</v>
+        <v>9.25</v>
       </c>
       <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>300</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC8" t="n">
         <v>51</v>
       </c>
-      <c r="AC8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
+      <c r="BD8" t="n">
         <v>51</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>zuhsk28K</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>6uOnIaCm</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>20/11/2024</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>16:45</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Briton Ferry</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>TNS</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>40</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>8.75</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>1.04</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>29</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K10" t="n">
         <v>3.5</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L10" t="n">
         <v>1.27</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M10" t="n">
         <v>1.02</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N10" t="n">
         <v>10</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O10" t="n">
         <v>1.08</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>6.6</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>1.26</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R10" t="n">
         <v>3.5</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S10" t="n">
         <v>1.18</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T10" t="n">
         <v>4.25</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U10" t="n">
         <v>2.95</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V10" t="n">
         <v>1.35</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W10" t="n">
         <v>200</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X10" t="n">
         <v>800</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y10" t="n">
         <v>300</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z10" t="n">
         <v>1000</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA10" t="n">
         <v>500</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB10" t="n">
         <v>800</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC10" t="n">
         <v>21</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD10" t="n">
         <v>32</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE10" t="n">
         <v>90</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF10" t="n">
         <v>500</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM10" t="n">
         <v>900</v>
       </c>
-      <c r="AH9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN9" t="n">
+      <c r="AN10" t="n">
         <v>40</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO10" t="n">
         <v>500</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP10" t="n">
         <v>250</v>
       </c>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="n">
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="n">
         <v>500</v>
       </c>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="n">
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="n">
         <v>4.25</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AU10" t="n">
         <v>16</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AV10" t="n">
         <v>175</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AW10" t="n">
         <v>3.05</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AX10" t="n">
         <v>3.75</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AY10" t="n">
         <v>19</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AZ10" t="n">
         <v>6.5</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BA10" t="n">
         <v>32</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BB10" t="n">
         <v>300</v>
       </c>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
         <v>3</v>
@@ -1705,7 +1705,7 @@
         <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
         <v>10</v>
@@ -1729,7 +1729,7 @@
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
@@ -1756,7 +1756,7 @@
         <v>351</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
         <v>13</v>
@@ -1857,10 +1857,10 @@
         <v>6.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
         <v>1.15</v>
@@ -1881,10 +1881,10 @@
         <v>3.32</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V8" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="W8" t="n">
         <v>6.4</v>
@@ -2039,16 +2039,16 @@
         <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
         <v>3.4</v>
@@ -2057,10 +2057,10 @@
         <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T9" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U9" t="n">
         <v>2.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -965,7 +965,7 @@
         <v>2.15</v>
       </c>
       <c r="S3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T3" t="n">
         <v>3.25</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H4" t="n">
         <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K4" t="n">
         <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1141,13 +1141,13 @@
         <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R4" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T4" t="n">
         <v>2.75</v>
@@ -1165,10 +1165,10 @@
         <v>6</v>
       </c>
       <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
         <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>8.5</v>
       </c>
       <c r="AA4" t="n">
         <v>13</v>
@@ -1180,7 +1180,7 @@
         <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1189,7 +1189,7 @@
         <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
@@ -1207,13 +1207,13 @@
         <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AN4" t="n">
         <v>3.2</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
@@ -1237,7 +1237,7 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX4" t="n">
         <v>41</v>
@@ -1329,7 +1329,7 @@
         <v>1.87</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T5" t="n">
         <v>2.75</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
@@ -1484,7 +1484,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
@@ -1511,10 +1511,10 @@
         <v>1.53</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="U6" t="n">
         <v>2</v>
@@ -1529,7 +1529,7 @@
         <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
         <v>26</v>
@@ -1544,7 +1544,7 @@
         <v>7</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>17</v>
@@ -1562,7 +1562,7 @@
         <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
@@ -1574,7 +1574,7 @@
         <v>451</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
         <v>15</v>
@@ -1604,13 +1604,13 @@
         <v>4.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
         <v>101</v>
@@ -2045,10 +2045,10 @@
         <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q9" t="n">
         <v>3.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -965,7 +965,7 @@
         <v>2.15</v>
       </c>
       <c r="S3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T3" t="n">
         <v>3.25</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="H4" t="n">
         <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>2.3</v>
@@ -1141,22 +1141,22 @@
         <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S4" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
         <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1165,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>9</v>
@@ -1189,16 +1189,16 @@
         <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
@@ -1210,7 +1210,7 @@
         <v>501</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
@@ -1231,7 +1231,7 @@
         <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
@@ -1246,13 +1246,13 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
         <v>201</v>
       </c>
       <c r="BB4" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
@@ -1314,7 +1314,7 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1329,7 +1329,7 @@
         <v>1.87</v>
       </c>
       <c r="S5" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
         <v>2.75</v>
@@ -1344,7 +1344,7 @@
         <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
@@ -1371,22 +1371,22 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
         <v>351</v>
@@ -1401,7 +1401,7 @@
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1413,10 +1413,10 @@
         <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
         <v>7</v>
@@ -1425,7 +1425,7 @@
         <v>29</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
         <v>101</v>
@@ -1511,10 +1511,10 @@
         <v>1.53</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="U6" t="n">
         <v>2</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>468pA9I6</t>
+          <t>2BqdsiBE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Alberts JDFS</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.34</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
-        <v>4.55</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>6.9</v>
+        <v>1.95</v>
       </c>
       <c r="J8" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>6.3</v>
+        <v>2.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S8" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>3.32</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>1.86</v>
+        <v>2.1</v>
       </c>
       <c r="W8" t="n">
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="X8" t="n">
-        <v>5.7</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.3</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="n">
-        <v>9.25</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
         <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>8.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
-        <v>18</v>
+        <v>8.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AM8" t="n">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.15</v>
+        <v>5.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>8.25</v>
+        <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AY8" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="BA8" t="n">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>400</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>zuhsk28K</t>
+          <t>468pA9I6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,348 +2002,530 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Grobina</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Alberts JDFS</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.35</v>
+        <v>1.34</v>
       </c>
       <c r="H9" t="n">
-        <v>2.7</v>
+        <v>4.55</v>
       </c>
       <c r="I9" t="n">
-        <v>3.7</v>
+        <v>6.9</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="K9" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>6.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.17</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.67</v>
+        <v>1.15</v>
       </c>
       <c r="P9" t="n">
-        <v>2.1</v>
+        <v>4.05</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>2.07</v>
       </c>
       <c r="S9" t="n">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="T9" t="n">
-        <v>2.05</v>
+        <v>3.32</v>
       </c>
       <c r="U9" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="V9" t="n">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="W9" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="X9" t="n">
-        <v>9.5</v>
+        <v>5.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>7.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>29</v>
+        <v>9.25</v>
       </c>
       <c r="AB9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>300</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC9" t="n">
         <v>51</v>
       </c>
-      <c r="AC9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
+      <c r="BD9" t="n">
         <v>51</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>zuhsk28K</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>6uOnIaCm</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>20/11/2024</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>16:45</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Briton Ferry</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>TNS</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>40</v>
       </c>
-      <c r="H10" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.04</v>
       </c>
-      <c r="J10" t="n">
-        <v>29</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="J11" t="n">
+        <v>28</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L11" t="n">
         <v>1.27</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M11" t="n">
         <v>1.02</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N11" t="n">
         <v>10</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O11" t="n">
         <v>1.08</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W11" t="n">
+        <v>200</v>
+      </c>
+      <c r="X11" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>300</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>800</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>500</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>37</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>500</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="n">
+        <v>500</v>
+      </c>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>175</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>6.6</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="T10" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W10" t="n">
-        <v>200</v>
-      </c>
-      <c r="X10" t="n">
-        <v>800</v>
-      </c>
-      <c r="Y10" t="n">
+      <c r="BA11" t="n">
+        <v>32</v>
+      </c>
+      <c r="BB11" t="n">
         <v>300</v>
       </c>
-      <c r="Z10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>800</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>500</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>500</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>250</v>
-      </c>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="n">
-        <v>500</v>
-      </c>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>175</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>32</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -971,22 +971,22 @@
         <v>3.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W3" t="n">
+        <v>10</v>
+      </c>
+      <c r="X3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y3" t="n">
         <v>9</v>
       </c>
-      <c r="X3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
@@ -995,10 +995,10 @@
         <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
@@ -1007,31 +1007,31 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL3" t="n">
         <v>26</v>
       </c>
-      <c r="AL3" t="n">
-        <v>29</v>
-      </c>
       <c r="AM3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
         <v>19</v>
@@ -1055,10 +1055,10 @@
         <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>23</v>
@@ -1070,7 +1070,7 @@
         <v>67</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H4" t="n">
         <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K4" t="n">
         <v>2.3</v>
@@ -1141,10 +1141,10 @@
         <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R4" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1153,10 +1153,10 @@
         <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1165,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
         <v>9</v>
@@ -1189,13 +1189,13 @@
         <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>81</v>
@@ -1210,7 +1210,7 @@
         <v>501</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
@@ -1231,7 +1231,7 @@
         <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
@@ -1246,13 +1246,13 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA4" t="n">
         <v>201</v>
       </c>
       <c r="BB4" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1296,7 +1296,7 @@
         <v>1.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
         <v>5.75</v>
@@ -1314,7 +1314,7 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1374,7 +1374,7 @@
         <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
         <v>17</v>
@@ -1493,22 +1493,22 @@
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>
@@ -1687,10 +1687,10 @@
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
         <v>1.5</v>
@@ -2048,7 +2048,7 @@
         <v>1.15</v>
       </c>
       <c r="P9" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
         <v>1.6</v>
@@ -2060,7 +2060,7 @@
         <v>1.29</v>
       </c>
       <c r="T9" t="n">
-        <v>3.32</v>
+        <v>3.28</v>
       </c>
       <c r="U9" t="n">
         <v>1.9</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -759,10 +759,10 @@
         <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -771,10 +771,10 @@
         <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q2" t="n">
         <v>2.7</v>
@@ -789,10 +789,10 @@
         <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
@@ -837,7 +837,7 @@
         <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -861,7 +861,7 @@
         <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
         <v>2.2</v>
@@ -1111,19 +1111,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I4" t="n">
         <v>7.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
         <v>7.5</v>
@@ -1141,10 +1141,10 @@
         <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1165,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>9</v>
@@ -1189,13 +1189,13 @@
         <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
         <v>81</v>
@@ -1210,7 +1210,7 @@
         <v>501</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
@@ -1246,7 +1246,7 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
         <v>201</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
@@ -1484,10 +1484,10 @@
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
         <v>3.75</v>
@@ -1511,37 +1511,37 @@
         <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
         <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1562,7 +1562,7 @@
         <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
@@ -1571,7 +1571,7 @@
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AN6" t="n">
         <v>4.33</v>
@@ -1589,10 +1589,10 @@
         <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU6" t="n">
         <v>9</v>
@@ -1607,7 +1607,7 @@
         <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
         <v>67</v>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="G8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H8" t="n">
         <v>3.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.8</v>
       </c>
       <c r="I8" t="n">
         <v>1.95</v>
@@ -1947,7 +1947,7 @@
         <v>26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
         <v>81</v>
@@ -2024,10 +2024,10 @@
         <v>1.34</v>
       </c>
       <c r="H9" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="J9" t="n">
         <v>1.8</v>
@@ -2036,13 +2036,13 @@
         <v>2.4</v>
       </c>
       <c r="L9" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>1.15</v>
@@ -2054,7 +2054,7 @@
         <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S9" t="n">
         <v>1.29</v>
@@ -2063,13 +2063,13 @@
         <v>3.28</v>
       </c>
       <c r="U9" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="W9" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="X9" t="n">
         <v>5.7</v>
@@ -2087,34 +2087,34 @@
         <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AE9" t="n">
         <v>16.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG9" t="n">
         <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI9" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK9" t="n">
         <v>60</v>
       </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
         <v>450</v>
@@ -2147,7 +2147,7 @@
         <v>80</v>
       </c>
       <c r="AW9" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AX9" t="n">
         <v>40</v>
@@ -2233,10 +2233,10 @@
         <v>2.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S10" t="n">
         <v>1.73</v>
@@ -2391,16 +2391,16 @@
         <v>8.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="J11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K11" t="n">
         <v>3.45</v>
       </c>
       <c r="L11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
@@ -2415,7 +2415,7 @@
         <v>6.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="R11" t="n">
         <v>3.4</v>
@@ -2427,19 +2427,19 @@
         <v>4.2</v>
       </c>
       <c r="U11" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="V11" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W11" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="X11" t="n">
         <v>800</v>
       </c>
       <c r="Y11" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -2448,7 +2448,7 @@
         <v>500</v>
       </c>
       <c r="AB11" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AC11" t="n">
         <v>21</v>
@@ -2457,10 +2457,10 @@
         <v>30</v>
       </c>
       <c r="AE11" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
@@ -2469,7 +2469,7 @@
         <v>6.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ11" t="n">
         <v>5.6</v>
@@ -2478,19 +2478,19 @@
         <v>14</v>
       </c>
       <c r="AL11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM11" t="n">
         <v>900</v>
       </c>
       <c r="AN11" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AO11" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AP11" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="n">
@@ -2501,7 +2501,7 @@
         <v>4.2</v>
       </c>
       <c r="AU11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AV11" t="n">
         <v>175</v>
@@ -2510,13 +2510,13 @@
         <v>3</v>
       </c>
       <c r="AX11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ11" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="BA11" t="n">
         <v>32</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H4" t="n">
         <v>4.33</v>
       </c>
       <c r="I4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
@@ -1126,7 +1126,7 @@
         <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1153,28 +1153,28 @@
         <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA4" t="n">
         <v>13</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
         <v>10</v>
@@ -1183,7 +1183,7 @@
         <v>8.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>81</v>
@@ -1213,13 +1213,13 @@
         <v>3.25</v>
       </c>
       <c r="AO4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1231,13 +1231,13 @@
         <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX4" t="n">
         <v>41</v>
@@ -1252,7 +1252,7 @@
         <v>201</v>
       </c>
       <c r="BB4" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1317,16 +1317,16 @@
         <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>468pA9I6</t>
+          <t>Q9lyYnY0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Alberts JDFS</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.34</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
         <v>4.5</v>
       </c>
-      <c r="I9" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.8</v>
-      </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>6.4</v>
+        <v>2.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="T9" t="n">
-        <v>3.28</v>
+        <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W9" t="n">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="X9" t="n">
-        <v>5.7</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.2</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.3</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="n">
-        <v>9.25</v>
+        <v>34</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AH9" t="n">
-        <v>37</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>18.5</v>
+        <v>9</v>
       </c>
       <c r="AJ9" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.15</v>
+        <v>5.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AP9" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AQ9" t="n">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="AR9" t="n">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="AS9" t="n">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
         <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="AX9" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>zuhsk28K</t>
+          <t>n319JmJ7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J10" t="n">
         <v>2.3</v>
       </c>
-      <c r="H10" t="n">
+      <c r="K10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T10" t="n">
         <v>2.75</v>
       </c>
-      <c r="I10" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="U10" t="n">
         <v>1.8</v>
       </c>
-      <c r="L10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.5</v>
-      </c>
       <c r="V10" t="n">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="W10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB10" t="n">
         <v>26</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
         <v>51</v>
       </c>
-      <c r="AC10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>101</v>
-      </c>
       <c r="AG10" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI10" t="n">
         <v>17</v>
       </c>
-      <c r="AI10" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK10" t="n">
         <v>41</v>
       </c>
       <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR10" t="n">
         <v>51</v>
       </c>
-      <c r="AM10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP10" t="n">
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY10" t="n">
         <v>34</v>
       </c>
-      <c r="AQ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AZ10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA10" t="n">
         <v>101</v>
       </c>
-      <c r="AS10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>151</v>
-      </c>
       <c r="BB10" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6uOnIaCm</t>
+          <t>468pA9I6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,166 +2366,530 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>WALES - CYMRU PREMIER</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Briton Ferry</t>
+          <t>Grobina</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Alberts JDFS</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>40</v>
+        <v>1.35</v>
       </c>
       <c r="H11" t="n">
-        <v>8.5</v>
+        <v>4.25</v>
       </c>
       <c r="I11" t="n">
-        <v>1.05</v>
+        <v>7.3</v>
       </c>
       <c r="J11" t="n">
-        <v>26</v>
+        <v>1.85</v>
       </c>
       <c r="K11" t="n">
-        <v>3.45</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28</v>
+        <v>6.6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
         <v>10</v>
       </c>
       <c r="O11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>300</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>350</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>zuhsk28K</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>6uOnIaCm</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Briton Ferry</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>35</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J13" t="n">
+        <v>23</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
         <v>1.08</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P13" t="n">
         <v>6.4</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q13" t="n">
         <v>1.28</v>
       </c>
-      <c r="R11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="T11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="R13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W13" t="n">
+        <v>150</v>
+      </c>
+      <c r="X13" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>700</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>400</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>350</v>
+      </c>
+      <c r="AP13" t="n">
         <v>175</v>
       </c>
-      <c r="X11" t="n">
-        <v>800</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>250</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="n">
         <v>500</v>
       </c>
-      <c r="AB11" t="n">
-        <v>900</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>450</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>35</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>450</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>200</v>
-      </c>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="n">
-        <v>500</v>
-      </c>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>175</v>
-      </c>
-      <c r="AW11" t="n">
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AW13" t="n">
         <v>3</v>
       </c>
-      <c r="AX11" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="BA11" t="n">
+      <c r="AX13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="BA13" t="n">
         <v>32</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BB13" t="n">
         <v>300</v>
       </c>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,13 +750,13 @@
         <v>2.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
@@ -765,34 +765,34 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="P2" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
@@ -801,19 +801,19 @@
         <v>9</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -822,16 +822,16 @@
         <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
@@ -852,22 +852,22 @@
         <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
@@ -885,10 +885,10 @@
         <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GbLZ1izi</t>
+          <t>IcW6Ba5m</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GV San Jose</t>
+          <t>Estudiantes L.P.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN3" t="n">
         <v>3.6</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N3" t="n">
-        <v>15</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W3" t="n">
-        <v>10</v>
-      </c>
-      <c r="X3" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
         <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>401</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX3" t="n">
         <v>34</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AY3" t="n">
         <v>51</v>
       </c>
-      <c r="AS3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BB3" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC3" t="n">
         <v>126</v>
       </c>
-      <c r="BC3" t="n">
-        <v>51</v>
-      </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vgnPzklr</t>
+          <t>dpZZ86qk</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,134 +1092,134 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
         <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
         <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1228,43 +1228,43 @@
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA4" t="n">
         <v>151</v>
       </c>
-      <c r="BA4" t="n">
-        <v>201</v>
-      </c>
       <c r="BB4" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C6pXYSIf</t>
+          <t>GbLZ1izi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>GV San Jose</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V5" t="n">
         <v>2.25</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="W5" t="n">
         <v>10</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6.5</v>
-      </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL5" t="n">
         <v>26</v>
       </c>
-      <c r="AI5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
       <c r="AM5" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>51</v>
       </c>
-      <c r="AW5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>101</v>
-      </c>
       <c r="BA5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB5" t="n">
         <v>126</v>
       </c>
-      <c r="BB5" t="n">
-        <v>301</v>
-      </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IqoTZ83l</t>
+          <t>vgnPzklr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,157 +1466,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.63</v>
+        <v>1.45</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X6" t="n">
         <v>6.5</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>11</v>
-      </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>9.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
         <v>501</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR6" t="n">
         <v>51</v>
       </c>
-      <c r="AR6" t="n">
-        <v>81</v>
-      </c>
       <c r="AS6" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8YwtX6m7</t>
+          <t>C6pXYSIf</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,55 +1648,55 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J7" t="n">
         <v>2.25</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
         <v>3.4</v>
       </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.4</v>
       </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
         <v>1.95</v>
@@ -1708,25 +1708,25 @@
         <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>17</v>
@@ -1735,19 +1735,19 @@
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
@@ -1756,49 +1756,49 @@
         <v>351</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
         <v>8.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2BqdsiBE</t>
+          <t>IqoTZ83l</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,121 +1830,121 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L8" t="n">
         <v>3.75</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T8" t="n">
         <v>2.25</v>
       </c>
-      <c r="L8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>13</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="U8" t="n">
         <v>2.05</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V8" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="W8" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
         <v>26</v>
       </c>
       <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>29</v>
       </c>
-      <c r="AC8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AK8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL8" t="n">
         <v>41</v>
       </c>
-      <c r="AG8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK8" t="n">
+      <c r="AM8" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO8" t="n">
         <v>15</v>
       </c>
-      <c r="AL8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>19</v>
-      </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
@@ -1953,37 +1953,37 @@
         <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC8" t="n">
         <v>126</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>501</v>
       </c>
       <c r="BD8" t="n">
         <v>126</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q9lyYnY0</t>
+          <t>8YwtX6m7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,31 +2012,31 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.4</v>
       </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
       <c r="J9" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -2051,10 +2051,10 @@
         <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2063,79 +2063,79 @@
         <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
         <v>34</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
       </c>
       <c r="AC9" t="n">
         <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
         <v>67</v>
       </c>
-      <c r="AG9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>451</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>126</v>
-      </c>
       <c r="AS9" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
         <v>2.5</v>
@@ -2147,22 +2147,22 @@
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX9" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>n319JmJ7</t>
+          <t>2BqdsiBE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2194,160 +2194,160 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.73</v>
+        <v>3.75</v>
       </c>
       <c r="H10" t="n">
         <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="J10" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V10" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="X10" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
         <v>13</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>10</v>
       </c>
       <c r="AD10" t="n">
         <v>7</v>
       </c>
       <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK10" t="n">
         <v>15</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AL10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>51</v>
       </c>
-      <c r="AG10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>29</v>
-      </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS10" t="n">
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AY10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>34</v>
       </c>
-      <c r="AZ10" t="n">
-        <v>81</v>
-      </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD10" t="n">
         <v>126</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>468pA9I6</t>
+          <t>Q9lyYnY0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Alberts JDFS</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.35</v>
+        <v>3.75</v>
       </c>
       <c r="H11" t="n">
-        <v>4.25</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>7.3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>6.6</v>
+        <v>2.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="R11" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="T11" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="U11" t="n">
         <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="W11" t="n">
-        <v>5.8</v>
+        <v>9</v>
       </c>
       <c r="X11" t="n">
-        <v>5.4</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.1</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.2</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="n">
-        <v>9.5</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>40</v>
+        <v>8.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>18.5</v>
+        <v>9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>6.2</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AQ11" t="n">
-        <v>17.5</v>
+        <v>81</v>
       </c>
       <c r="AR11" t="n">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="AS11" t="n">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.87</v>
+        <v>2.5</v>
       </c>
       <c r="AU11" t="n">
         <v>8.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="AY11" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="BA11" t="n">
-        <v>350</v>
+        <v>67</v>
       </c>
       <c r="BB11" t="n">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>zuhsk28K</t>
+          <t>n319JmJ7</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J12" t="n">
         <v>2.3</v>
       </c>
-      <c r="H12" t="n">
+      <c r="K12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T12" t="n">
         <v>2.75</v>
       </c>
-      <c r="I12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="U12" t="n">
         <v>1.8</v>
       </c>
-      <c r="L12" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.5</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="W12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC12" t="n">
         <v>11</v>
       </c>
-      <c r="Z12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="AD12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH12" t="n">
         <v>26</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AI12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>51</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>41</v>
       </c>
       <c r="AK12" t="n">
         <v>41</v>
       </c>
       <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR12" t="n">
         <v>51</v>
       </c>
-      <c r="AM12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP12" t="n">
+      <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY12" t="n">
         <v>34</v>
       </c>
-      <c r="AQ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AZ12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA12" t="n">
         <v>101</v>
       </c>
-      <c r="AS12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>151</v>
-      </c>
       <c r="BB12" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="BC12" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD12" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6uOnIaCm</t>
+          <t>468pA9I6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,166 +2730,530 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>WALES - CYMRU PREMIER</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Briton Ferry</t>
+          <t>Grobina</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Alberts JDFS</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>35</v>
+        <v>1.32</v>
       </c>
       <c r="H13" t="n">
-        <v>8.25</v>
+        <v>4.4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.05</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>23</v>
+        <v>1.78</v>
       </c>
       <c r="K13" t="n">
-        <v>3.35</v>
+        <v>2.35</v>
       </c>
       <c r="L13" t="n">
-        <v>1.3</v>
+        <v>7.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>6.4</v>
+        <v>3.76</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="R13" t="n">
-        <v>3.35</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="T13" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="U13" t="n">
-        <v>2.77</v>
+        <v>2.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.39</v>
+        <v>1.76</v>
       </c>
       <c r="W13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X13" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>150</v>
       </c>
-      <c r="X13" t="n">
-        <v>800</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>700</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>400</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>5.7</v>
-      </c>
       <c r="AK13" t="n">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="n">
         <v>60</v>
       </c>
       <c r="AM13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>350</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>350</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>zuhsk28K</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>6uOnIaCm</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Briton Ferry</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>37</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J15" t="n">
+        <v>25</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P15" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W15" t="n">
+        <v>175</v>
+      </c>
+      <c r="X15" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>250</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>800</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>400</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM15" t="n">
         <v>900</v>
       </c>
-      <c r="AN13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>350</v>
-      </c>
-      <c r="AP13" t="n">
+      <c r="AN15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>400</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="n">
+        <v>500</v>
+      </c>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AV15" t="n">
         <v>175</v>
       </c>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="n">
-        <v>500</v>
-      </c>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AW13" t="n">
+      <c r="AW15" t="n">
         <v>3</v>
       </c>
-      <c r="AX13" t="n">
+      <c r="AX15" t="n">
         <v>3.85</v>
       </c>
-      <c r="AY13" t="n">
+      <c r="AY15" t="n">
         <v>18</v>
       </c>
-      <c r="AZ13" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="BA13" t="n">
+      <c r="AZ15" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA15" t="n">
         <v>32</v>
       </c>
-      <c r="BB13" t="n">
+      <c r="BB15" t="n">
         <v>300</v>
       </c>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
@@ -959,10 +959,10 @@
         <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
         <v>1.67</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="H4" t="n">
         <v>3.8</v>
@@ -1296,13 +1296,13 @@
         <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
         <v>3.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
         <v>2.3</v>
@@ -1317,28 +1317,28 @@
         <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W5" t="n">
         <v>10</v>
@@ -1350,7 +1350,7 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1362,16 +1362,16 @@
         <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>19</v>
@@ -1410,10 +1410,10 @@
         <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV5" t="n">
         <v>41</v>
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>51</v>
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H6" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
         <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
         <v>7</v>
@@ -1499,34 +1499,34 @@
         <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R6" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X6" t="n">
         <v>6</v>
-      </c>
-      <c r="X6" t="n">
-        <v>6.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
@@ -1538,16 +1538,16 @@
         <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
         <v>81</v>
@@ -1589,13 +1589,13 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
@@ -1616,7 +1616,7 @@
         <v>201</v>
       </c>
       <c r="BB6" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1681,16 +1681,16 @@
         <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -2776,7 +2776,7 @@
         <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>3.76</v>
+        <v>3.78</v>
       </c>
       <c r="Q13" t="n">
         <v>1.65</v>
@@ -2791,10 +2791,10 @@
         <v>3.15</v>
       </c>
       <c r="U13" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="W13" t="n">
         <v>5.8</v>
@@ -2961,10 +2961,10 @@
         <v>2.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S14" t="n">
         <v>1.73</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD15"/>
+  <dimension ref="A1:BD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
@@ -765,16 +765,16 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
         <v>3.1</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
         <v>3.8</v>
@@ -1129,10 +1129,10 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>vgnPzklr</t>
+          <t>YeqaRSKa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,59 +1456,59 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Blooming</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1517,118 +1517,114 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="W6" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
         <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH6" t="n">
         <v>23</v>
       </c>
-      <c r="AF6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG6" t="n">
+      <c r="AI6" t="n">
         <v>15</v>
       </c>
-      <c r="AH6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AK6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
         <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AY6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BA6" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>451</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>126</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C6pXYSIf</t>
+          <t>vgnPzklr</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1634,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,31 +1644,31 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="K7" t="n">
         <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1681,124 +1677,124 @@
         <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="n">
         <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="X7" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AA7" t="n">
         <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AK7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM7" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
       </c>
       <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>151</v>
       </c>
-      <c r="AT7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>101</v>
-      </c>
       <c r="BA7" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BB7" t="n">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1810,7 +1806,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IqoTZ83l</t>
+          <t>C6pXYSIf</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,154 +1826,154 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.63</v>
+        <v>1.65</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="J8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
         <v>3.4</v>
       </c>
-      <c r="K8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.06</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.84</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V8" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
         <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
         <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>29</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY8" t="n">
         <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="n">
         <v>301</v>
@@ -1992,7 +1988,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8YwtX6m7</t>
+          <t>IqoTZ83l</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,82 +2008,82 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.25</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W9" t="n">
         <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
@@ -2096,19 +2092,19 @@
         <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK9" t="n">
         <v>29</v>
@@ -2117,43 +2113,43 @@
         <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX9" t="n">
         <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
         <v>67</v>
@@ -2162,7 +2158,7 @@
         <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2174,7 +2170,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2BqdsiBE</t>
+          <t>8YwtX6m7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,7 +2180,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2194,160 +2190,160 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.95</v>
       </c>
-      <c r="J10" t="n">
-        <v>4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>13</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
         <v>8.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC10" t="n">
         <v>126</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>501</v>
       </c>
       <c r="BD10" t="n">
         <v>126</v>
@@ -2356,7 +2352,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q9lyYnY0</t>
+          <t>2BqdsiBE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,7 +2362,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,160 +2372,160 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>3.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J11" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T11" t="n">
         <v>3</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
         <v>41</v>
       </c>
       <c r="AA11" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
         <v>41</v>
       </c>
-      <c r="AC11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>67</v>
-      </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>9</v>
       </c>
       <c r="AJ11" t="n">
         <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AM11" t="n">
-        <v>451</v>
+        <v>151</v>
       </c>
       <c r="AN11" t="n">
         <v>5.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="n">
         <v>81</v>
       </c>
-      <c r="AR11" t="n">
-        <v>126</v>
-      </c>
       <c r="AS11" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
         <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC11" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD11" t="n">
         <v>126</v>
@@ -2538,7 +2534,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>n319JmJ7</t>
+          <t>Q9lyYnY0</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,157 +2554,157 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.92</v>
+        <v>2.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
         <v>8</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH12" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>26</v>
-      </c>
       <c r="AI12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>17</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>51</v>
-      </c>
       <c r="AK12" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
-        <v>251</v>
+        <v>451</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ12" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU12" t="n">
         <v>8.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AX12" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC12" t="n">
         <v>126</v>
@@ -2720,7 +2716,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>468pA9I6</t>
+          <t>n319JmJ7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2726,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Alberts JDFS</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.32</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7</v>
+      </c>
+      <c r="X13" t="n">
         <v>8</v>
       </c>
-      <c r="J13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="L13" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="W13" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="X13" t="n">
-        <v>5.3</v>
-      </c>
       <c r="Y13" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.9</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>9.25</v>
+        <v>13</v>
       </c>
       <c r="AB13" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI13" t="n">
         <v>17</v>
       </c>
-      <c r="AF13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI13" t="n">
+      <c r="AJ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP13" t="n">
         <v>21</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="AU13" t="n">
         <v>8.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AY13" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AZ13" t="n">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="BA13" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="BB13" t="n">
-        <v>400</v>
+        <v>251</v>
       </c>
       <c r="BC13" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>zuhsk28K</t>
+          <t>468pA9I6</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,348 +2908,530 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Grobina</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Alberts JDFS</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>1.32</v>
       </c>
       <c r="H14" t="n">
-        <v>2.75</v>
+        <v>4.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>1.78</v>
       </c>
       <c r="K14" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="L14" t="n">
-        <v>4.75</v>
+        <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X14" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN14" t="n">
         <v>3.1</v>
       </c>
-      <c r="R14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W14" t="n">
-        <v>5</v>
-      </c>
-      <c r="X14" t="n">
+      <c r="AO14" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW14" t="n">
         <v>9</v>
       </c>
-      <c r="Y14" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AX14" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AY14" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AZ14" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="BA14" t="n">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="BB14" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BC14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>zuhsk28K</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>6uOnIaCm</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>20/11/2024</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>16:45</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Briton Ferry</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>TNS</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>37</v>
       </c>
-      <c r="H15" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+      <c r="I16" t="n">
         <v>1.05</v>
       </c>
-      <c r="J15" t="n">
-        <v>25</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="J16" t="n">
+        <v>23</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M16" t="n">
         <v>1.02</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N16" t="n">
         <v>10</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P15" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="O16" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S16" t="n">
         <v>1.2</v>
       </c>
-      <c r="T15" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="T16" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W16" t="n">
+        <v>150</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>700</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>350</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>350</v>
+      </c>
+      <c r="AP16" t="n">
         <v>175</v>
       </c>
-      <c r="X15" t="n">
-        <v>800</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>250</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA15" t="n">
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="n">
         <v>500</v>
       </c>
-      <c r="AB15" t="n">
-        <v>800</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>400</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN15" t="n">
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BA16" t="n">
         <v>32</v>
       </c>
-      <c r="AO15" t="n">
-        <v>400</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>200</v>
-      </c>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="n">
-        <v>500</v>
-      </c>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>175</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>32</v>
-      </c>
-      <c r="BB15" t="n">
+      <c r="BB16" t="n">
         <v>300</v>
       </c>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="inlineStr"/>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -750,13 +750,13 @@
         <v>2.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
@@ -765,34 +765,34 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.62</v>
       </c>
-      <c r="P2" t="n">
+      <c r="T2" t="n">
         <v>2.2</v>
       </c>
-      <c r="Q2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.1</v>
-      </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
@@ -801,19 +801,19 @@
         <v>9</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -822,16 +822,16 @@
         <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH2" t="n">
         <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
@@ -852,22 +852,22 @@
         <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
@@ -885,10 +885,10 @@
         <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>2.3</v>
@@ -1135,16 +1135,16 @@
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1180,7 +1180,7 @@
         <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1189,10 +1189,10 @@
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
         <v>17</v>
@@ -1213,7 +1213,7 @@
         <v>3.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
@@ -1225,7 +1225,7 @@
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
         <v>2.63</v>
@@ -1237,7 +1237,7 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
         <v>29</v>
@@ -1246,7 +1246,7 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
         <v>151</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
         <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K7" t="n">
         <v>2.2</v>
@@ -1671,22 +1671,22 @@
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1707,19 +1707,19 @@
         <v>6</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
         <v>8</v>
@@ -1776,7 +1776,7 @@
         <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
         <v>8</v>
@@ -1865,10 +1865,10 @@
         <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="R8" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -2381,34 +2381,34 @@
         </is>
       </c>
       <c r="G11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.75</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
         <v>1.75</v>
@@ -2423,10 +2423,10 @@
         <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W11" t="n">
         <v>12</v>
@@ -2438,19 +2438,19 @@
         <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
         <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2459,16 +2459,16 @@
         <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="n">
         <v>15</v>
@@ -2483,16 +2483,16 @@
         <v>5.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
         <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
         <v>151</v>
@@ -2507,16 +2507,16 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY11" t="n">
         <v>19</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA11" t="n">
         <v>51</v>
@@ -2775,10 +2775,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R13" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2898,7 +2898,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>468pA9I6</t>
+          <t>IZ3qIEYa</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2908,173 +2908,173 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Alberts JDFS</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.32</v>
+        <v>1.85</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="J14" t="n">
-        <v>1.78</v>
+        <v>2.63</v>
       </c>
       <c r="K14" t="n">
-        <v>2.35</v>
+        <v>1.91</v>
       </c>
       <c r="L14" t="n">
-        <v>7.1</v>
+        <v>5.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO14" t="n">
         <v>11</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="W14" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="X14" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>5.9</v>
-      </c>
       <c r="AP14" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="AR14" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AS14" t="n">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.95</v>
+        <v>2.25</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV14" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AW14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX14" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AY14" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AZ14" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="BA14" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="BB14" t="n">
-        <v>400</v>
+        <v>501</v>
       </c>
       <c r="BC14" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD14" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -3291,22 +3291,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="I16" t="n">
         <v>1.05</v>
       </c>
       <c r="J16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K16" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L16" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
@@ -3318,13 +3318,13 @@
         <v>1.09</v>
       </c>
       <c r="P16" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Q16" t="n">
         <v>1.29</v>
       </c>
       <c r="R16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="S16" t="n">
         <v>1.2</v>
@@ -3333,10 +3333,10 @@
         <v>4.05</v>
       </c>
       <c r="U16" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="V16" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W16" t="n">
         <v>150</v>
@@ -3354,10 +3354,10 @@
         <v>500</v>
       </c>
       <c r="AB16" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AC16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD16" t="n">
         <v>26</v>
@@ -3366,10 +3366,10 @@
         <v>70</v>
       </c>
       <c r="AF16" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
         <v>6.5</v>
@@ -3384,16 +3384,16 @@
         <v>13</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
         <v>900</v>
       </c>
       <c r="AN16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO16" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AP16" t="n">
         <v>175</v>
@@ -3407,7 +3407,7 @@
         <v>4.05</v>
       </c>
       <c r="AU16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AV16" t="n">
         <v>150</v>
@@ -3416,13 +3416,13 @@
         <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AY16" t="n">
         <v>18</v>
       </c>
       <c r="AZ16" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="BA16" t="n">
         <v>32</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -759,22 +759,22 @@
         <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
         <v>2.7</v>
@@ -789,10 +789,10 @@
         <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
@@ -837,7 +837,7 @@
         <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -861,7 +861,7 @@
         <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
         <v>2.2</v>
@@ -1656,10 +1656,10 @@
         <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J7" t="n">
         <v>2.1</v>
@@ -1707,7 +1707,7 @@
         <v>6</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
         <v>10</v>
@@ -1722,7 +1722,7 @@
         <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
@@ -1731,7 +1731,7 @@
         <v>81</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
         <v>34</v>
@@ -1755,13 +1755,13 @@
         <v>3.25</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
@@ -2223,16 +2223,16 @@
         <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R10" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2381,16 +2381,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
         <v>2.25</v>
@@ -2399,10 +2399,10 @@
         <v>2.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
         <v>1.25</v>
@@ -2432,10 +2432,10 @@
         <v>12</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
         <v>34</v>
@@ -2447,7 +2447,7 @@
         <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
@@ -2468,10 +2468,10 @@
         <v>9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="n">
         <v>23</v>
@@ -2510,10 +2510,10 @@
         <v>4.33</v>
       </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
         <v>41</v>
@@ -2563,7 +2563,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
@@ -2572,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
@@ -2584,19 +2584,19 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
         <v>1.5</v>
@@ -2605,16 +2605,16 @@
         <v>2.5</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V12" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W12" t="n">
         <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
         <v>13</v>
@@ -2629,7 +2629,7 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
@@ -2659,7 +2659,7 @@
         <v>34</v>
       </c>
       <c r="AM12" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AN12" t="n">
         <v>5.5</v>
@@ -2683,19 +2683,19 @@
         <v>2.5</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>41</v>
@@ -3109,22 +3109,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I15" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L15" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>1.14</v>
@@ -3145,10 +3145,10 @@
         <v>1.36</v>
       </c>
       <c r="S15" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U15" t="n">
         <v>2.5</v>
@@ -3160,19 +3160,19 @@
         <v>5</v>
       </c>
       <c r="X15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y15" t="n">
         <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC15" t="n">
         <v>5</v>
@@ -3187,13 +3187,13 @@
         <v>101</v>
       </c>
       <c r="AG15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI15" t="n">
         <v>17</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>41</v>
@@ -3208,10 +3208,10 @@
         <v>201</v>
       </c>
       <c r="AN15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
         <v>34</v>
@@ -3226,10 +3226,10 @@
         <v>351</v>
       </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV15" t="n">
         <v>101</v>
@@ -3238,7 +3238,7 @@
         <v>5.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY15" t="n">
         <v>41</v>
@@ -3291,22 +3291,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="I16" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="J16" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K16" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
@@ -3324,79 +3324,79 @@
         <v>1.29</v>
       </c>
       <c r="R16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="S16" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="T16" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="U16" t="n">
-        <v>2.77</v>
+        <v>2.5</v>
       </c>
       <c r="V16" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="W16" t="n">
+        <v>120</v>
+      </c>
+      <c r="X16" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y16" t="n">
         <v>150</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>200</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB16" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="AC16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AF16" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AK16" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AM16" t="n">
         <v>900</v>
       </c>
       <c r="AN16" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AO16" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="AP16" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="n">
@@ -3404,31 +3404,31 @@
       </c>
       <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX16" t="n">
         <v>4.05</v>
       </c>
-      <c r="AU16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>150</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>3.85</v>
-      </c>
       <c r="AY16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ16" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="BA16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BB16" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD16"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
         <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
         <v>2.3</v>
@@ -1126,13 +1126,13 @@
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1174,16 +1174,16 @@
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1192,7 +1192,7 @@
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
         <v>17</v>
@@ -1207,7 +1207,7 @@
         <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AN4" t="n">
         <v>3.5</v>
@@ -1216,7 +1216,7 @@
         <v>9</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
@@ -1237,7 +1237,7 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
         <v>29</v>
@@ -1246,7 +1246,7 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
         <v>151</v>
@@ -1481,7 +1481,7 @@
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
         <v>2.5</v>
@@ -1490,25 +1490,25 @@
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1517,10 +1517,10 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
         <v>6.5</v>
@@ -1529,7 +1529,7 @@
         <v>8</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
         <v>15</v>
@@ -1541,13 +1541,13 @@
         <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>51</v>
@@ -1559,7 +1559,7 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
         <v>51</v>
@@ -1571,16 +1571,16 @@
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN6" t="n">
         <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
         <v>34</v>
@@ -1598,25 +1598,25 @@
         <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
         <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
         <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>vgnPzklr</t>
+          <t>OAukwB1L</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1634,53 +1634,53 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L7" t="n">
         <v>4</v>
       </c>
-      <c r="I7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>7</v>
-      </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
         <v>2.1</v>
@@ -1695,76 +1695,76 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH7" t="n">
         <v>15</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AI7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>34</v>
       </c>
-      <c r="AC7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>81</v>
-      </c>
       <c r="AK7" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
         <v>201</v>
@@ -1773,40 +1773,36 @@
         <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA7" t="n">
         <v>81</v>
       </c>
-      <c r="AW7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA7" t="n">
+      <c r="BB7" t="n">
         <v>201</v>
       </c>
-      <c r="BB7" t="n">
-        <v>451</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>126</v>
-      </c>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C6pXYSIf</t>
+          <t>vgnPzklr</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1816,7 +1812,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1826,157 +1822,157 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
+        <v>7</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W8" t="n">
         <v>5.5</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="X8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
         <v>10</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y8" t="n">
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="n">
         <v>13</v>
       </c>
       <c r="AH8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>26</v>
       </c>
-      <c r="AI8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK8" t="n">
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX8" t="n">
         <v>41</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AY8" t="n">
         <v>41</v>
       </c>
-      <c r="AM8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
+      <c r="AZ8" t="n">
         <v>151</v>
       </c>
-      <c r="AT8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>101</v>
-      </c>
       <c r="BA8" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BB8" t="n">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -1988,7 +1984,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IqoTZ83l</t>
+          <t>C6pXYSIf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2008,154 +2004,154 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.63</v>
+        <v>1.65</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="J9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P9" t="n">
         <v>3.4</v>
       </c>
-      <c r="K9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Q9" t="n">
-        <v>2.5</v>
+        <v>2.07</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="S9" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
         <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AB9" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AK9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>29</v>
       </c>
-      <c r="AQ9" t="n">
-        <v>51</v>
-      </c>
       <c r="AR9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY9" t="n">
         <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
         <v>301</v>
@@ -2170,7 +2166,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8YwtX6m7</t>
+          <t>IqoTZ83l</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2190,82 +2186,82 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T10" t="n">
         <v>2.25</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U10" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W10" t="n">
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
@@ -2274,19 +2270,19 @@
         <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
         <v>12</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
@@ -2295,43 +2291,43 @@
         <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX10" t="n">
         <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ10" t="n">
         <v>67</v>
@@ -2340,7 +2336,7 @@
         <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2352,7 +2348,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2BqdsiBE</t>
+          <t>8YwtX6m7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2362,7 +2358,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2372,160 +2368,160 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="H11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I11" t="n">
         <v>3.5</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2.15</v>
       </c>
-      <c r="J11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N11" t="n">
-        <v>13</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.75</v>
-      </c>
       <c r="R11" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="V11" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="W11" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
         <v>29</v>
       </c>
       <c r="AC11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI11" t="n">
         <v>13</v>
       </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
+      <c r="AJ11" t="n">
         <v>41</v>
       </c>
-      <c r="AG11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>21</v>
-      </c>
       <c r="AK11" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
         <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC11" t="n">
         <v>126</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>501</v>
       </c>
       <c r="BD11" t="n">
         <v>126</v>
@@ -2534,7 +2530,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q9lyYnY0</t>
+          <t>2BqdsiBE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2544,7 +2540,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2554,160 +2550,160 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="J12" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
         <v>2.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="S12" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="T12" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="V12" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
         <v>13</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.5</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
       </c>
       <c r="AJ12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK12" t="n">
         <v>17</v>
       </c>
-      <c r="AK12" t="n">
-        <v>19</v>
-      </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="AN12" t="n">
         <v>5.5</v>
       </c>
       <c r="AO12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP12" t="n">
         <v>23</v>
       </c>
-      <c r="AP12" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AS12" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
         <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD12" t="n">
         <v>126</v>
@@ -2716,7 +2712,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>n319JmJ7</t>
+          <t>Q9lyYnY0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2736,157 +2732,157 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.7</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="W13" t="n">
+        <v>9</v>
+      </c>
+      <c r="X13" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX13" t="n">
         <v>11</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W13" t="n">
-        <v>7</v>
-      </c>
-      <c r="X13" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AY13" t="n">
         <v>26</v>
       </c>
-      <c r="AC13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK13" t="n">
+      <c r="AZ13" t="n">
         <v>41</v>
       </c>
-      <c r="AL13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>81</v>
-      </c>
       <c r="BA13" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC13" t="n">
         <v>126</v>
@@ -2898,7 +2894,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IZ3qIEYa</t>
+          <t>n319JmJ7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2908,107 +2904,107 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J14" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="K14" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="R14" t="n">
-        <v>1.48</v>
+        <v>1.95</v>
       </c>
       <c r="S14" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="W14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE14" t="n">
         <v>15</v>
       </c>
-      <c r="AA14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>21</v>
-      </c>
       <c r="AF14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>17</v>
@@ -3020,55 +3016,55 @@
         <v>41</v>
       </c>
       <c r="AL14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AN14" t="n">
         <v>3.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>29</v>
       </c>
-      <c r="AQ14" t="n">
-        <v>41</v>
-      </c>
       <c r="AR14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU14" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>81</v>
       </c>
-      <c r="AW14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ14" t="n">
+      <c r="BA14" t="n">
         <v>101</v>
       </c>
-      <c r="BA14" t="n">
-        <v>151</v>
-      </c>
       <c r="BB14" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BC14" t="n">
         <v>126</v>
@@ -3080,7 +3076,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>zuhsk28K</t>
+          <t>IZ3qIEYa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3090,113 +3086,113 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="H15" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="K15" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="P15" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="R15" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="S15" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="T15" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="U15" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V15" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W15" t="n">
         <v>5</v>
       </c>
       <c r="X15" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA15" t="n">
         <v>19</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>23</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
         <v>17</v>
       </c>
       <c r="AJ15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK15" t="n">
         <v>41</v>
@@ -3208,37 +3204,37 @@
         <v>201</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR15" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AS15" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AU15" t="n">
         <v>10</v>
       </c>
       <c r="AV15" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY15" t="n">
         <v>41</v>
@@ -3250,19 +3246,19 @@
         <v>151</v>
       </c>
       <c r="BB15" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="BC15" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD15" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6uOnIaCm</t>
+          <t>zuhsk28K</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3272,166 +3268,348 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>WALES - CYMRU PREMIER</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Briton Ferry</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>30</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>7.7</v>
+        <v>2.8</v>
       </c>
       <c r="I16" t="n">
-        <v>1.07</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.2</v>
+        <v>1.83</v>
       </c>
       <c r="L16" t="n">
-        <v>1.34</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.09</v>
+        <v>1.67</v>
       </c>
       <c r="P16" t="n">
-        <v>6.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.29</v>
+        <v>3.1</v>
       </c>
       <c r="R16" t="n">
-        <v>3.3</v>
+        <v>1.36</v>
       </c>
       <c r="S16" t="n">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="T16" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="U16" t="n">
         <v>2.5</v>
       </c>
       <c r="V16" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W16" t="n">
+        <v>5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>6uOnIaCm</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Briton Ferry</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J17" t="n">
+        <v>20</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W17" t="n">
         <v>120</v>
       </c>
-      <c r="X16" t="n">
-        <v>800</v>
-      </c>
-      <c r="Y16" t="n">
+      <c r="X17" t="n">
+        <v>700</v>
+      </c>
+      <c r="Y17" t="n">
         <v>150</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="Z17" t="n">
         <v>1000</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA17" t="n">
         <v>900</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB17" t="n">
         <v>450</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC17" t="n">
         <v>22</v>
       </c>
-      <c r="AD16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF16" t="n">
+      <c r="AD17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF17" t="n">
         <v>250</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG17" t="n">
         <v>10.75</v>
       </c>
-      <c r="AH16" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AI16" t="n">
+      <c r="AH17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI17" t="n">
         <v>13.5</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK16" t="n">
+      <c r="AJ17" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AK17" t="n">
         <v>11.75</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL17" t="n">
         <v>45</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM17" t="n">
         <v>900</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN17" t="n">
         <v>26</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO17" t="n">
         <v>250</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP17" t="n">
         <v>120</v>
       </c>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="n">
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="n">
         <v>500</v>
       </c>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU16" t="n">
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AU17" t="n">
         <v>12.5</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV17" t="n">
         <v>120</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW17" t="n">
         <v>3.05</v>
       </c>
-      <c r="AX16" t="n">
+      <c r="AX17" t="n">
         <v>4.05</v>
       </c>
-      <c r="AY16" t="n">
+      <c r="AY17" t="n">
         <v>16</v>
       </c>
-      <c r="AZ16" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="BA16" t="n">
+      <c r="AZ17" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BA17" t="n">
         <v>30</v>
       </c>
-      <c r="BB16" t="n">
+      <c r="BB17" t="n">
         <v>250</v>
       </c>
-      <c r="BC16" t="inlineStr"/>
-      <c r="BD16" t="inlineStr"/>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,22 +759,22 @@
         <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q2" t="n">
         <v>2.7</v>
@@ -789,10 +789,10 @@
         <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
@@ -837,7 +837,7 @@
         <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -861,7 +861,7 @@
         <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
         <v>2.2</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GbLZ1izi</t>
+          <t>bev0F86L</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>GV San Jose</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Union de Santa Fe</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>2.1</v>
       </c>
       <c r="H5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I5" t="n">
         <v>3.7</v>
       </c>
-      <c r="I5" t="n">
-        <v>3.2</v>
-      </c>
       <c r="J5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P5" t="n">
         <v>2.63</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>15</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.5</v>
-      </c>
       <c r="Q5" t="n">
-        <v>1.62</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.25</v>
       </c>
-      <c r="S5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.4</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>2.38</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU5" t="n">
         <v>9</v>
       </c>
-      <c r="Z5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7</v>
-      </c>
       <c r="AV5" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
         <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC5" t="n">
         <v>126</v>
       </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>YeqaRSKa</t>
+          <t>GbLZ1izi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,121 +1466,121 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>GV San Jose</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blooming</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T6" t="n">
         <v>3.4</v>
       </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="U6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W6" t="n">
         <v>10</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6.5</v>
-      </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AG6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI6" t="n">
         <v>12</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AJ6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK6" t="n">
         <v>23</v>
       </c>
-      <c r="AI6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
         <v>34</v>
@@ -1589,42 +1589,46 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB6" t="n">
         <v>126</v>
       </c>
-      <c r="BB6" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
+      <c r="BC6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OAukwB1L</t>
+          <t>YeqaRSKa</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1634,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1644,31 +1648,31 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>Blooming</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1677,16 +1681,16 @@
         <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1695,31 +1699,31 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
@@ -1731,43 +1735,43 @@
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
         <v>2.63</v>
@@ -1776,25 +1780,25 @@
         <v>8.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
@@ -1802,7 +1806,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vgnPzklr</t>
+          <t>OAukwB1L</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1812,41 +1816,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
         <v>4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>7</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1858,13 +1862,13 @@
         <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -1873,76 +1877,76 @@
         <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
         <v>9</v>
       </c>
-      <c r="Z8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH8" t="n">
         <v>15</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AI8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>34</v>
       </c>
-      <c r="AC8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>81</v>
-      </c>
       <c r="AK8" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
         <v>201</v>
@@ -1951,40 +1955,36 @@
         <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA8" t="n">
         <v>81</v>
       </c>
-      <c r="AW8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA8" t="n">
+      <c r="BB8" t="n">
         <v>201</v>
       </c>
-      <c r="BB8" t="n">
-        <v>451</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>126</v>
-      </c>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C6pXYSIf</t>
+          <t>vgnPzklr</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2004,157 +2004,157 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W9" t="n">
         <v>5.5</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="X9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
         <v>10</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
       </c>
       <c r="AH9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>26</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>29</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
       </c>
       <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>151</v>
       </c>
-      <c r="AT9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>101</v>
-      </c>
       <c r="BA9" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BB9" t="n">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2166,7 +2166,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IqoTZ83l</t>
+          <t>C6pXYSIf</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2186,154 +2186,154 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.63</v>
+        <v>1.65</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="J10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
         <v>3.4</v>
       </c>
-      <c r="K10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.07</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="S10" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V10" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>29</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX10" t="n">
         <v>29</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>19</v>
       </c>
       <c r="AY10" t="n">
         <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
         <v>301</v>
@@ -2348,7 +2348,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8YwtX6m7</t>
+          <t>IqoTZ83l</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2368,103 +2368,103 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>2.63</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U11" t="n">
         <v>2.05</v>
       </c>
-      <c r="L11" t="n">
-        <v>4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N11" t="n">
-        <v>9</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V11" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ11" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AK11" t="n">
         <v>29</v>
@@ -2473,43 +2473,43 @@
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV11" t="n">
         <v>67</v>
       </c>
-      <c r="AS11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
       <c r="AW11" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
         <v>67</v>
@@ -2518,7 +2518,7 @@
         <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC11" t="n">
         <v>126</v>
@@ -2530,7 +2530,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2BqdsiBE</t>
+          <t>8YwtX6m7</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2550,160 +2550,160 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="H12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I12" t="n">
         <v>3.5</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q12" t="n">
         <v>2.15</v>
       </c>
-      <c r="J12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N12" t="n">
-        <v>11</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.75</v>
-      </c>
       <c r="R12" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="V12" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="W12" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="n">
         <v>29</v>
       </c>
       <c r="AC12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI12" t="n">
         <v>13</v>
       </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>9</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AL12" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AM12" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
         <v>67</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB12" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC12" t="n">
         <v>126</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>501</v>
       </c>
       <c r="BD12" t="n">
         <v>126</v>
@@ -2712,7 +2712,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q9lyYnY0</t>
+          <t>2BqdsiBE</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2732,160 +2732,160 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="J13" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L13" t="n">
         <v>2.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="S13" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC13" t="n">
         <v>13</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.5</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
         <v>9</v>
       </c>
       <c r="AJ13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK13" t="n">
         <v>17</v>
       </c>
-      <c r="AK13" t="n">
-        <v>19</v>
-      </c>
       <c r="AL13" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AM13" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="AN13" t="n">
         <v>5.5</v>
       </c>
       <c r="AO13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP13" t="n">
         <v>23</v>
       </c>
-      <c r="AP13" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AR13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB13" t="n">
         <v>126</v>
       </c>
-      <c r="AS13" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>201</v>
-      </c>
       <c r="BC13" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD13" t="n">
         <v>126</v>
@@ -2894,7 +2894,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>n319JmJ7</t>
+          <t>Q9lyYnY0</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2914,157 +2914,157 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.7</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="W14" t="n">
+        <v>9</v>
+      </c>
+      <c r="X14" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX14" t="n">
         <v>11</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W14" t="n">
-        <v>7</v>
-      </c>
-      <c r="X14" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB14" t="n">
+      <c r="AY14" t="n">
         <v>26</v>
       </c>
-      <c r="AC14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ14" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA14" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC14" t="n">
         <v>126</v>
@@ -3076,7 +3076,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IZ3qIEYa</t>
+          <t>n319JmJ7</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3086,107 +3086,107 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J15" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="K15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R15" t="n">
         <v>1.91</v>
       </c>
-      <c r="L15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.48</v>
-      </c>
       <c r="S15" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="W15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE15" t="n">
         <v>15</v>
       </c>
-      <c r="AA15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21</v>
-      </c>
       <c r="AF15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
         <v>17</v>
@@ -3198,55 +3198,55 @@
         <v>41</v>
       </c>
       <c r="AL15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM15" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AN15" t="n">
         <v>3.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>29</v>
       </c>
-      <c r="AQ15" t="n">
-        <v>41</v>
-      </c>
       <c r="AR15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS15" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU15" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>81</v>
       </c>
-      <c r="AW15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ15" t="n">
+      <c r="BA15" t="n">
         <v>101</v>
       </c>
-      <c r="BA15" t="n">
-        <v>151</v>
-      </c>
       <c r="BB15" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BC15" t="n">
         <v>126</v>
@@ -3258,7 +3258,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>zuhsk28K</t>
+          <t>l8uhrXe8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3268,348 +3268,712 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>2.25</v>
       </c>
       <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
         <v>3</v>
       </c>
-      <c r="K16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5</v>
-      </c>
       <c r="M16" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="S16" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="T16" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="U16" t="n">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="V16" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA16" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK16" t="n">
         <v>19</v>
       </c>
-      <c r="AI16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>41</v>
-      </c>
       <c r="AL16" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AP16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR16" t="n">
         <v>101</v>
       </c>
       <c r="AS16" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AU16" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AW16" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AX16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY16" t="n">
         <v>26</v>
       </c>
-      <c r="AY16" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ16" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BA16" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BB16" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
       <c r="BC16" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD16" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>IZ3qIEYa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Dep. Pasto</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>zuhsk28K</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>6uOnIaCm</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>20/11/2024</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>16:45</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Briton Ferry</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>TNS</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>30</v>
-      </c>
-      <c r="H17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="G19" t="n">
+        <v>29</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.07</v>
       </c>
-      <c r="J17" t="n">
-        <v>20</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J19" t="n">
+        <v>19</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P19" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W19" t="n">
+        <v>120</v>
+      </c>
+      <c r="X19" t="n">
+        <v>700</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>250</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>120</v>
+      </c>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="n">
+        <v>500</v>
+      </c>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW19" t="n">
         <v>3.15</v>
       </c>
-      <c r="L17" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N17" t="n">
-        <v>10</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P17" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W17" t="n">
-        <v>120</v>
-      </c>
-      <c r="X17" t="n">
-        <v>700</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>150</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>450</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>250</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>250</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>120</v>
-      </c>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="n">
-        <v>500</v>
-      </c>
-      <c r="AS17" t="inlineStr"/>
-      <c r="AT17" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>120</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ17" t="n">
+      <c r="AX19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>7.7</v>
       </c>
-      <c r="BA17" t="n">
-        <v>30</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="inlineStr"/>
+      <c r="BA19" t="n">
+        <v>27</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -756,25 +756,25 @@
         <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
         <v>2.7</v>
@@ -789,10 +789,10 @@
         <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
@@ -837,7 +837,7 @@
         <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -861,7 +861,7 @@
         <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
         <v>2.2</v>
@@ -873,10 +873,10 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -929,55 +929,55 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S3" t="n">
         <v>1.62</v>
       </c>
-      <c r="P3" t="n">
+      <c r="T3" t="n">
         <v>2.2</v>
       </c>
-      <c r="Q3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.1</v>
-      </c>
       <c r="U3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="X3" t="n">
         <v>7</v>
@@ -995,25 +995,25 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
         <v>8.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
         <v>51</v>
@@ -1022,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
         <v>201</v>
@@ -1034,7 +1034,7 @@
         <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -1043,13 +1043,13 @@
         <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>101</v>
@@ -1061,13 +1061,13 @@
         <v>34</v>
       </c>
       <c r="AY3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
@@ -1317,16 +1317,16 @@
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1440,7 +1440,7 @@
         <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
         <v>2.38</v>
@@ -1505,10 +1505,10 @@
         <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S6" t="n">
         <v>1.3</v>
@@ -1532,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
@@ -1580,13 +1580,13 @@
         <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
         <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS6" t="n">
         <v>101</v>
@@ -1613,13 +1613,13 @@
         <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB6" t="n">
         <v>126</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD6" t="n">
         <v>51</v>
@@ -1687,10 +1687,10 @@
         <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1865,10 +1865,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -2025,7 +2025,7 @@
         <v>2.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
         <v>7</v>
@@ -2082,7 +2082,7 @@
         <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2115,7 +2115,7 @@
         <v>3.25</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
         <v>23</v>
@@ -2947,16 +2947,16 @@
         <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="n">
         <v>1.5</v>
@@ -3135,10 +3135,10 @@
         <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD19"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,10 +765,10 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.53</v>
@@ -944,19 +944,19 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N3" t="n">
         <v>6</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6.5</v>
-      </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
         <v>2.7</v>
@@ -971,19 +971,19 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
         <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>15</v>
@@ -1007,7 +1007,7 @@
         <v>101</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
@@ -1043,7 +1043,7 @@
         <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
         <v>2.2</v>
@@ -1052,13 +1052,13 @@
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
         <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1129,22 +1129,22 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1335,22 +1335,22 @@
         <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
@@ -1359,43 +1359,43 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
         <v>8</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
         <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
         <v>501</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
         <v>29</v>
@@ -1407,34 +1407,34 @@
         <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
         <v>2.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
         <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1505,10 +1505,10 @@
         <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S6" t="n">
         <v>1.3</v>
@@ -1865,10 +1865,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -2013,46 +2013,46 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I9" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
         <v>2.2</v>
@@ -2061,7 +2061,7 @@
         <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
         <v>6</v>
@@ -2070,19 +2070,19 @@
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
       </c>
       <c r="AC9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD9" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2091,7 +2091,7 @@
         <v>81</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>34</v>
@@ -2112,16 +2112,16 @@
         <v>501</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2130,16 +2130,16 @@
         <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
         <v>10</v>
       </c>
       <c r="AV9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX9" t="n">
         <v>41</v>
@@ -2148,7 +2148,7 @@
         <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA9" t="n">
         <v>201</v>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
@@ -2386,10 +2386,10 @@
         <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L11" t="n">
         <v>3.75</v>
@@ -2401,10 +2401,10 @@
         <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" t="n">
         <v>2.4</v>
@@ -2413,37 +2413,37 @@
         <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
         <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
         <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
@@ -2464,7 +2464,7 @@
         <v>12</v>
       </c>
       <c r="AJ11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="n">
         <v>29</v>
@@ -2473,7 +2473,7 @@
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AN11" t="n">
         <v>4.33</v>
@@ -2491,10 +2491,10 @@
         <v>81</v>
       </c>
       <c r="AS11" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU11" t="n">
         <v>9</v>
@@ -2509,7 +2509,7 @@
         <v>19</v>
       </c>
       <c r="AY11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
         <v>67</v>
@@ -2589,10 +2589,10 @@
         <v>3.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2923,16 +2923,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J14" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
@@ -2965,16 +2965,16 @@
         <v>2.5</v>
       </c>
       <c r="U14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W14" t="n">
         <v>9</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
         <v>13</v>
@@ -2989,22 +2989,22 @@
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF14" t="n">
         <v>67</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI14" t="n">
         <v>9</v>
@@ -3019,7 +3019,7 @@
         <v>34</v>
       </c>
       <c r="AM14" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AN14" t="n">
         <v>5.5</v>
@@ -3034,7 +3034,7 @@
         <v>81</v>
       </c>
       <c r="AR14" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS14" t="n">
         <v>301</v>
@@ -3043,19 +3043,19 @@
         <v>2.5</v>
       </c>
       <c r="AU14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV14" t="n">
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ14" t="n">
         <v>41</v>
@@ -3135,10 +3135,10 @@
         <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R15" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -3469,28 +3469,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L17" t="n">
         <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
         <v>1.5</v>
@@ -3511,16 +3511,16 @@
         <v>2.25</v>
       </c>
       <c r="U17" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W17" t="n">
         <v>5</v>
       </c>
       <c r="X17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y17" t="n">
         <v>9.5</v>
@@ -3550,16 +3550,16 @@
         <v>9.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>51</v>
       </c>
       <c r="AK17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL17" t="n">
         <v>51</v>
@@ -3571,7 +3571,7 @@
         <v>3.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
         <v>29</v>
@@ -3595,7 +3595,7 @@
         <v>81</v>
       </c>
       <c r="AW17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3604,10 +3604,10 @@
         <v>41</v>
       </c>
       <c r="AZ17" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB17" t="n">
         <v>501</v>
@@ -3622,7 +3622,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>zuhsk28K</t>
+          <t>MREUeAWQ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3632,348 +3632,530 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="H18" t="n">
-        <v>2.8</v>
+        <v>3.65</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="K18" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1.83</v>
       </c>
-      <c r="L18" t="n">
-        <v>5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3.1</v>
-      </c>
       <c r="R18" t="n">
-        <v>1.36</v>
+        <v>1.87</v>
       </c>
       <c r="S18" t="n">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="T18" t="n">
-        <v>2.1</v>
+        <v>2.57</v>
       </c>
       <c r="U18" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
-        <v>1.5</v>
+        <v>1.82</v>
       </c>
       <c r="W18" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="X18" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z18" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AB18" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC18" t="n">
-        <v>5</v>
+        <v>10.25</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="AE18" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AK18" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AL18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD18" t="n">
         <v>51</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>zuhsk28K</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W19" t="n">
+        <v>5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>6uOnIaCm</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>20/11/2024</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>16:45</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Briton Ferry</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>TNS</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>29</v>
       </c>
-      <c r="H19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="H20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I20" t="n">
         <v>1.07</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J20" t="n">
         <v>19</v>
       </c>
-      <c r="K19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="K20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M20" t="n">
         <v>1.02</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N20" t="n">
         <v>10</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O20" t="n">
         <v>1.08</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P20" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="T20" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W20" t="n">
+        <v>120</v>
+      </c>
+      <c r="X20" t="n">
+        <v>700</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>6.3</v>
       </c>
-      <c r="Q19" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="R19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="T19" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W19" t="n">
-        <v>120</v>
-      </c>
-      <c r="X19" t="n">
-        <v>700</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>150</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA19" t="n">
+      <c r="AK20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM20" t="n">
         <v>900</v>
       </c>
-      <c r="AB19" t="n">
-        <v>400</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>45</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>200</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN19" t="n">
+      <c r="AN20" t="n">
         <v>26</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO20" t="n">
         <v>250</v>
       </c>
-      <c r="AP19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="n">
+      <c r="AP20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="n">
         <v>500</v>
       </c>
-      <c r="AS19" t="inlineStr"/>
-      <c r="AT19" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AV19" t="n">
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AV20" t="n">
         <v>100</v>
       </c>
-      <c r="AW19" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AX19" t="n">
+      <c r="AW20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX20" t="n">
         <v>4.1</v>
       </c>
-      <c r="AY19" t="n">
+      <c r="AY20" t="n">
         <v>14.5</v>
       </c>
-      <c r="AZ19" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="BA19" t="n">
+      <c r="AZ20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BA20" t="n">
         <v>27</v>
       </c>
-      <c r="BB19" t="n">
+      <c r="BB20" t="n">
         <v>175</v>
       </c>
-      <c r="BC19" t="inlineStr"/>
-      <c r="BD19" t="inlineStr"/>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>3.75</v>
@@ -2013,22 +2013,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H9" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
@@ -2043,10 +2043,10 @@
         <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2055,22 +2055,22 @@
         <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
         <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA9" t="n">
         <v>13</v>
@@ -2082,10 +2082,10 @@
         <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
         <v>81</v>
@@ -2112,16 +2112,16 @@
         <v>501</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2133,13 +2133,13 @@
         <v>2.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX9" t="n">
         <v>41</v>
@@ -2148,13 +2148,13 @@
         <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA9" t="n">
         <v>201</v>
       </c>
       <c r="BB9" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2225,10 +2225,10 @@
         <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="R10" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S10" t="n">
         <v>1.4</v>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
@@ -2386,64 +2386,64 @@
         <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L11" t="n">
         <v>3.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V11" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X11" t="n">
         <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
         <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
@@ -2473,7 +2473,7 @@
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AN11" t="n">
         <v>4.33</v>
@@ -2491,10 +2491,10 @@
         <v>81</v>
       </c>
       <c r="AS11" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU11" t="n">
         <v>9</v>
@@ -2509,7 +2509,7 @@
         <v>19</v>
       </c>
       <c r="AY11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
         <v>67</v>
@@ -2741,13 +2741,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
         <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J13" t="n">
         <v>3.6</v>
@@ -2756,7 +2756,7 @@
         <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2765,10 +2765,10 @@
         <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q13" t="n">
         <v>1.75</v>
@@ -2822,7 +2822,7 @@
         <v>9</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>9</v>
@@ -2840,7 +2840,7 @@
         <v>151</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO13" t="n">
         <v>17</v>
@@ -2947,16 +2947,16 @@
         <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R14" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S14" t="n">
         <v>1.5</v>
@@ -3135,10 +3135,10 @@
         <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -3487,10 +3487,10 @@
         <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.5</v>
@@ -3622,7 +3622,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MREUeAWQ</t>
+          <t>E1chGh3C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3632,179 +3632,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tapatio</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="K18" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="L18" t="n">
-        <v>5.1</v>
+        <v>4.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
-        <v>3.15</v>
+        <v>2.63</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>2.35</v>
       </c>
       <c r="R18" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="S18" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="T18" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="W18" t="n">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="X18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y18" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP18" t="n">
         <v>26</v>
       </c>
-      <c r="AC18" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>18</v>
-      </c>
       <c r="AQ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX18" t="n">
         <v>26</v>
       </c>
-      <c r="AR18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>28</v>
-      </c>
       <c r="AY18" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AZ18" t="n">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="BA18" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="BB18" t="n">
-        <v>450</v>
+        <v>351</v>
       </c>
       <c r="BC18" t="n">
-        <v>500</v>
+        <v>126</v>
       </c>
       <c r="BD18" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>zuhsk28K</t>
+          <t>MREUeAWQ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3814,348 +3814,530 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="H19" t="n">
-        <v>2.8</v>
+        <v>3.65</v>
       </c>
       <c r="I19" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="K19" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1.83</v>
       </c>
-      <c r="L19" t="n">
-        <v>5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3.1</v>
-      </c>
       <c r="R19" t="n">
-        <v>1.36</v>
+        <v>1.87</v>
       </c>
       <c r="S19" t="n">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="T19" t="n">
-        <v>2.1</v>
+        <v>2.57</v>
       </c>
       <c r="U19" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="V19" t="n">
-        <v>1.5</v>
+        <v>1.82</v>
       </c>
       <c r="W19" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="X19" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AB19" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC19" t="n">
-        <v>5</v>
+        <v>10.25</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AF19" t="n">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AI19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ19" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AK19" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AL19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD19" t="n">
         <v>51</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>zuhsk28K</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>6uOnIaCm</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>20/11/2024</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>16:45</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Briton Ferry</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>TNS</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>29</v>
-      </c>
-      <c r="H20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="G21" t="n">
+        <v>32</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="J21" t="n">
+        <v>21</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" t="n">
         <v>1.07</v>
       </c>
-      <c r="J20" t="n">
-        <v>19</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N20" t="n">
-        <v>10</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P20" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="T20" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W20" t="n">
-        <v>120</v>
-      </c>
-      <c r="X20" t="n">
-        <v>700</v>
-      </c>
-      <c r="Y20" t="n">
+      <c r="P21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W21" t="n">
+        <v>175</v>
+      </c>
+      <c r="X21" t="n">
+        <v>900</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>175</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>500</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>250</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>300</v>
+      </c>
+      <c r="AP21" t="n">
         <v>150</v>
       </c>
-      <c r="Z20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>400</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>45</v>
-      </c>
-      <c r="AF20" t="n">
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="n">
+        <v>500</v>
+      </c>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>27</v>
+      </c>
+      <c r="BB21" t="n">
         <v>200</v>
       </c>
-      <c r="AG20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>250</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="n">
-        <v>500</v>
-      </c>
-      <c r="AS20" t="inlineStr"/>
-      <c r="AT20" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>27</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>175</v>
-      </c>
-      <c r="BC20" t="inlineStr"/>
-      <c r="BD20" t="inlineStr"/>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -947,10 +947,10 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
         <v>5.25</v>
@@ -1129,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1183,13 +1183,13 @@
         <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
         <v>26</v>
@@ -1207,16 +1207,16 @@
         <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AN4" t="n">
         <v>3.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
@@ -1856,7 +1856,7 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1877,16 +1877,16 @@
         <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
         <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9.5</v>
@@ -1898,10 +1898,10 @@
         <v>19</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1931,7 +1931,7 @@
         <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN8" t="n">
         <v>4</v>
@@ -1973,10 +1973,10 @@
         <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
@@ -2070,7 +2070,7 @@
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA9" t="n">
         <v>13</v>
@@ -2088,7 +2088,7 @@
         <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
         <v>15</v>
@@ -2127,7 +2127,7 @@
         <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
         <v>2.75</v>
@@ -2195,22 +2195,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K10" t="n">
         <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -2219,16 +2219,16 @@
         <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="R10" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="S10" t="n">
         <v>1.4</v>
@@ -2237,22 +2237,22 @@
         <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W10" t="n">
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="n">
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA10" t="n">
         <v>13</v>
@@ -2273,37 +2273,37 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK10" t="n">
         <v>51</v>
       </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
       <c r="AL10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM10" t="n">
         <v>351</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP10" t="n">
         <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
@@ -2315,25 +2315,25 @@
         <v>2.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="n">
         <v>7</v>
       </c>
       <c r="AX10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB10" t="n">
         <v>301</v>
@@ -2395,22 +2395,22 @@
         <v>3.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
         <v>1.57</v>
@@ -2765,10 +2765,10 @@
         <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
         <v>1.75</v>
@@ -3105,58 +3105,58 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>2.3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V15" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
@@ -3168,10 +3168,10 @@
         <v>13</v>
       </c>
       <c r="AB15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD15" t="n">
         <v>7</v>
@@ -3180,37 +3180,37 @@
         <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
         <v>26</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>51</v>
       </c>
       <c r="AK15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
         <v>41</v>
       </c>
       <c r="AM15" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO15" t="n">
         <v>9</v>
       </c>
       <c r="AP15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ15" t="n">
         <v>29</v>
@@ -3219,13 +3219,13 @@
         <v>51</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
@@ -3234,10 +3234,10 @@
         <v>6.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ15" t="n">
         <v>81</v>
@@ -3246,7 +3246,7 @@
         <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="n">
         <v>126</v>
@@ -4015,22 +4015,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
         <v>2.8</v>
       </c>
       <c r="I20" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K20" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M20" t="n">
         <v>1.14</v>
@@ -4072,7 +4072,7 @@
         <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
         <v>23</v>
@@ -4087,16 +4087,16 @@
         <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF20" t="n">
         <v>101</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
         <v>17</v>
@@ -4114,7 +4114,7 @@
         <v>201</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -944,25 +944,25 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
@@ -971,19 +971,19 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X3" t="n">
         <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
         <v>15</v>
@@ -1007,7 +1007,7 @@
         <v>101</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
@@ -1043,7 +1043,7 @@
         <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT3" t="n">
         <v>2.2</v>
@@ -1052,13 +1052,13 @@
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW3" t="n">
         <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1311,10 +1311,10 @@
         <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1496,19 +1496,19 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R6" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S6" t="n">
         <v>1.3</v>
@@ -2043,10 +2043,10 @@
         <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="R9" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2195,16 +2195,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
         <v>6.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K10" t="n">
         <v>2.2</v>
@@ -2267,7 +2267,7 @@
         <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
@@ -2276,10 +2276,10 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>67</v>
@@ -2321,7 +2321,7 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX10" t="n">
         <v>34</v>
@@ -2336,7 +2336,7 @@
         <v>151</v>
       </c>
       <c r="BB10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2759,10 +2759,10 @@
         <v>2.88</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
         <v>1.25</v>
@@ -2771,10 +2771,10 @@
         <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -3117,7 +3117,7 @@
         <v>2.3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L15" t="n">
         <v>4.75</v>
@@ -3135,10 +3135,10 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,22 +947,22 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
@@ -971,19 +971,19 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
         <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>15</v>
@@ -1007,7 +1007,7 @@
         <v>101</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
@@ -1043,7 +1043,7 @@
         <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
         <v>2.2</v>
@@ -1052,13 +1052,13 @@
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
         <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1323,10 +1323,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1371,7 +1371,7 @@
         <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH5" t="n">
         <v>19</v>
@@ -1407,7 +1407,7 @@
         <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
         <v>2.25</v>
@@ -1481,7 +1481,7 @@
         <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
         <v>2.6</v>
@@ -1490,7 +1490,7 @@
         <v>2.38</v>
       </c>
       <c r="L6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1511,10 +1511,10 @@
         <v>2.35</v>
       </c>
       <c r="S6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U6" t="n">
         <v>1.53</v>
@@ -1523,7 +1523,7 @@
         <v>2.38</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X6" t="n">
         <v>12</v>
@@ -1541,7 +1541,7 @@
         <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD6" t="n">
         <v>7.5</v>
@@ -1553,16 +1553,16 @@
         <v>34</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
         <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK6" t="n">
         <v>23</v>
@@ -1571,13 +1571,13 @@
         <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AN6" t="n">
         <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
         <v>17</v>
@@ -1592,7 +1592,7 @@
         <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU6" t="n">
         <v>7</v>
@@ -1663,7 +1663,7 @@
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J7" t="n">
         <v>2.5</v>
@@ -1675,10 +1675,10 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1687,10 +1687,10 @@
         <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1711,7 +1711,7 @@
         <v>8</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
         <v>15</v>
@@ -1762,7 +1762,7 @@
         <v>9.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
         <v>34</v>
@@ -1792,7 +1792,7 @@
         <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA7" t="n">
         <v>126</v>
@@ -1856,7 +1856,7 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1984,7 +1984,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>vgnPzklr</t>
+          <t>C6pXYSIf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2004,19 +2004,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
         <v>6.5</v>
@@ -2028,7 +2028,7 @@
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
@@ -2037,16 +2037,16 @@
         <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2055,40 +2055,40 @@
         <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
         <v>13</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
         <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
         <v>15</v>
@@ -2100,7 +2100,7 @@
         <v>21</v>
       </c>
       <c r="AJ9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK9" t="n">
         <v>51</v>
@@ -2109,19 +2109,19 @@
         <v>51</v>
       </c>
       <c r="AM9" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2133,28 +2133,28 @@
         <v>2.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY9" t="n">
         <v>41</v>
       </c>
       <c r="AZ9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA9" t="n">
         <v>151</v>
       </c>
-      <c r="BA9" t="n">
-        <v>201</v>
-      </c>
       <c r="BB9" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2166,7 +2166,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C6pXYSIf</t>
+          <t>IqoTZ83l</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2186,133 +2186,133 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.55</v>
+        <v>2.63</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.03</v>
+        <v>2.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W10" t="n">
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH10" t="n">
         <v>13</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AI10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK10" t="n">
         <v>29</v>
       </c>
-      <c r="AC10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF10" t="n">
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>51</v>
       </c>
-      <c r="AG10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>26</v>
-      </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="AU10" t="n">
         <v>9</v>
@@ -2321,22 +2321,22 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY10" t="n">
         <v>34</v>
       </c>
-      <c r="AY10" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ10" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2348,7 +2348,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IqoTZ83l</t>
+          <t>8YwtX6m7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2368,103 +2368,103 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.63</v>
       </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="U11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W11" t="n">
         <v>7</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W11" t="n">
-        <v>6.5</v>
-      </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
       </c>
       <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH11" t="n">
         <v>17</v>
       </c>
-      <c r="AF11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH11" t="n">
+      <c r="AI11" t="n">
         <v>13</v>
       </c>
-      <c r="AI11" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK11" t="n">
         <v>29</v>
@@ -2473,43 +2473,43 @@
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY11" t="n">
         <v>29</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>34</v>
       </c>
       <c r="AZ11" t="n">
         <v>67</v>
@@ -2518,7 +2518,7 @@
         <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC11" t="n">
         <v>126</v>
@@ -2530,7 +2530,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8YwtX6m7</t>
+          <t>2BqdsiBE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2550,160 +2550,160 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="J12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L12" t="n">
         <v>2.88</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R12" t="n">
         <v>2.05</v>
       </c>
-      <c r="L12" t="n">
-        <v>4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N12" t="n">
-        <v>9</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="S12" t="n">
         <v>1.36</v>
       </c>
-      <c r="P12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="V12" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="X12" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB12" t="n">
         <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK12" t="n">
         <v>17</v>
       </c>
-      <c r="AI12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>29</v>
-      </c>
       <c r="AL12" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AN12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
         <v>67</v>
       </c>
       <c r="AS12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY12" t="n">
         <v>21</v>
       </c>
-      <c r="AY12" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ12" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD12" t="n">
         <v>126</v>
@@ -2712,7 +2712,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2BqdsiBE</t>
+          <t>Q9lyYnY0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2732,160 +2732,160 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="R13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U13" t="n">
         <v>2</v>
       </c>
-      <c r="S13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V13" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="W13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X13" t="n">
         <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA13" t="n">
         <v>34</v>
       </c>
-      <c r="AA13" t="n">
-        <v>23</v>
-      </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH13" t="n">
         <v>9</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>9</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>451</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO13" t="n">
         <v>23</v>
       </c>
-      <c r="AM13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>17</v>
-      </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
         <v>67</v>
       </c>
-      <c r="AS13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
       <c r="AW13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX13" t="n">
         <v>12</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ13" t="n">
         <v>41</v>
       </c>
       <c r="BA13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB13" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC13" t="n">
         <v>126</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>501</v>
       </c>
       <c r="BD13" t="n">
         <v>126</v>
@@ -2894,7 +2894,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q9lyYnY0</t>
+          <t>n319JmJ7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2914,154 +2914,154 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.7</v>
+        <v>1.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>4.5</v>
+        <v>2.38</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T14" t="n">
         <v>2.75</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W14" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
         <v>13</v>
       </c>
-      <c r="Z14" t="n">
-        <v>41</v>
-      </c>
       <c r="AA14" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AB14" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
         <v>6.5</v>
       </c>
-      <c r="AH14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>451</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO14" t="n">
+      <c r="AX14" t="n">
         <v>23</v>
       </c>
-      <c r="AP14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ14" t="n">
+      <c r="AY14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>81</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="BA14" t="n">
         <v>101</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>67</v>
       </c>
       <c r="BB14" t="n">
         <v>201</v>
@@ -3076,7 +3076,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>n319JmJ7</t>
+          <t>l8uhrXe8</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3096,154 +3096,154 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.73</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="J15" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.8</v>
       </c>
-      <c r="R15" t="n">
-        <v>2</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2</v>
-      </c>
       <c r="W15" t="n">
+        <v>9</v>
+      </c>
+      <c r="X15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
         <v>8</v>
       </c>
-      <c r="X15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>12</v>
-      </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AH15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY15" t="n">
         <v>26</v>
       </c>
-      <c r="AI15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ15" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
         <v>201</v>
@@ -3258,7 +3258,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>l8uhrXe8</t>
+          <t>IZ3qIEYa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3268,167 +3268,167 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
         <v>3.2</v>
       </c>
       <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T16" t="n">
         <v>2.25</v>
       </c>
-      <c r="J16" t="n">
-        <v>4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N16" t="n">
-        <v>8</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U16" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="W16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X16" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z16" t="n">
         <v>15</v>
       </c>
-      <c r="Y16" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>34</v>
-      </c>
       <c r="AA16" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>51</v>
       </c>
-      <c r="AG16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH16" t="n">
+      <c r="AK16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO16" t="n">
         <v>10</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>19</v>
       </c>
       <c r="AP16" t="n">
         <v>29</v>
       </c>
       <c r="AQ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="n">
         <v>67</v>
       </c>
-      <c r="AR16" t="n">
-        <v>101</v>
-      </c>
       <c r="AS16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW16" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BB16" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC16" t="n">
         <v>126</v>
@@ -3440,7 +3440,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IZ3qIEYa</t>
+          <t>E1chGh3C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3460,73 +3460,73 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K17" t="n">
         <v>1.95</v>
       </c>
       <c r="L17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W17" t="n">
         <v>5.5</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W17" t="n">
-        <v>5</v>
-      </c>
       <c r="X17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y17" t="n">
         <v>9.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
         <v>19</v>
@@ -3535,46 +3535,46 @@
         <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="n">
         <v>51</v>
       </c>
       <c r="AM17" t="n">
-        <v>201</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ17" t="n">
         <v>41</v>
@@ -3583,34 +3583,34 @@
         <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>81</v>
       </c>
-      <c r="AW17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ17" t="n">
+      <c r="BA17" t="n">
         <v>126</v>
       </c>
-      <c r="BA17" t="n">
-        <v>201</v>
-      </c>
       <c r="BB17" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC17" t="n">
         <v>126</v>
@@ -3622,7 +3622,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>E1chGh3C</t>
+          <t>MREUeAWQ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3632,179 +3632,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="K18" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="L18" t="n">
-        <v>4.75</v>
+        <v>5.1</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W18" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="X18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y18" t="n">
         <v>8</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X18" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z18" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AB18" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC18" t="n">
-        <v>7</v>
+        <v>10.25</v>
       </c>
       <c r="AD18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW18" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL18" t="n">
+      <c r="AX18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD18" t="n">
         <v>51</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MREUeAWQ</t>
+          <t>zuhsk28K</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3814,179 +3814,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tapatio</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O19" t="n">
         <v>1.62</v>
       </c>
-      <c r="H19" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="P19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W19" t="n">
         <v>5</v>
       </c>
-      <c r="J19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="X19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU19" t="n">
         <v>10</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="X19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AV19" t="n">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="AW19" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AY19" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AZ19" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="BA19" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="BB19" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC19" t="n">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="BD19" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>zuhsk28K</t>
+          <t>6uOnIaCm</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3996,348 +3996,166 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Briton Ferry</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.2</v>
+        <v>32</v>
       </c>
       <c r="H20" t="n">
-        <v>2.8</v>
+        <v>8.25</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>1.06</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>21</v>
       </c>
       <c r="K20" t="n">
-        <v>1.8</v>
+        <v>3.45</v>
       </c>
       <c r="L20" t="n">
-        <v>4.75</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
-        <v>1.14</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.67</v>
+        <v>1.07</v>
       </c>
       <c r="P20" t="n">
-        <v>2.1</v>
+        <v>6.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.1</v>
+        <v>1.24</v>
       </c>
       <c r="R20" t="n">
-        <v>1.36</v>
+        <v>3.6</v>
       </c>
       <c r="S20" t="n">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="T20" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="U20" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="V20" t="n">
         <v>1.5</v>
       </c>
       <c r="W20" t="n">
-        <v>5</v>
+        <v>175</v>
       </c>
       <c r="X20" t="n">
-        <v>8.5</v>
+        <v>900</v>
       </c>
       <c r="Y20" t="n">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>41</v>
+        <v>500</v>
       </c>
       <c r="AC20" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AF20" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AG20" t="n">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>7.4</v>
       </c>
       <c r="AI20" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>41</v>
+        <v>6.3</v>
       </c>
       <c r="AK20" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AM20" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>300</v>
       </c>
       <c r="AP20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>51</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>351</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="AU20" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AW20" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="AX20" t="n">
-        <v>26</v>
+        <v>3.95</v>
       </c>
       <c r="AY20" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AZ20" t="n">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="BA20" t="n">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>6uOnIaCm</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>20/11/2024</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>WALES - CYMRU PREMIER</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Briton Ferry</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>TNS</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>32</v>
-      </c>
-      <c r="H21" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="J21" t="n">
-        <v>21</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N21" t="n">
-        <v>10</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P21" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T21" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W21" t="n">
-        <v>175</v>
-      </c>
-      <c r="X21" t="n">
-        <v>900</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>175</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>500</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>250</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>300</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>150</v>
-      </c>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="n">
-        <v>500</v>
-      </c>
-      <c r="AS21" t="inlineStr"/>
-      <c r="AT21" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>110</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>27</v>
-      </c>
-      <c r="BB21" t="n">
         <v>200</v>
       </c>
-      <c r="BC21" t="inlineStr"/>
-      <c r="BD21" t="inlineStr"/>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -780,7 +780,7 @@
         <v>2.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S2" t="n">
         <v>1.62</v>
@@ -962,7 +962,7 @@
         <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
@@ -1129,22 +1129,22 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
         <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1311,10 +1311,10 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1323,10 +1323,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1675,10 +1675,10 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1687,10 +1687,10 @@
         <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1865,10 +1865,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -2923,16 +2923,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
@@ -2980,7 +2980,7 @@
         <v>8.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA14" t="n">
         <v>15</v>
@@ -3013,7 +3013,7 @@
         <v>51</v>
       </c>
       <c r="AK14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
         <v>41</v>
@@ -3025,7 +3025,7 @@
         <v>3.75</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP14" t="n">
         <v>21</v>
@@ -3049,7 +3049,7 @@
         <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX14" t="n">
         <v>23</v>
@@ -3857,10 +3857,10 @@
         <v>5.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P19" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q19" t="n">
         <v>3.1</v>
@@ -4015,22 +4015,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H20" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="I20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="J20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K20" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -4039,88 +4039,88 @@
         <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P20" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="R20" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="S20" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="T20" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="U20" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="V20" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W20" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="X20" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="Y20" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AB20" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="AC20" t="n">
         <v>25</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF20" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AI20" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ20" t="n">
         <v>6.3</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
         <v>900</v>
       </c>
       <c r="AN20" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AO20" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AP20" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="n">
@@ -4128,28 +4128,28 @@
       </c>
       <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="AU20" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AV20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AW20" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AX20" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="AY20" t="n">
         <v>15</v>
       </c>
       <c r="AZ20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB20" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -756,7 +756,7 @@
         <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
@@ -780,7 +780,7 @@
         <v>2.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
         <v>1.62</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
@@ -873,7 +873,7 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
         <v>21</v>
@@ -962,7 +962,7 @@
         <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
@@ -1144,7 +1144,7 @@
         <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1326,7 +1326,7 @@
         <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1675,10 +1675,10 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1687,10 +1687,10 @@
         <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1844,7 +1844,7 @@
         <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
@@ -1865,16 +1865,16 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
         <v>1.91</v>
@@ -1883,7 +1883,7 @@
         <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X8" t="n">
         <v>9.5</v>
@@ -1892,7 +1892,7 @@
         <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
         <v>19</v>
@@ -1913,7 +1913,7 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH8" t="n">
         <v>15</v>
@@ -1937,10 +1937,10 @@
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1952,13 +1952,13 @@
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
         <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
         <v>5</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
@@ -2055,10 +2055,10 @@
         <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
         <v>6.5</v>
@@ -2085,7 +2085,7 @@
         <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
@@ -2094,16 +2094,16 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="n">
         <v>67</v>
       </c>
       <c r="AK9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="n">
         <v>51</v>
@@ -2112,7 +2112,7 @@
         <v>351</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -2139,10 +2139,10 @@
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY9" t="n">
         <v>41</v>
@@ -2154,7 +2154,7 @@
         <v>151</v>
       </c>
       <c r="BB9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
@@ -2207,7 +2207,7 @@
         <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L10" t="n">
         <v>3.75</v>
@@ -2231,19 +2231,19 @@
         <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
         <v>11</v>
@@ -2255,16 +2255,16 @@
         <v>26</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE10" t="n">
         <v>17</v>
@@ -2282,7 +2282,7 @@
         <v>12</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
@@ -2291,7 +2291,7 @@
         <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AN10" t="n">
         <v>4.33</v>
@@ -2309,10 +2309,10 @@
         <v>81</v>
       </c>
       <c r="AS10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU10" t="n">
         <v>9</v>
@@ -2327,7 +2327,7 @@
         <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
         <v>67</v>
@@ -2577,10 +2577,10 @@
         <v>2.88</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
@@ -2923,16 +2923,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
@@ -3013,7 +3013,7 @@
         <v>51</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="n">
         <v>41</v>
@@ -4015,22 +4015,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H20" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="I20" t="n">
         <v>1.07</v>
       </c>
       <c r="J20" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K20" t="n">
         <v>3.35</v>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -4048,7 +4048,7 @@
         <v>1.27</v>
       </c>
       <c r="R20" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="S20" t="n">
         <v>1.18</v>
@@ -4066,22 +4066,22 @@
         <v>120</v>
       </c>
       <c r="X20" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Y20" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AB20" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AC20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AD20" t="n">
         <v>23</v>
@@ -4090,10 +4090,10 @@
         <v>50</v>
       </c>
       <c r="AF20" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AG20" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH20" t="n">
         <v>7.1</v>
@@ -4114,13 +4114,13 @@
         <v>900</v>
       </c>
       <c r="AN20" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AO20" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AP20" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="n">
@@ -4131,13 +4131,13 @@
         <v>4.25</v>
       </c>
       <c r="AU20" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AV20" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AW20" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AX20" t="n">
         <v>4.05</v>
@@ -4146,10 +4146,10 @@
         <v>15</v>
       </c>
       <c r="AZ20" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="BA20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -1299,7 +1299,7 @@
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
@@ -1323,10 +1323,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1380,7 +1380,7 @@
         <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
@@ -1407,7 +1407,7 @@
         <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
         <v>2.25</v>
@@ -1419,7 +1419,7 @@
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
         <v>26</v>
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
         <v>3.75</v>
@@ -1505,10 +1505,10 @@
         <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>
@@ -1517,10 +1517,10 @@
         <v>3.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W6" t="n">
         <v>11</v>
@@ -1544,7 +1544,7 @@
         <v>17</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1613,7 +1613,7 @@
         <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
         <v>126</v>
@@ -1675,10 +1675,10 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1687,10 +1687,10 @@
         <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1841,10 +1841,10 @@
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
@@ -1871,10 +1871,10 @@
         <v>1.67</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
         <v>1.91</v>
@@ -1883,7 +1883,7 @@
         <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
         <v>9.5</v>
@@ -1892,7 +1892,7 @@
         <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
         <v>19</v>
@@ -1913,7 +1913,7 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
         <v>15</v>
@@ -1937,10 +1937,10 @@
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1952,13 +1952,13 @@
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
         <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
         <v>5</v>
@@ -2377,28 +2377,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K11" t="n">
         <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2419,10 +2419,10 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W11" t="n">
         <v>7</v>
@@ -2446,7 +2446,7 @@
         <v>8.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
@@ -2473,7 +2473,7 @@
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN11" t="n">
         <v>4</v>
@@ -2789,7 +2789,7 @@
         <v>1.75</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X13" t="n">
         <v>17</v>
@@ -2813,13 +2813,13 @@
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="n">
         <v>67</v>
       </c>
       <c r="AG13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH13" t="n">
         <v>9</v>
@@ -2828,7 +2828,7 @@
         <v>9</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK13" t="n">
         <v>19</v>
@@ -2873,7 +2873,7 @@
         <v>12</v>
       </c>
       <c r="AY13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ13" t="n">
         <v>41</v>
@@ -3135,10 +3135,10 @@
         <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R15" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S15" t="n">
         <v>1.5</v>
@@ -3287,28 +3287,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H16" t="n">
         <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J16" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K16" t="n">
         <v>1.95</v>
       </c>
       <c r="L16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
@@ -3344,7 +3344,7 @@
         <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA16" t="n">
         <v>19</v>
@@ -3359,13 +3359,13 @@
         <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF16" t="n">
         <v>81</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
         <v>23</v>
@@ -3380,13 +3380,13 @@
         <v>51</v>
       </c>
       <c r="AL16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM16" t="n">
         <v>201</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO16" t="n">
         <v>10</v>
@@ -3395,7 +3395,7 @@
         <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR16" t="n">
         <v>67</v>
@@ -3416,7 +3416,7 @@
         <v>6.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY16" t="n">
         <v>41</v>
@@ -3499,10 +3499,10 @@
         <v>2.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
         <v>1.53</v>
@@ -3651,19 +3651,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="K18" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L18" t="n">
         <v>5.1</v>
@@ -3684,7 +3684,7 @@
         <v>1.83</v>
       </c>
       <c r="R18" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S18" t="n">
         <v>1.38</v>
@@ -3696,34 +3696,34 @@
         <v>1.8</v>
       </c>
       <c r="V18" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
         <v>6.7</v>
       </c>
       <c r="X18" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
       </c>
       <c r="Z18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA18" t="n">
         <v>13</v>
       </c>
       <c r="AB18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AE18" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF18" t="n">
         <v>75</v>
@@ -3735,10 +3735,10 @@
         <v>30</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="n">
         <v>50</v>
@@ -3753,22 +3753,22 @@
         <v>3.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AP18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS18" t="n">
         <v>250</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AU18" t="n">
         <v>7.6</v>
@@ -3777,7 +3777,7 @@
         <v>70</v>
       </c>
       <c r="AW18" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AX18" t="n">
         <v>28</v>
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" t="n">
         <v>7.8</v>
@@ -4024,13 +4024,13 @@
         <v>1.07</v>
       </c>
       <c r="J20" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="K20" t="n">
         <v>3.35</v>
       </c>
       <c r="L20" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -4042,25 +4042,25 @@
         <v>1.08</v>
       </c>
       <c r="P20" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="R20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S20" t="n">
         <v>1.18</v>
       </c>
       <c r="T20" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="U20" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="V20" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W20" t="n">
         <v>120</v>
@@ -4078,10 +4078,10 @@
         <v>800</v>
       </c>
       <c r="AB20" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AC20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD20" t="n">
         <v>23</v>
@@ -4090,19 +4090,19 @@
         <v>50</v>
       </c>
       <c r="AF20" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AI20" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AK20" t="n">
         <v>11.5</v>
@@ -4128,13 +4128,13 @@
       </c>
       <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="AU20" t="n">
         <v>12</v>
       </c>
       <c r="AV20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AW20" t="n">
         <v>3.2</v>
@@ -4143,16 +4143,16 @@
         <v>4.05</v>
       </c>
       <c r="AY20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AZ20" t="n">
         <v>7.3</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB20" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
         <v>2.5</v>
@@ -1672,13 +1672,13 @@
         <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1687,10 +1687,10 @@
         <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1711,7 +1711,7 @@
         <v>8</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
         <v>15</v>
@@ -1735,13 +1735,13 @@
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>51</v>
@@ -1753,16 +1753,16 @@
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN7" t="n">
         <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
         <v>34</v>
@@ -1786,7 +1786,7 @@
         <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY7" t="n">
         <v>34</v>
@@ -1795,10 +1795,10 @@
         <v>81</v>
       </c>
       <c r="BA7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
@@ -2204,7 +2204,7 @@
         <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
         <v>1.95</v>
@@ -2249,7 +2249,7 @@
         <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
         <v>26</v>
@@ -2264,7 +2264,7 @@
         <v>7</v>
       </c>
       <c r="AD10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>17</v>
@@ -2282,7 +2282,7 @@
         <v>12</v>
       </c>
       <c r="AJ10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
@@ -2398,7 +2398,7 @@
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2923,16 +2923,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
@@ -2953,10 +2953,10 @@
         <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R14" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S14" t="n">
         <v>1.4</v>
@@ -3013,7 +3013,7 @@
         <v>51</v>
       </c>
       <c r="AK14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
         <v>41</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
         <v>3.2</v>
@@ -3296,7 +3296,7 @@
         <v>5.25</v>
       </c>
       <c r="J16" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K16" t="n">
         <v>1.95</v>
@@ -3359,7 +3359,7 @@
         <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
         <v>81</v>
@@ -3380,7 +3380,7 @@
         <v>51</v>
       </c>
       <c r="AL16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM16" t="n">
         <v>201</v>
@@ -3395,7 +3395,7 @@
         <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
         <v>67</v>
@@ -3469,28 +3469,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K17" t="n">
         <v>1.95</v>
       </c>
       <c r="L17" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
         <v>1.44</v>
@@ -3517,22 +3517,22 @@
         <v>1.67</v>
       </c>
       <c r="W17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y17" t="n">
         <v>9.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="n">
         <v>7</v>
@@ -3547,31 +3547,31 @@
         <v>67</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
         <v>41</v>
       </c>
       <c r="AK17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
         <v>26</v>
@@ -3589,19 +3589,19 @@
         <v>2.38</v>
       </c>
       <c r="AU17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
         <v>67</v>
       </c>
       <c r="AW17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ17" t="n">
         <v>81</v>
@@ -3833,19 +3833,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H19" t="n">
         <v>2.8</v>
       </c>
       <c r="I19" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L19" t="n">
         <v>4.75</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -1255,7 +1255,7 @@
         <v>351</v>
       </c>
       <c r="BC4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1293,19 +1293,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
@@ -1353,7 +1353,7 @@
         <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1371,7 +1371,7 @@
         <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH5" t="n">
         <v>19</v>
@@ -1395,7 +1395,7 @@
         <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
         <v>29</v>
@@ -1404,10 +1404,10 @@
         <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
         <v>2.25</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
         <v>2.5</v>
@@ -1532,16 +1532,16 @@
         <v>9</v>
       </c>
       <c r="Z6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
         <v>19</v>
       </c>
-      <c r="AA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>21</v>
-      </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="n">
         <v>8</v>
@@ -1583,7 +1583,7 @@
         <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR6" t="n">
         <v>41</v>
@@ -1601,7 +1601,7 @@
         <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
         <v>17</v>
@@ -1613,7 +1613,7 @@
         <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB6" t="n">
         <v>126</v>
@@ -1865,10 +1865,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -2013,10 +2013,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
         <v>6.25</v>
@@ -2142,7 +2142,7 @@
         <v>7</v>
       </c>
       <c r="AX9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY9" t="n">
         <v>41</v>
@@ -2577,10 +2577,10 @@
         <v>2.88</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
@@ -2741,13 +2741,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
         <v>4.5</v>
@@ -2762,7 +2762,7 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>
@@ -2783,16 +2783,16 @@
         <v>2.5</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="n">
         <v>13</v>
@@ -2807,7 +2807,7 @@
         <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
@@ -2822,13 +2822,13 @@
         <v>6</v>
       </c>
       <c r="AH13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI13" t="n">
         <v>9</v>
       </c>
       <c r="AJ13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
         <v>19</v>
@@ -2837,7 +2837,7 @@
         <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AN13" t="n">
         <v>5.5</v>
@@ -2852,7 +2852,7 @@
         <v>81</v>
       </c>
       <c r="AR13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS13" t="n">
         <v>301</v>
@@ -2861,16 +2861,16 @@
         <v>2.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV13" t="n">
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY13" t="n">
         <v>26</v>
@@ -2923,16 +2923,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
@@ -2953,10 +2953,10 @@
         <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R14" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S14" t="n">
         <v>1.4</v>
@@ -3013,7 +3013,7 @@
         <v>51</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="n">
         <v>41</v>
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H20" t="n">
         <v>7.8</v>
@@ -4024,13 +4024,13 @@
         <v>1.07</v>
       </c>
       <c r="J20" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="K20" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="L20" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -4039,37 +4039,37 @@
         <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P20" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="R20" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="S20" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="T20" t="n">
-        <v>4.35</v>
+        <v>4.75</v>
       </c>
       <c r="U20" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="V20" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W20" t="n">
         <v>120</v>
       </c>
       <c r="X20" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Y20" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
@@ -4078,37 +4078,37 @@
         <v>800</v>
       </c>
       <c r="AB20" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AC20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AD20" t="n">
         <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AF20" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AI20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM20" t="n">
         <v>900</v>
@@ -4117,10 +4117,10 @@
         <v>27</v>
       </c>
       <c r="AO20" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AP20" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="n">
@@ -4128,31 +4128,31 @@
       </c>
       <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="n">
-        <v>4.35</v>
+        <v>4.75</v>
       </c>
       <c r="AU20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AW20" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AX20" t="n">
         <v>4.05</v>
       </c>
       <c r="AY20" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AZ20" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="BA20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB20" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -1255,7 +1255,7 @@
         <v>351</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1499,10 +1499,10 @@
         <v>17</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q6" t="n">
         <v>1.53</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J7" t="n">
         <v>2.5</v>
@@ -1672,7 +1672,7 @@
         <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1735,10 +1735,10 @@
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1753,7 +1753,7 @@
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN7" t="n">
         <v>3.75</v>
@@ -1762,7 +1762,7 @@
         <v>10</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
         <v>34</v>
@@ -1786,7 +1786,7 @@
         <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY7" t="n">
         <v>34</v>
@@ -1795,7 +1795,7 @@
         <v>81</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
         <v>251</v>
@@ -1835,19 +1835,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>4</v>
@@ -1859,31 +1859,31 @@
         <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X8" t="n">
         <v>9.5</v>
@@ -1892,16 +1892,16 @@
         <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1910,10 +1910,10 @@
         <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH8" t="n">
         <v>15</v>
@@ -1937,10 +1937,10 @@
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1952,13 +1952,13 @@
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
         <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
         <v>5</v>
@@ -2037,16 +2037,16 @@
         <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="R9" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2225,10 +2225,10 @@
         <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
         <v>1.53</v>
@@ -2762,7 +2762,7 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H16" t="n">
         <v>3.2</v>
@@ -3296,7 +3296,7 @@
         <v>5.25</v>
       </c>
       <c r="J16" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K16" t="n">
         <v>1.95</v>
@@ -3305,10 +3305,10 @@
         <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
@@ -3353,7 +3353,7 @@
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
@@ -3395,7 +3395,7 @@
         <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR16" t="n">
         <v>67</v>
@@ -3472,10 +3472,10 @@
         <v>2.05</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J17" t="n">
         <v>2.88</v>
@@ -3526,10 +3526,10 @@
         <v>9.5</v>
       </c>
       <c r="Z17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA17" t="n">
         <v>19</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>21</v>
       </c>
       <c r="AB17" t="n">
         <v>34</v>
@@ -3538,7 +3538,7 @@
         <v>7</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3547,19 +3547,19 @@
         <v>67</v>
       </c>
       <c r="AG17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
         <v>41</v>
       </c>
       <c r="AK17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="n">
         <v>41</v>
@@ -4015,22 +4015,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H20" t="n">
         <v>7.8</v>
       </c>
       <c r="I20" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="J20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -4042,13 +4042,13 @@
         <v>1.07</v>
       </c>
       <c r="P20" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Q20" t="n">
         <v>1.25</v>
       </c>
       <c r="R20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="S20" t="n">
         <v>1.15</v>
@@ -4063,13 +4063,13 @@
         <v>1.57</v>
       </c>
       <c r="W20" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="X20" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Y20" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
@@ -4078,49 +4078,49 @@
         <v>800</v>
       </c>
       <c r="AB20" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AC20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AF20" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="n">
         <v>12.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ20" t="n">
         <v>6.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
         <v>900</v>
       </c>
       <c r="AN20" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO20" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AP20" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="n">
@@ -4131,10 +4131,10 @@
         <v>4.75</v>
       </c>
       <c r="AU20" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AV20" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW20" t="n">
         <v>3.4</v>
@@ -4146,7 +4146,7 @@
         <v>13.5</v>
       </c>
       <c r="AZ20" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="BA20" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -1135,16 +1135,16 @@
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1499,16 +1499,16 @@
         <v>17</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R6" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
         <v>2.5</v>
@@ -1672,7 +1672,7 @@
         <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1735,10 +1735,10 @@
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1753,7 +1753,7 @@
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN7" t="n">
         <v>3.75</v>
@@ -1762,7 +1762,7 @@
         <v>10</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
         <v>34</v>
@@ -1786,7 +1786,7 @@
         <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY7" t="n">
         <v>34</v>
@@ -1795,7 +1795,7 @@
         <v>81</v>
       </c>
       <c r="BA7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
         <v>251</v>
@@ -2043,10 +2043,10 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R9" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2941,10 +2941,10 @@
         <v>4.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
@@ -2953,10 +2953,10 @@
         <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="R14" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S14" t="n">
         <v>1.4</v>
@@ -3305,10 +3305,10 @@
         <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
@@ -3469,28 +3469,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K17" t="n">
         <v>1.95</v>
       </c>
       <c r="L17" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
         <v>1.44</v>
@@ -3538,7 +3538,7 @@
         <v>7</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3568,7 +3568,7 @@
         <v>1250</v>
       </c>
       <c r="AN17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO17" t="n">
         <v>12</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -1296,7 +1296,7 @@
         <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
         <v>4.33</v>
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
@@ -1398,7 +1398,7 @@
         <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J7" t="n">
         <v>2.5</v>
@@ -1678,7 +1678,7 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1687,10 +1687,10 @@
         <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1711,7 +1711,7 @@
         <v>8</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
         <v>15</v>
@@ -1723,7 +1723,7 @@
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
@@ -1735,7 +1735,7 @@
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
         <v>21</v>
@@ -1762,7 +1762,7 @@
         <v>10</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
         <v>34</v>
@@ -1780,7 +1780,7 @@
         <v>8.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
         <v>6</v>
@@ -2195,13 +2195,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
         <v>3.25</v>
@@ -2252,13 +2252,13 @@
         <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
         <v>23</v>
       </c>
       <c r="AB10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="n">
         <v>7</v>
@@ -2270,10 +2270,10 @@
         <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH10" t="n">
         <v>13</v>
@@ -2285,13 +2285,13 @@
         <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AN10" t="n">
         <v>4.33</v>
@@ -2315,7 +2315,7 @@
         <v>2.38</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
@@ -2324,19 +2324,19 @@
         <v>4.75</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY10" t="n">
         <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA10" t="n">
         <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2941,10 +2941,10 @@
         <v>4.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
@@ -2953,10 +2953,10 @@
         <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R14" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S14" t="n">
         <v>1.4</v>
@@ -4018,7 +4018,7 @@
         <v>30</v>
       </c>
       <c r="H20" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="I20" t="n">
         <v>1.06</v>
@@ -4027,10 +4027,10 @@
         <v>20</v>
       </c>
       <c r="K20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L20" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -4042,25 +4042,25 @@
         <v>1.07</v>
       </c>
       <c r="P20" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="R20" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="S20" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="T20" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="U20" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="V20" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="W20" t="n">
         <v>150</v>
@@ -4081,7 +4081,7 @@
         <v>400</v>
       </c>
       <c r="AC20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AD20" t="n">
         <v>24</v>
@@ -4093,22 +4093,22 @@
         <v>200</v>
       </c>
       <c r="AG20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AI20" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AK20" t="n">
         <v>11.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM20" t="n">
         <v>900</v>
@@ -4128,16 +4128,16 @@
       </c>
       <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="AU20" t="n">
         <v>11.75</v>
       </c>
       <c r="AV20" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AX20" t="n">
         <v>4.05</v>
@@ -4149,7 +4149,7 @@
         <v>6.8</v>
       </c>
       <c r="BA20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB20" t="n">
         <v>150</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -765,10 +765,10 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.53</v>
@@ -798,7 +798,7 @@
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
@@ -873,7 +873,7 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
         <v>21</v>
@@ -1505,10 +1505,10 @@
         <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>
@@ -1675,10 +1675,10 @@
         <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1687,10 +1687,10 @@
         <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -1853,10 +1853,10 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1865,10 +1865,10 @@
         <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -1886,10 +1886,10 @@
         <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
         <v>21</v>
@@ -1913,7 +1913,7 @@
         <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>15</v>
@@ -1934,7 +1934,7 @@
         <v>351</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
         <v>13</v>
@@ -1946,7 +1946,7 @@
         <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
         <v>201</v>
@@ -2195,28 +2195,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -2237,10 +2237,10 @@
         <v>2.38</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V10" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
         <v>7</v>
@@ -2261,7 +2261,7 @@
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
@@ -2279,10 +2279,10 @@
         <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK10" t="n">
         <v>26</v>
@@ -2333,7 +2333,7 @@
         <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
         <v>251</v>
@@ -3305,10 +3305,10 @@
         <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
@@ -3833,16 +3833,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
         <v>2.8</v>
       </c>
       <c r="I19" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
         <v>1.8</v>
@@ -3962,7 +3962,7 @@
         <v>5.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY19" t="n">
         <v>41</v>
@@ -4015,22 +4015,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H20" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="I20" t="n">
         <v>1.06</v>
       </c>
       <c r="J20" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="K20" t="n">
         <v>3.65</v>
       </c>
       <c r="L20" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -4039,22 +4039,22 @@
         <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P20" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Q20" t="n">
         <v>1.23</v>
       </c>
       <c r="R20" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="S20" t="n">
         <v>1.14</v>
       </c>
       <c r="T20" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="U20" t="n">
         <v>2.22</v>
@@ -4066,10 +4066,10 @@
         <v>150</v>
       </c>
       <c r="X20" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Y20" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
@@ -4078,28 +4078,28 @@
         <v>800</v>
       </c>
       <c r="AB20" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AC20" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AF20" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH20" t="n">
         <v>7.8</v>
       </c>
       <c r="AI20" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ20" t="n">
         <v>6.6</v>
@@ -4114,13 +4114,13 @@
         <v>900</v>
       </c>
       <c r="AN20" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AO20" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AP20" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="n">
@@ -4128,10 +4128,10 @@
       </c>
       <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AU20" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AV20" t="n">
         <v>80</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -1129,22 +1129,22 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1153,10 +1153,10 @@
         <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1168,7 +1168,7 @@
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
@@ -1177,19 +1177,19 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>26</v>
@@ -1207,10 +1207,10 @@
         <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
         <v>8.5</v>
@@ -1240,7 +1240,7 @@
         <v>7</v>
       </c>
       <c r="AX4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
@@ -1835,28 +1835,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1865,10 +1865,10 @@
         <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -1886,16 +1886,16 @@
         <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
@@ -1907,25 +1907,25 @@
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK8" t="n">
         <v>34</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>29</v>
       </c>
       <c r="AL8" t="n">
         <v>41</v>
@@ -1934,10 +1934,10 @@
         <v>351</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
         <v>26</v>
@@ -1946,7 +1946,7 @@
         <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
         <v>201</v>
@@ -1961,13 +1961,13 @@
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
         <v>67</v>
@@ -1976,7 +1976,7 @@
         <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
@@ -2013,28 +2013,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
@@ -2043,16 +2043,16 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
         <v>1.95</v>
@@ -2076,16 +2076,16 @@
         <v>13</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
@@ -2094,7 +2094,7 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI9" t="n">
         <v>19</v>
@@ -2103,7 +2103,7 @@
         <v>67</v>
       </c>
       <c r="AK9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL9" t="n">
         <v>51</v>
@@ -2112,16 +2112,16 @@
         <v>351</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2130,16 +2130,16 @@
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX9" t="n">
         <v>34</v>
@@ -3833,34 +3833,34 @@
         </is>
       </c>
       <c r="G19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P19" t="n">
         <v>2.2</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.1</v>
       </c>
       <c r="Q19" t="n">
         <v>3.1</v>
@@ -3881,19 +3881,19 @@
         <v>1.5</v>
       </c>
       <c r="W19" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X19" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="n">
         <v>21</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>26</v>
       </c>
       <c r="AB19" t="n">
         <v>41</v>
@@ -3905,46 +3905,46 @@
         <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
         <v>101</v>
       </c>
       <c r="AG19" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM19" t="n">
         <v>201</v>
       </c>
       <c r="AN19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP19" t="n">
         <v>34</v>
       </c>
       <c r="AQ19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR19" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS19" t="n">
         <v>351</v>
@@ -3953,25 +3953,25 @@
         <v>2.1</v>
       </c>
       <c r="AU19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV19" t="n">
         <v>101</v>
       </c>
       <c r="AW19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY19" t="n">
         <v>41</v>
       </c>
       <c r="AZ19" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB19" t="n">
         <v>500</v>
@@ -4015,22 +4015,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="J20" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="K20" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -4039,34 +4039,34 @@
         <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P20" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="R20" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="S20" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="T20" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="U20" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="V20" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W20" t="n">
         <v>150</v>
       </c>
       <c r="X20" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Y20" t="n">
         <v>120</v>
@@ -4075,52 +4075,52 @@
         <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AC20" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AF20" t="n">
         <v>175</v>
       </c>
       <c r="AG20" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AI20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AK20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM20" t="n">
         <v>900</v>
       </c>
       <c r="AN20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO20" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AP20" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="n">
@@ -4128,31 +4128,31 @@
       </c>
       <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="AU20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AV20" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW20" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AX20" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="AY20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AZ20" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="BA20" t="n">
         <v>22</v>
       </c>
       <c r="BB20" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -1255,10 +1255,10 @@
         <v>351</v>
       </c>
       <c r="BC4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
         <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K6" t="n">
         <v>2.4</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1526,7 +1526,7 @@
         <v>11</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
@@ -1541,7 +1541,7 @@
         <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD6" t="n">
         <v>8</v>
@@ -1565,7 +1565,7 @@
         <v>41</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>26</v>
@@ -1577,7 +1577,7 @@
         <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP6" t="n">
         <v>17</v>
@@ -1589,7 +1589,7 @@
         <v>41</v>
       </c>
       <c r="AS6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT6" t="n">
         <v>3.5</v>
@@ -1604,7 +1604,7 @@
         <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H9" t="n">
         <v>3.9</v>
@@ -2031,10 +2031,10 @@
         <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
@@ -2043,16 +2043,16 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R9" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
         <v>1.95</v>
@@ -2076,7 +2076,7 @@
         <v>13</v>
       </c>
       <c r="AB9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
         <v>10</v>
@@ -2085,7 +2085,7 @@
         <v>7.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
@@ -2115,10 +2115,10 @@
         <v>3.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
         <v>23</v>
@@ -2130,7 +2130,7 @@
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
@@ -2577,10 +2577,10 @@
         <v>2.88</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
@@ -3839,7 +3839,7 @@
         <v>2.9</v>
       </c>
       <c r="I19" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J19" t="n">
         <v>2.88</v>
@@ -3851,10 +3851,10 @@
         <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.62</v>
@@ -3863,10 +3863,10 @@
         <v>2.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R19" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S19" t="n">
         <v>1.67</v>
@@ -3881,7 +3881,7 @@
         <v>1.5</v>
       </c>
       <c r="W19" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X19" t="n">
         <v>7.5</v>
@@ -3899,7 +3899,7 @@
         <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
@@ -3917,16 +3917,16 @@
         <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ19" t="n">
         <v>51</v>
       </c>
       <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
         <v>51</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>67</v>
       </c>
       <c r="AM19" t="n">
         <v>201</v>
@@ -3938,7 +3938,7 @@
         <v>12</v>
       </c>
       <c r="AP19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ19" t="n">
         <v>41</v>
@@ -3953,7 +3953,7 @@
         <v>2.1</v>
       </c>
       <c r="AU19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV19" t="n">
         <v>101</v>
@@ -4015,22 +4015,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H20" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="I20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="J20" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -4045,7 +4045,7 @@
         <v>6.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="R20" t="n">
         <v>3.55</v>
@@ -4054,73 +4054,73 @@
         <v>1.15</v>
       </c>
       <c r="T20" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="U20" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W20" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="X20" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Y20" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="AB20" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AC20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
         <v>40</v>
       </c>
       <c r="AF20" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AG20" t="n">
         <v>12.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AL20" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM20" t="n">
         <v>900</v>
       </c>
       <c r="AN20" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AO20" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AP20" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="n">
@@ -4128,25 +4128,25 @@
       </c>
       <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AU20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW20" t="n">
         <v>3.45</v>
       </c>
       <c r="AX20" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AY20" t="n">
         <v>13</v>
       </c>
       <c r="AZ20" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="BA20" t="n">
         <v>22</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
@@ -1302,7 +1302,7 @@
         <v>4.33</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
@@ -1344,13 +1344,13 @@
         <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
         <v>19</v>
@@ -1359,7 +1359,7 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1440,7 +1440,7 @@
         <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
         <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
         <v>2.4</v>
@@ -1517,19 +1517,19 @@
         <v>3.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
         <v>17</v>
@@ -1538,7 +1538,7 @@
         <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
         <v>17</v>
@@ -1547,10 +1547,10 @@
         <v>8</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG6" t="n">
         <v>15</v>
@@ -1559,7 +1559,7 @@
         <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
         <v>41</v>
@@ -1571,7 +1571,7 @@
         <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN6" t="n">
         <v>4.33</v>
@@ -1589,7 +1589,7 @@
         <v>41</v>
       </c>
       <c r="AS6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT6" t="n">
         <v>3.5</v>
@@ -1607,7 +1607,7 @@
         <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
@@ -2013,22 +2013,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
@@ -2055,34 +2055,34 @@
         <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
         <v>13</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
         <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
@@ -2094,25 +2094,25 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
         <v>19</v>
       </c>
       <c r="AJ9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -2121,7 +2121,7 @@
         <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2133,28 +2133,28 @@
         <v>2.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY9" t="n">
         <v>34</v>
       </c>
-      <c r="AY9" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA9" t="n">
         <v>126</v>
       </c>
-      <c r="BA9" t="n">
-        <v>151</v>
-      </c>
       <c r="BB9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2195,16 +2195,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
@@ -2213,10 +2213,10 @@
         <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -2231,10 +2231,10 @@
         <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
         <v>1.95</v>
@@ -2255,7 +2255,7 @@
         <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
@@ -2267,7 +2267,7 @@
         <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
@@ -2276,16 +2276,16 @@
         <v>8</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK10" t="n">
         <v>29</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>26</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
@@ -2300,7 +2300,7 @@
         <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
@@ -2312,7 +2312,7 @@
         <v>251</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
@@ -2321,19 +2321,19 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
         <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
         <v>251</v>
@@ -2377,52 +2377,52 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
         <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V11" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W11" t="n">
         <v>7</v>
@@ -2431,22 +2431,22 @@
         <v>9.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
         <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
@@ -2455,13 +2455,13 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ11" t="n">
         <v>41</v>
@@ -2473,7 +2473,7 @@
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN11" t="n">
         <v>4</v>
@@ -2494,16 +2494,16 @@
         <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU11" t="n">
         <v>8.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX11" t="n">
         <v>21</v>
@@ -2583,16 +2583,16 @@
         <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R12" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -3851,10 +3851,10 @@
         <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
         <v>1.62</v>
@@ -4024,13 +4024,13 @@
         <v>1.08</v>
       </c>
       <c r="J20" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="K20" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L20" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -4042,25 +4042,25 @@
         <v>1.07</v>
       </c>
       <c r="P20" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="R20" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="S20" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="T20" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="V20" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W20" t="n">
         <v>120</v>
@@ -4081,40 +4081,40 @@
         <v>250</v>
       </c>
       <c r="AC20" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AD20" t="n">
         <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF20" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="n">
         <v>12.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AK20" t="n">
         <v>10.75</v>
       </c>
       <c r="AL20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM20" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AN20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO20" t="n">
         <v>175</v>
@@ -4128,31 +4128,31 @@
       </c>
       <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AU20" t="n">
         <v>10.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW20" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="AX20" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AY20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ20" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="BA20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.53</v>
@@ -795,16 +795,16 @@
         <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
         <v>23</v>
@@ -813,19 +813,19 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>15</v>
@@ -834,19 +834,19 @@
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
         <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
@@ -879,16 +879,16 @@
         <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
         <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -1129,22 +1129,22 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1255,10 +1255,10 @@
         <v>351</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1317,22 +1317,22 @@
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
         <v>2.2</v>
@@ -1410,7 +1410,7 @@
         <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU5" t="n">
         <v>9.5</v>
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1886,7 +1886,7 @@
         <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9.5</v>
@@ -1907,7 +1907,7 @@
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
@@ -1916,16 +1916,16 @@
         <v>8.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
         <v>41</v>
@@ -1937,7 +1937,7 @@
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
         <v>26</v>
@@ -1961,7 +1961,7 @@
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
         <v>21</v>
@@ -1976,7 +1976,7 @@
         <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
@@ -2031,10 +2031,10 @@
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
@@ -2097,7 +2097,7 @@
         <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
         <v>51</v>
@@ -2109,19 +2109,19 @@
         <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2139,7 +2139,7 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX9" t="n">
         <v>29</v>
@@ -2201,10 +2201,10 @@
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
@@ -2213,10 +2213,10 @@
         <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -2321,7 +2321,7 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX10" t="n">
         <v>19</v>
@@ -2330,7 +2330,7 @@
         <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA10" t="n">
         <v>101</v>
@@ -2380,7 +2380,7 @@
         <v>2.15</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
         <v>3.5</v>
@@ -2392,7 +2392,7 @@
         <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -2425,16 +2425,16 @@
         <v>1.8</v>
       </c>
       <c r="W11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X11" t="n">
         <v>9.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
         <v>19</v>
@@ -2455,13 +2455,13 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
         <v>41</v>
@@ -2503,7 +2503,7 @@
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
         <v>21</v>
@@ -2559,16 +2559,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
         <v>2.25</v>
@@ -2595,10 +2595,10 @@
         <v>2.08</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U12" t="n">
         <v>1.62</v>
@@ -2628,16 +2628,16 @@
         <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH12" t="n">
         <v>12</v>
@@ -2676,7 +2676,7 @@
         <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU12" t="n">
         <v>7.5</v>
@@ -2685,7 +2685,7 @@
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX12" t="n">
         <v>12</v>
@@ -4015,22 +4015,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H20" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="I20" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="J20" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="K20" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -4051,76 +4051,76 @@
         <v>3.65</v>
       </c>
       <c r="S20" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="U20" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V20" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="X20" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Y20" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
       </c>
       <c r="AA20" t="n">
+        <v>450</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>200</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM20" t="n">
         <v>600</v>
       </c>
-      <c r="AB20" t="n">
-        <v>250</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>37</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>800</v>
-      </c>
       <c r="AN20" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO20" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AP20" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="n">
@@ -4128,28 +4128,28 @@
       </c>
       <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="AU20" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AV20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW20" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AX20" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="AY20" t="n">
         <v>12</v>
       </c>
       <c r="AZ20" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="BA20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB20" t="n">
         <v>110</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>3.25</v>
@@ -759,16 +759,16 @@
         <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.53</v>
@@ -801,7 +801,7 @@
         <v>10</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
         <v>23</v>
@@ -813,13 +813,13 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -852,13 +852,13 @@
         <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
         <v>301</v>
@@ -888,7 +888,7 @@
         <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
@@ -938,13 +938,13 @@
         <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
@@ -980,7 +980,7 @@
         <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
@@ -1019,7 +1019,7 @@
         <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1055,7 +1055,7 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
         <v>29</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
         <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -1141,10 +1141,10 @@
         <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1189,7 +1189,7 @@
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
         <v>26</v>
@@ -1198,7 +1198,7 @@
         <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GbLZ1izi</t>
+          <t>YeqaRSKa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,169 +1466,165 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GV San Jose</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Blooming</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
         <v>17</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W6" t="n">
-        <v>10</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
         <v>11</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK6" t="n">
         <v>41</v>
       </c>
-      <c r="AK6" t="n">
-        <v>26</v>
-      </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
         <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>51</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>YeqaRSKa</t>
+          <t>OAukwB1L</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1634,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,82 +1644,82 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blooming</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.5</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>10</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.73</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.8</v>
       </c>
       <c r="W7" t="n">
         <v>6.5</v>
       </c>
       <c r="X7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
         <v>8</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
@@ -1732,67 +1728,67 @@
         <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
         <v>12</v>
       </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK7" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
         <v>8.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
         <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
         <v>101</v>
@@ -1806,7 +1802,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OAukwB1L</t>
+          <t>C6pXYSIf</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1816,175 +1812,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.4</v>
       </c>
-      <c r="P8" t="n">
+      <c r="T8" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK8" t="n">
         <v>41</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>29</v>
       </c>
       <c r="AL8" t="n">
         <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
         <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY8" t="n">
         <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="n">
         <v>251</v>
       </c>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr"/>
+      <c r="BC8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C6pXYSIf</t>
+          <t>IqoTZ83l</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2004,154 +2004,154 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.95</v>
       </c>
-      <c r="R9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
       </c>
       <c r="X9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10</v>
-      </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
       </c>
       <c r="AG9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH9" t="n">
         <v>15</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AI9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK9" t="n">
         <v>29</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
       </c>
       <c r="AM9" t="n">
+        <v>401</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="n">
         <v>251</v>
       </c>
-      <c r="AN9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
         <v>8.5</v>
       </c>
       <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>51</v>
       </c>
-      <c r="AW9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ9" t="n">
+      <c r="BA9" t="n">
         <v>101</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>126</v>
       </c>
       <c r="BB9" t="n">
         <v>251</v>
@@ -2166,7 +2166,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IqoTZ83l</t>
+          <t>8YwtX6m7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2186,49 +2186,49 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2243,73 +2243,73 @@
         <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK10" t="n">
         <v>34</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>29</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
         <v>2.5</v>
@@ -2321,16 +2321,16 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
         <v>101</v>
@@ -2348,7 +2348,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8YwtX6m7</t>
+          <t>2BqdsiBE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2368,160 +2368,160 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L11" t="n">
         <v>2.88</v>
       </c>
-      <c r="K11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P11" t="n">
         <v>4.33</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
-        <v>8</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
       <c r="Q11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V11" t="n">
         <v>2.2</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W11" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="X11" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
         <v>9.5</v>
       </c>
       <c r="AH11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK11" t="n">
         <v>17</v>
       </c>
-      <c r="AI11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>29</v>
-      </c>
       <c r="AL11" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AM11" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
         <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY11" t="n">
         <v>21</v>
       </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ11" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA11" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BC11" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD11" t="n">
         <v>126</v>
@@ -2530,7 +2530,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2BqdsiBE</t>
+          <t>Q9lyYnY0</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2550,160 +2550,160 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W12" t="n">
+        <v>9</v>
+      </c>
+      <c r="X12" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y12" t="n">
         <v>13</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W12" t="n">
-        <v>12</v>
-      </c>
-      <c r="X12" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>11</v>
-      </c>
       <c r="Z12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA12" t="n">
         <v>34</v>
       </c>
-      <c r="AA12" t="n">
-        <v>23</v>
-      </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO12" t="n">
         <v>23</v>
       </c>
-      <c r="AM12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>17</v>
-      </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV12" t="n">
         <v>67</v>
       </c>
-      <c r="AS12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
       <c r="AW12" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC12" t="n">
         <v>126</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>501</v>
       </c>
       <c r="BD12" t="n">
         <v>126</v>
@@ -2712,7 +2712,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q9lyYnY0</t>
+          <t>n319JmJ7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2732,154 +2732,154 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>2.38</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
         <v>2.75</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N13" t="n">
-        <v>8</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U13" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AA13" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AB13" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
         <v>6</v>
       </c>
-      <c r="AH13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO13" t="n">
+      <c r="AX13" t="n">
         <v>23</v>
       </c>
-      <c r="AP13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ13" t="n">
+      <c r="AY13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>81</v>
       </c>
-      <c r="AR13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>41</v>
-      </c>
       <c r="BA13" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB13" t="n">
         <v>201</v>
@@ -2894,7 +2894,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>n319JmJ7</t>
+          <t>l8uhrXe8</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2914,85 +2914,85 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="J14" t="n">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.95</v>
       </c>
-      <c r="R14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>1.8</v>
       </c>
-      <c r="V14" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W14" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="X14" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>15</v>
@@ -3001,67 +3001,67 @@
         <v>51</v>
       </c>
       <c r="AG14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX14" t="n">
         <v>13</v>
       </c>
-      <c r="AH14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK14" t="n">
+      <c r="AY14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>41</v>
       </c>
-      <c r="AL14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>81</v>
-      </c>
       <c r="BA14" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB14" t="n">
         <v>201</v>
@@ -3076,7 +3076,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>l8uhrXe8</t>
+          <t>IZ3qIEYa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3086,167 +3086,167 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="H15" t="n">
         <v>3.2</v>
       </c>
       <c r="I15" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T15" t="n">
         <v>2.25</v>
       </c>
-      <c r="J15" t="n">
-        <v>4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N15" t="n">
-        <v>8</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U15" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="V15" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>51</v>
       </c>
-      <c r="AG15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH15" t="n">
+      <c r="AK15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO15" t="n">
         <v>10</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>19</v>
       </c>
       <c r="AP15" t="n">
         <v>29</v>
       </c>
       <c r="AQ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR15" t="n">
         <v>67</v>
       </c>
-      <c r="AR15" t="n">
-        <v>101</v>
-      </c>
       <c r="AS15" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU15" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW15" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ15" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BB15" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC15" t="n">
         <v>126</v>
@@ -3258,7 +3258,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IZ3qIEYa</t>
+          <t>E1chGh3C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3278,157 +3278,157 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
         <v>1.95</v>
       </c>
       <c r="L16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W16" t="n">
         <v>6</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W16" t="n">
-        <v>5</v>
-      </c>
       <c r="X16" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Y16" t="n">
         <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
         <v>19</v>
       </c>
       <c r="AB16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
         <v>67</v>
       </c>
       <c r="AS16" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ16" t="n">
         <v>81</v>
       </c>
-      <c r="AW16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ16" t="n">
+      <c r="BA16" t="n">
         <v>126</v>
       </c>
-      <c r="BA16" t="n">
-        <v>201</v>
-      </c>
       <c r="BB16" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC16" t="n">
         <v>126</v>
@@ -3440,7 +3440,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>E1chGh3C</t>
+          <t>MREUeAWQ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3450,179 +3450,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="K17" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="L17" t="n">
-        <v>4.75</v>
+        <v>5.1</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W17" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="X17" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y17" t="n">
         <v>8</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W17" t="n">
-        <v>6</v>
-      </c>
-      <c r="X17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AB17" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AC17" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AL17" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AM17" t="n">
-        <v>1250</v>
+        <v>600</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>7.7</v>
       </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="AR17" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AS17" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AV17" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AW17" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="AX17" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AY17" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AZ17" t="n">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="BA17" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="BB17" t="n">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="BC17" t="n">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="BD17" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MREUeAWQ</t>
+          <t>6uOnIaCm</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3632,41 +3632,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Briton Ferry</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tapatio</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>19.5</v>
       </c>
       <c r="H18" t="n">
-        <v>3.75</v>
+        <v>7.1</v>
       </c>
       <c r="I18" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.15</v>
+        <v>13</v>
       </c>
       <c r="K18" t="n">
-        <v>2.18</v>
+        <v>3.4</v>
       </c>
       <c r="L18" t="n">
-        <v>5.1</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
@@ -3675,487 +3675,123 @@
         <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.07</v>
       </c>
       <c r="P18" t="n">
-        <v>3.15</v>
+        <v>6.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="R18" t="n">
-        <v>1.88</v>
+        <v>3.55</v>
       </c>
       <c r="S18" t="n">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="T18" t="n">
-        <v>2.57</v>
+        <v>4.7</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W18" t="n">
-        <v>6.7</v>
+        <v>90</v>
       </c>
       <c r="X18" t="n">
+        <v>300</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>175</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>7.3</v>
       </c>
-      <c r="Y18" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>100</v>
-      </c>
       <c r="AK18" t="n">
-        <v>50</v>
+        <v>10.25</v>
       </c>
       <c r="AL18" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AM18" t="n">
         <v>600</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.4</v>
+        <v>20</v>
       </c>
       <c r="AO18" t="n">
-        <v>7.7</v>
+        <v>120</v>
       </c>
       <c r="AP18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>25</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>250</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.6</v>
+        <v>9.75</v>
       </c>
       <c r="AV18" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AW18" t="n">
-        <v>6.6</v>
+        <v>3.55</v>
       </c>
       <c r="AX18" t="n">
-        <v>28</v>
+        <v>4.4</v>
       </c>
       <c r="AY18" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AZ18" t="n">
-        <v>175</v>
+        <v>7.9</v>
       </c>
       <c r="BA18" t="n">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>zuhsk28K</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>20/11/2024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Eldense</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W19" t="n">
-        <v>5</v>
-      </c>
-      <c r="X19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>6uOnIaCm</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>20/11/2024</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>WALES - CYMRU PREMIER</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Briton Ferry</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>TNS</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>22</v>
-      </c>
-      <c r="H20" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="J20" t="n">
-        <v>14</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N20" t="n">
-        <v>10</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P20" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="T20" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W20" t="n">
         <v>110</v>
       </c>
-      <c r="X20" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>450</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>200</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>35</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>150</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="n">
-        <v>500</v>
-      </c>
-      <c r="AS20" t="inlineStr"/>
-      <c r="AT20" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>21</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>110</v>
-      </c>
-      <c r="BC20" t="inlineStr"/>
-      <c r="BD20" t="inlineStr"/>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
@@ -771,10 +771,10 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q2" t="n">
         <v>2.7</v>
@@ -807,7 +807,7 @@
         <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -828,10 +828,10 @@
         <v>7</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
         <v>34</v>
@@ -861,7 +861,7 @@
         <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
         <v>2.2</v>
@@ -1984,7 +1984,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IqoTZ83l</t>
+          <t>2BqdsiBE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2004,160 +2004,160 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="J9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T9" t="n">
         <v>3.25</v>
       </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="U9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>12</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD9" t="n">
         <v>7</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W9" t="n">
-        <v>7</v>
-      </c>
-      <c r="X9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z9" t="n">
+      <c r="AE9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL9" t="n">
         <v>23</v>
       </c>
-      <c r="AA9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
       <c r="AM9" t="n">
-        <v>401</v>
+        <v>151</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA9" t="n">
         <v>51</v>
       </c>
-      <c r="BA9" t="n">
-        <v>101</v>
-      </c>
       <c r="BB9" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD9" t="n">
         <v>126</v>
@@ -2166,7 +2166,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8YwtX6m7</t>
+          <t>Q9lyYnY0</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2186,31 +2186,31 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>3.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.7</v>
+        <v>1.95</v>
       </c>
       <c r="J10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
         <v>2.75</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -2219,16 +2219,16 @@
         <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2237,106 +2237,106 @@
         <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
         <v>8</v>
       </c>
       <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
         <v>6</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AH10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>17</v>
       </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>41</v>
-      </c>
       <c r="AK10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL10" t="n">
         <v>34</v>
       </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
       <c r="AM10" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT10" t="n">
         <v>2.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA10" t="n">
         <v>67</v>
       </c>
-      <c r="BA10" t="n">
-        <v>101</v>
-      </c>
       <c r="BB10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2348,7 +2348,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2BqdsiBE</t>
+          <t>n319JmJ7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2368,160 +2368,160 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>2.88</v>
+        <v>4.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7</v>
+      </c>
+      <c r="X11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
         <v>13</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W11" t="n">
-        <v>12</v>
-      </c>
-      <c r="X11" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z11" t="n">
+      <c r="AH11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK11" t="n">
         <v>34</v>
       </c>
-      <c r="AA11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF11" t="n">
+      <c r="AL11" t="n">
         <v>41</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AM11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO11" t="n">
         <v>9.5</v>
       </c>
-      <c r="AH11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ11" t="n">
+      <c r="AP11" t="n">
         <v>21</v>
       </c>
-      <c r="AK11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR11" t="n">
         <v>51</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>67</v>
       </c>
       <c r="AS11" t="n">
         <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AX11" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC11" t="n">
         <v>126</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>501</v>
       </c>
       <c r="BD11" t="n">
         <v>126</v>
@@ -2530,7 +2530,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q9lyYnY0</t>
+          <t>l8uhrXe8</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2550,31 +2550,31 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="J12" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2583,16 +2583,16 @@
         <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S12" t="n">
         <v>1.5</v>
@@ -2601,25 +2601,25 @@
         <v>2.5</v>
       </c>
       <c r="U12" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V12" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="W12" t="n">
         <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
@@ -2628,25 +2628,25 @@
         <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AI12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AK12" t="n">
         <v>19</v>
@@ -2655,40 +2655,40 @@
         <v>34</v>
       </c>
       <c r="AM12" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AN12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO12" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AP12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS12" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT12" t="n">
         <v>2.5</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
         <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2712,7 +2712,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>n319JmJ7</t>
+          <t>IZ3qIEYa</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2722,167 +2722,167 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W13" t="n">
         <v>5</v>
       </c>
-      <c r="J13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>10</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W13" t="n">
-        <v>7.5</v>
-      </c>
       <c r="X13" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK13" t="n">
         <v>51</v>
       </c>
-      <c r="AG13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>41</v>
-      </c>
       <c r="AL13" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AM13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AO13" t="n">
         <v>9.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>151</v>
       </c>
-      <c r="AT13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>81</v>
-      </c>
       <c r="BA13" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BB13" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC13" t="n">
         <v>126</v>
@@ -2894,7 +2894,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>l8uhrXe8</t>
+          <t>E1chGh3C</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2904,41 +2904,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2947,124 +2947,124 @@
         <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U14" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W14" t="n">
+        <v>6</v>
+      </c>
+      <c r="X14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG14" t="n">
         <v>9</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AH14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI14" t="n">
         <v>15</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AJ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO14" t="n">
         <v>12</v>
       </c>
-      <c r="Z14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB14" t="n">
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>41</v>
       </c>
-      <c r="AC14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ14" t="n">
+      <c r="AR14" t="n">
         <v>67</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>101</v>
       </c>
       <c r="AS14" t="n">
         <v>251</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV14" t="n">
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AY14" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ14" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA14" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB14" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC14" t="n">
         <v>126</v>
@@ -3076,7 +3076,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IZ3qIEYa</t>
+          <t>MREUeAWQ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3086,179 +3086,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>5.25</v>
+        <v>5.1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="K15" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.5</v>
+        <v>3.15</v>
       </c>
       <c r="Q15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W15" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="X15" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT15" t="n">
         <v>2.6</v>
       </c>
-      <c r="R15" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W15" t="n">
-        <v>5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ15" t="n">
+      <c r="AU15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD15" t="n">
         <v>51</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>E1chGh3C</t>
+          <t>6uOnIaCm</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3268,530 +3268,174 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Briton Ferry</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>19.5</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>7.1</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.75</v>
+        <v>13</v>
       </c>
       <c r="K16" t="n">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
-        <v>4.75</v>
+        <v>1.35</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>1.07</v>
       </c>
       <c r="P16" t="n">
-        <v>2.63</v>
+        <v>6.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="R16" t="n">
-        <v>1.53</v>
+        <v>3.55</v>
       </c>
       <c r="S16" t="n">
-        <v>1.53</v>
+        <v>1.15</v>
       </c>
       <c r="T16" t="n">
-        <v>2.38</v>
+        <v>4.7</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="V16" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="W16" t="n">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="X16" t="n">
-        <v>8.5</v>
+        <v>300</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.5</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>175</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD16" t="n">
         <v>19</v>
       </c>
-      <c r="AB16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AF16" t="n">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>8.25</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>41</v>
+        <v>7.3</v>
       </c>
       <c r="AK16" t="n">
-        <v>41</v>
+        <v>10.25</v>
       </c>
       <c r="AL16" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AM16" t="n">
-        <v>1250</v>
+        <v>600</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.75</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>500</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AY16" t="n">
         <v>12</v>
       </c>
-      <c r="AP16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ16" t="n">
-        <v>81</v>
+        <v>7.9</v>
       </c>
       <c r="BA16" t="n">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="BB16" t="n">
-        <v>351</v>
+        <v>110</v>
       </c>
       <c r="BC16" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD16" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>MREUeAWQ</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>20/11/2024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Celaya</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N17" t="n">
-        <v>10</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W17" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="X17" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>175</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD17" t="n">
         <v>51</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>6uOnIaCm</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>20/11/2024</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>WALES - CYMRU PREMIER</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Briton Ferry</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>TNS</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>13</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N18" t="n">
-        <v>10</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P18" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="T18" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W18" t="n">
-        <v>90</v>
-      </c>
-      <c r="X18" t="n">
-        <v>300</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>400</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>175</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>120</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="n">
-        <v>500</v>
-      </c>
-      <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>110</v>
-      </c>
-      <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD16"/>
+  <dimension ref="A1:BD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
@@ -765,10 +765,10 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.57</v>
@@ -798,13 +798,13 @@
         <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
         <v>26</v>
@@ -825,7 +825,7 @@
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH2" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         <v>34</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -849,7 +849,7 @@
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
@@ -873,10 +873,10 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
@@ -888,7 +888,7 @@
         <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
@@ -938,7 +938,7 @@
         <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
@@ -947,10 +947,10 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -980,7 +980,7 @@
         <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
@@ -1019,7 +1019,7 @@
         <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1055,7 +1055,7 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
         <v>29</v>
@@ -1114,7 +1114,7 @@
         <v>1.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>5.75</v>
@@ -1123,7 +1123,7 @@
         <v>2.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
@@ -1132,7 +1132,7 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1153,10 +1153,10 @@
         <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1174,10 +1174,10 @@
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
         <v>7.5</v>
@@ -1219,13 +1219,13 @@
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
         <v>2.63</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
@@ -1496,7 +1496,7 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
@@ -1671,10 +1671,10 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1683,10 +1683,10 @@
         <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S7" t="n">
         <v>1.5</v>
@@ -1802,7 +1802,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C6pXYSIf</t>
+          <t>2BqdsiBE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1822,169 +1822,169 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
         <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="X8" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
         <v>13</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10</v>
       </c>
       <c r="AD8" t="n">
         <v>7</v>
       </c>
       <c r="AE8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK8" t="n">
         <v>17</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AL8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>51</v>
       </c>
-      <c r="AG8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>29</v>
-      </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA8" t="n">
         <v>51</v>
       </c>
-      <c r="AW8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA8" t="n">
+      <c r="BB8" t="n">
         <v>126</v>
       </c>
-      <c r="BB8" t="n">
-        <v>251</v>
-      </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>451</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2BqdsiBE</t>
+          <t>Q9lyYnY0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2004,160 +2004,160 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W9" t="n">
+        <v>9</v>
+      </c>
+      <c r="X9" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y9" t="n">
         <v>13</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W9" t="n">
-        <v>12</v>
-      </c>
-      <c r="X9" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>11</v>
-      </c>
       <c r="Z9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="n">
         <v>34</v>
       </c>
-      <c r="AA9" t="n">
-        <v>23</v>
-      </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
         <v>9</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO9" t="n">
         <v>23</v>
       </c>
-      <c r="AM9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>17</v>
-      </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
         <v>67</v>
       </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
       <c r="AW9" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC9" t="n">
         <v>126</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>501</v>
       </c>
       <c r="BD9" t="n">
         <v>126</v>
@@ -2166,7 +2166,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q9lyYnY0</t>
+          <t>n319JmJ7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2186,154 +2186,154 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>1.76</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.95</v>
       </c>
-      <c r="J10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.7</v>
-      </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
         <v>6</v>
       </c>
-      <c r="AH10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO10" t="n">
+      <c r="AX10" t="n">
         <v>23</v>
       </c>
-      <c r="AP10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ10" t="n">
+      <c r="AY10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>81</v>
       </c>
-      <c r="AR10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>41</v>
-      </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
         <v>201</v>
@@ -2348,7 +2348,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>n319JmJ7</t>
+          <t>l8uhrXe8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2368,85 +2368,85 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.8</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>10</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X11" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
@@ -2455,67 +2455,67 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX11" t="n">
         <v>13</v>
       </c>
-      <c r="AH11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
+      <c r="AY11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>41</v>
       </c>
-      <c r="AM11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>81</v>
-      </c>
       <c r="BA11" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB11" t="n">
         <v>201</v>
@@ -2530,7 +2530,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>l8uhrXe8</t>
+          <t>IZ3qIEYa</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2540,167 +2540,167 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>1.73</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T12" t="n">
         <v>2.25</v>
       </c>
-      <c r="J12" t="n">
-        <v>4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N12" t="n">
-        <v>8</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U12" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AF12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK12" t="n">
         <v>51</v>
       </c>
-      <c r="AG12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI12" t="n">
+      <c r="AL12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO12" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>19</v>
       </c>
       <c r="AP12" t="n">
         <v>29</v>
       </c>
       <c r="AQ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR12" t="n">
         <v>67</v>
       </c>
-      <c r="AR12" t="n">
-        <v>101</v>
-      </c>
       <c r="AS12" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX12" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BB12" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC12" t="n">
         <v>126</v>
@@ -2712,7 +2712,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IZ3qIEYa</t>
+          <t>E1chGh3C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2732,157 +2732,157 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K13" t="n">
         <v>1.95</v>
       </c>
       <c r="L13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W13" t="n">
         <v>6</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W13" t="n">
-        <v>5</v>
-      </c>
       <c r="X13" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y13" t="n">
         <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
         <v>19</v>
       </c>
       <c r="AB13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP13" t="n">
         <v>26</v>
       </c>
-      <c r="AI13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR13" t="n">
         <v>67</v>
       </c>
       <c r="AS13" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>81</v>
       </c>
-      <c r="AW13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>151</v>
-      </c>
       <c r="BA13" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BB13" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC13" t="n">
         <v>126</v>
@@ -2894,7 +2894,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>E1chGh3C</t>
+          <t>MREUeAWQ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2904,536 +2904,172 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="K14" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="L14" t="n">
-        <v>4.75</v>
+        <v>5.1</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y14" t="n">
         <v>8</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W14" t="n">
-        <v>6</v>
-      </c>
-      <c r="X14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="AE14" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AL14" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>1250</v>
+        <v>600</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>7.7</v>
       </c>
       <c r="AP14" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="AR14" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AS14" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="AU14" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AV14" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AW14" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="AX14" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AY14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AZ14" t="n">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="BA14" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="BB14" t="n">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="BC14" t="n">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="BD14" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>MREUeAWQ</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>20/11/2024</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Celaya</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N15" t="n">
-        <v>10</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W15" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="X15" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>175</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>6uOnIaCm</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>20/11/2024</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>WALES - CYMRU PREMIER</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Briton Ferry</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>TNS</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>13</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N16" t="n">
-        <v>10</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P16" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="T16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W16" t="n">
-        <v>90</v>
-      </c>
-      <c r="X16" t="n">
-        <v>300</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>400</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>175</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>120</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>500</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>110</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD16" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CvxlIAM2</t>
+          <t>IcW6Ba5m</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,37 +738,37 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Newells Old Boys</t>
+          <t>Estudiantes L.P.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Central Cordoba</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.57</v>
@@ -789,25 +789,25 @@
         <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -816,79 +816,79 @@
         <v>6</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH2" t="n">
         <v>21</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AI2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR2" t="n">
         <v>81</v>
       </c>
-      <c r="AG2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>101</v>
-      </c>
       <c r="AS2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
         <v>2.2</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IcW6Ba5m</t>
+          <t>dpZZ86qk</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,145 +920,145 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Estudiantes L.P.</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.63</v>
       </c>
-      <c r="K3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="U3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W3" t="n">
         <v>6</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5</v>
-      </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="n">
         <v>15</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE3" t="n">
         <v>21</v>
       </c>
-      <c r="AB3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>23</v>
-      </c>
       <c r="AF3" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
         <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
       </c>
       <c r="AM3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
         <v>201</v>
       </c>
-      <c r="AN3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>301</v>
-      </c>
       <c r="AT3" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1067,22 +1067,22 @@
         <v>126</v>
       </c>
       <c r="BA3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dpZZ86qk</t>
+          <t>bev0F86L</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,103 +1102,103 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Union de Santa Fe</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>4.33</v>
       </c>
       <c r="J4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.2</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="V4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y4" t="n">
         <v>9.5</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6</v>
-      </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
         <v>7</v>
       </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD4" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
@@ -1210,52 +1210,52 @@
         <v>501</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX4" t="n">
         <v>26</v>
       </c>
-      <c r="AR4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>34</v>
-      </c>
       <c r="AY4" t="n">
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
         <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bev0F86L</t>
+          <t>YeqaRSKa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,104 +1274,104 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Union de Santa Fe</t>
+          <t>Blooming</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.63</v>
       </c>
-      <c r="K5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
         <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
         <v>21</v>
@@ -1386,67 +1386,63 @@
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AN5" t="n">
         <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
         <v>67</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>81</v>
       </c>
       <c r="AW5" t="n">
         <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA5" t="n">
         <v>101</v>
       </c>
-      <c r="BA5" t="n">
-        <v>151</v>
-      </c>
       <c r="BB5" t="n">
-        <v>401</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>151</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>YeqaRSKa</t>
+          <t>OAukwB1L</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1452,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,82 +1462,82 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blooming</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.81</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.5</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.73</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.8</v>
       </c>
       <c r="W6" t="n">
         <v>6.5</v>
       </c>
       <c r="X6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
         <v>8</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
@@ -1550,49 +1546,49 @@
         <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
         <v>8.5</v>
@@ -1601,16 +1597,16 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
         <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
         <v>101</v>
@@ -1624,7 +1620,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OAukwB1L</t>
+          <t>2BqdsiBE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1634,175 +1630,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="S7" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="V7" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AH7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK7" t="n">
         <v>17</v>
       </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>29</v>
-      </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
         <v>67</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AY7" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2BqdsiBE</t>
+          <t>Q9lyYnY0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1822,169 +1822,169 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>2.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W8" t="n">
+        <v>9</v>
+      </c>
+      <c r="X8" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y8" t="n">
         <v>13</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>12</v>
-      </c>
-      <c r="X8" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>12</v>
-      </c>
       <c r="Z8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="n">
         <v>34</v>
       </c>
-      <c r="AA8" t="n">
-        <v>23</v>
-      </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AI8" t="n">
         <v>9</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO8" t="n">
         <v>23</v>
       </c>
-      <c r="AM8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>17</v>
-      </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
         <v>67</v>
       </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>41</v>
-      </c>
       <c r="AW8" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AX8" t="n">
         <v>11</v>
       </c>
       <c r="AY8" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>41</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC8" t="n">
         <v>126</v>
       </c>
-      <c r="BC8" t="n">
-        <v>451</v>
-      </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q9lyYnY0</t>
+          <t>n319JmJ7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2004,154 +2004,154 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.91</v>
+        <v>4.75</v>
       </c>
       <c r="J9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
         <v>4.75</v>
       </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.75</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U9" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="W9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AB9" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
         <v>6</v>
       </c>
-      <c r="AH9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AX9" t="n">
         <v>23</v>
       </c>
-      <c r="AP9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ9" t="n">
+      <c r="AY9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>81</v>
       </c>
-      <c r="AR9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>41</v>
-      </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
         <v>201</v>
@@ -2166,7 +2166,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>n319JmJ7</t>
+          <t>l8uhrXe8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2186,85 +2186,85 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.76</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.92</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.8</v>
       </c>
-      <c r="V10" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -2273,67 +2273,67 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX10" t="n">
         <v>13</v>
       </c>
-      <c r="AH10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>23</v>
-      </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
         <v>201</v>
@@ -2348,7 +2348,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>l8uhrXe8</t>
+          <t>IZ3qIEYa</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2358,167 +2358,167 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>1.73</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.25</v>
       </c>
-      <c r="J11" t="n">
-        <v>4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
-        <v>8</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U11" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK11" t="n">
         <v>51</v>
       </c>
-      <c r="AG11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI11" t="n">
+      <c r="AL11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO11" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>19</v>
       </c>
       <c r="AP11" t="n">
         <v>29</v>
       </c>
       <c r="AQ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR11" t="n">
         <v>67</v>
       </c>
-      <c r="AR11" t="n">
-        <v>101</v>
-      </c>
       <c r="AS11" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX11" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AY11" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC11" t="n">
         <v>126</v>
@@ -2530,7 +2530,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IZ3qIEYa</t>
+          <t>E1chGh3C</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2550,157 +2550,157 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K12" t="n">
         <v>1.95</v>
       </c>
       <c r="L12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W12" t="n">
         <v>6</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W12" t="n">
-        <v>5</v>
-      </c>
       <c r="X12" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y12" t="n">
         <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
         <v>19</v>
       </c>
       <c r="AB12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP12" t="n">
         <v>26</v>
       </c>
-      <c r="AI12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
         <v>67</v>
       </c>
       <c r="AS12" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>81</v>
       </c>
-      <c r="AW12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>151</v>
-      </c>
       <c r="BA12" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BB12" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC12" t="n">
         <v>126</v>
@@ -2712,7 +2712,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>E1chGh3C</t>
+          <t>MREUeAWQ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2722,354 +2722,172 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="K13" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="L13" t="n">
-        <v>4.75</v>
+        <v>5.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="X13" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y13" t="n">
         <v>8</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W13" t="n">
-        <v>6</v>
-      </c>
-      <c r="X13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AL13" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
-        <v>1250</v>
+        <v>600</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>7.7</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="AR13" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AS13" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="AU13" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AV13" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="AX13" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AY13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AZ13" t="n">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="BA13" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="BB13" t="n">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="BC13" t="n">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="BD13" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MREUeAWQ</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>20/11/2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Celaya</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N14" t="n">
-        <v>10</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W14" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="X14" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>175</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD14" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -1471,13 +1471,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
@@ -1673,16 +1673,16 @@
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -2243,7 +2243,7 @@
         <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
@@ -2267,13 +2267,13 @@
         <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH10" t="n">
         <v>10</v>
@@ -2285,13 +2285,13 @@
         <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
         <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AN10" t="n">
         <v>5</v>
@@ -2395,10 +2395,10 @@
         <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
@@ -1135,22 +1135,22 @@
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U4" t="n">
         <v>2.2</v>
@@ -1162,13 +1162,13 @@
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
         <v>19</v>
@@ -1189,16 +1189,16 @@
         <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
@@ -1213,7 +1213,7 @@
         <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
@@ -1228,7 +1228,7 @@
         <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU4" t="n">
         <v>9.5</v>
@@ -1258,7 +1258,7 @@
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -1489,10 +1489,10 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1501,10 +1501,10 @@
         <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1528,10 +1528,10 @@
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
@@ -1549,7 +1549,7 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH6" t="n">
         <v>15</v>
@@ -1558,7 +1558,7 @@
         <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
@@ -1649,19 +1649,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J7" t="n">
         <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
         <v>2.75</v>
@@ -1691,16 +1691,16 @@
         <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="n">
         <v>12</v>
@@ -1739,13 +1739,13 @@
         <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN7" t="n">
         <v>5.5</v>
@@ -1763,7 +1763,7 @@
         <v>67</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT7" t="n">
         <v>3.25</v>
@@ -1784,13 +1784,13 @@
         <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA7" t="n">
         <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC7" t="n">
         <v>451</v>
@@ -1834,70 +1834,70 @@
         <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
         <v>4.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
         <v>2.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
         <v>19</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
         <v>41</v>
       </c>
       <c r="AA8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1906,16 +1906,16 @@
         <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>17</v>
@@ -1924,7 +1924,7 @@
         <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
         <v>501</v>
@@ -1936,7 +1936,7 @@
         <v>23</v>
       </c>
       <c r="AP8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ8" t="n">
         <v>81</v>
@@ -1945,10 +1945,10 @@
         <v>126</v>
       </c>
       <c r="AS8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU8" t="n">
         <v>9</v>
@@ -1960,7 +1960,7 @@
         <v>3.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
         <v>26</v>
@@ -1972,7 +1972,7 @@
         <v>67</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J9" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
@@ -2037,16 +2037,16 @@
         <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="R9" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2091,16 +2091,16 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
         <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK9" t="n">
         <v>34</v>
@@ -2115,7 +2115,7 @@
         <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
@@ -2225,10 +2225,10 @@
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2419,10 +2419,10 @@
         <v>2.25</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
         <v>5</v>
@@ -2604,7 +2604,7 @@
         <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W12" t="n">
         <v>6</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,16 +765,16 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
         <v>2.7</v>
@@ -804,7 +804,7 @@
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
@@ -882,10 +882,10 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -980,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
         <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
         <v>2.75</v>
@@ -1177,7 +1177,7 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1189,16 +1189,16 @@
         <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
@@ -1213,7 +1213,7 @@
         <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
@@ -1620,7 +1620,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2BqdsiBE</t>
+          <t>Q9lyYnY0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1640,169 +1640,169 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.3</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.6</v>
-      </c>
       <c r="I7" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
         <v>2.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="T7" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
         <v>19</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AA7" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL7" t="n">
         <v>41</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AM7" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>401</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU7" t="n">
         <v>9.5</v>
       </c>
-      <c r="AH7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AV7" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AX7" t="n">
         <v>11</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q9lyYnY0</t>
+          <t>n319JmJ7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1822,157 +1822,157 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L8" t="n">
         <v>4.75</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.95</v>
       </c>
-      <c r="L8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="W8" t="n">
         <v>7</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>8.5</v>
       </c>
-      <c r="X8" t="n">
-        <v>19</v>
-      </c>
       <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
         <v>15</v>
       </c>
-      <c r="Z8" t="n">
-        <v>41</v>
-      </c>
       <c r="AA8" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AK8" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
         <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="AN8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
         <v>6</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AX8" t="n">
         <v>23</v>
       </c>
-      <c r="AP8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ8" t="n">
+      <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>81</v>
       </c>
-      <c r="AR8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>41</v>
-      </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -1984,7 +1984,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>n319JmJ7</t>
+          <t>l8uhrXe8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2004,154 +2004,154 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.33</v>
+        <v>2.25</v>
       </c>
       <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.5</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>10</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.8</v>
       </c>
-      <c r="V9" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AB9" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="AH9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>21</v>
       </c>
-      <c r="AI9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ9" t="n">
+      <c r="AK9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>401</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>41</v>
       </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>81</v>
-      </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
         <v>201</v>
@@ -2166,7 +2166,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>l8uhrXe8</t>
+          <t>IZ3qIEYa</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2176,167 +2176,167 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>1.73</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T10" t="n">
         <v>2.25</v>
       </c>
-      <c r="J10" t="n">
-        <v>4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U10" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK10" t="n">
         <v>51</v>
       </c>
-      <c r="AG10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI10" t="n">
+      <c r="AL10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO10" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>401</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>19</v>
       </c>
       <c r="AP10" t="n">
         <v>29</v>
       </c>
       <c r="AQ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR10" t="n">
         <v>67</v>
       </c>
-      <c r="AR10" t="n">
-        <v>101</v>
-      </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX10" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2348,7 +2348,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IZ3qIEYa</t>
+          <t>E1chGh3C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2368,157 +2368,157 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K11" t="n">
         <v>1.95</v>
       </c>
       <c r="L11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W11" t="n">
         <v>6</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W11" t="n">
-        <v>5</v>
-      </c>
       <c r="X11" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y11" t="n">
         <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
         <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP11" t="n">
         <v>26</v>
       </c>
-      <c r="AI11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
         <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX11" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AY11" t="n">
         <v>41</v>
       </c>
       <c r="AZ11" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BA11" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BB11" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC11" t="n">
         <v>126</v>
@@ -2530,7 +2530,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>E1chGh3C</t>
+          <t>MREUeAWQ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2540,354 +2540,172 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="I12" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="K12" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="L12" t="n">
-        <v>4.75</v>
+        <v>5.1</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="X12" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y12" t="n">
         <v>8</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W12" t="n">
-        <v>6</v>
-      </c>
-      <c r="X12" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AL12" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>1250</v>
+        <v>600</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>7.7</v>
       </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="AR12" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AS12" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AV12" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AW12" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AX12" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AY12" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AZ12" t="n">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="BA12" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="BB12" t="n">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="BD12" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MREUeAWQ</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>20/11/2024</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Celaya</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L13" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N13" t="n">
-        <v>10</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W13" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="X13" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>175</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD13" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
@@ -798,13 +798,13 @@
         <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
@@ -825,7 +825,7 @@
         <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
@@ -837,7 +837,7 @@
         <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -873,7 +873,7 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
         <v>29</v>
@@ -882,10 +882,10 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
         <v>2.2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -959,10 +959,10 @@
         <v>3.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -980,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
@@ -1007,19 +1007,19 @@
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>67</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1031,13 +1031,13 @@
         <v>3.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1049,13 +1049,13 @@
         <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX3" t="n">
         <v>34</v>
@@ -1064,13 +1064,13 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC3" t="n">
         <v>151</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J4" t="n">
         <v>2.75</v>
@@ -1177,7 +1177,7 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1258,7 +1258,7 @@
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
@@ -1311,10 +1311,10 @@
         <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1323,10 +1323,10 @@
         <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1335,16 +1335,16 @@
         <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1353,7 +1353,7 @@
         <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
         <v>29</v>
@@ -1365,7 +1365,7 @@
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
@@ -1380,10 +1380,10 @@
         <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
         <v>41</v>
@@ -1416,7 +1416,7 @@
         <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
         <v>6</v>
@@ -1501,10 +1501,10 @@
         <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1649,13 +1649,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J7" t="n">
         <v>5</v>
@@ -1664,7 +1664,7 @@
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1697,10 +1697,10 @@
         <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
         <v>15</v>
@@ -1730,13 +1730,13 @@
         <v>5.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI7" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="n">
         <v>19</v>
@@ -1751,7 +1751,7 @@
         <v>6</v>
       </c>
       <c r="AO7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP7" t="n">
         <v>41</v>
@@ -1831,16 +1831,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
         <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
@@ -1873,10 +1873,10 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
         <v>7</v>
@@ -1912,16 +1912,16 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
         <v>15</v>
       </c>
       <c r="AJ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK8" t="n">
         <v>41</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>34</v>
       </c>
       <c r="AL8" t="n">
         <v>41</v>
@@ -1951,7 +1951,7 @@
         <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -1963,7 +1963,7 @@
         <v>23</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
         <v>81</v>
@@ -1972,7 +1972,7 @@
         <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -2207,7 +2207,7 @@
         <v>2.5</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L10" t="n">
         <v>6</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -750,16 +750,16 @@
         <v>1.85</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
         <v>2.63</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
         <v>5.5</v>
@@ -771,34 +771,34 @@
         <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
@@ -807,25 +807,25 @@
         <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
@@ -837,7 +837,7 @@
         <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -858,22 +858,22 @@
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
         <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
         <v>29</v>
@@ -882,13 +882,13 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -1043,7 +1043,7 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
         <v>2.63</v>
@@ -1064,13 +1064,13 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>151</v>
@@ -1323,10 +1323,10 @@
         <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1471,19 +1471,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
         <v>4</v>
@@ -1495,10 +1495,10 @@
         <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
         <v>2.2</v>
@@ -1513,10 +1513,10 @@
         <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
         <v>6.5</v>
@@ -1528,16 +1528,16 @@
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
@@ -1546,10 +1546,10 @@
         <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
         <v>15</v>
@@ -1573,10 +1573,10 @@
         <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
@@ -1603,7 +1603,7 @@
         <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
         <v>67</v>
@@ -1649,16 +1649,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K7" t="n">
         <v>1.95</v>
@@ -1691,10 +1691,10 @@
         <v>2.25</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W7" t="n">
         <v>9</v>
@@ -1763,7 +1763,7 @@
         <v>151</v>
       </c>
       <c r="AS7" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AT7" t="n">
         <v>2.25</v>
@@ -1775,7 +1775,7 @@
         <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AX7" t="n">
         <v>11</v>
@@ -2207,7 +2207,7 @@
         <v>2.5</v>
       </c>
       <c r="K10" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L10" t="n">
         <v>6</v>
@@ -2377,28 +2377,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
         <v>1.95</v>
       </c>
       <c r="L11" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -2428,7 +2428,7 @@
         <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y11" t="n">
         <v>9.5</v>
@@ -2446,7 +2446,7 @@
         <v>7</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>19</v>
@@ -2470,16 +2470,16 @@
         <v>41</v>
       </c>
       <c r="AL11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
         <v>1250</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2503,13 +2503,13 @@
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
         <v>23</v>
       </c>
       <c r="AY11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1323,10 +1323,10 @@
         <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1335,25 +1335,25 @@
         <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
       </c>
       <c r="X5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
       <c r="Z5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA5" t="n">
         <v>15</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>17</v>
       </c>
       <c r="AB5" t="n">
         <v>29</v>
@@ -1365,40 +1365,40 @@
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK5" t="n">
         <v>41</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>34</v>
       </c>
       <c r="AL5" t="n">
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>34</v>
@@ -1416,25 +1416,25 @@
         <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY5" t="n">
         <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T6" t="n">
         <v>2.5</v>
@@ -1620,7 +1620,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q9lyYnY0</t>
+          <t>l8uhrXe8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1640,145 +1640,145 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="J7" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.95</v>
       </c>
-      <c r="L7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.25</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
         <v>51</v>
       </c>
-      <c r="AA7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AG7" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AH7" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>401</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
         <v>19</v>
       </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AP7" t="n">
         <v>29</v>
       </c>
-      <c r="AP7" t="n">
-        <v>41</v>
-      </c>
       <c r="AQ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR7" t="n">
         <v>101</v>
       </c>
-      <c r="AR7" t="n">
-        <v>151</v>
-      </c>
       <c r="AS7" t="n">
-        <v>451</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
         <v>26</v>
@@ -1790,7 +1790,7 @@
         <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1802,7 +1802,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>n319JmJ7</t>
+          <t>IZ3qIEYa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1812,167 +1812,167 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2.7</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>1.41</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.54</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X8" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK8" t="n">
         <v>51</v>
       </c>
-      <c r="AG8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
       <c r="AL8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AM8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AO8" t="n">
         <v>9.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
         <v>34</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>151</v>
       </c>
-      <c r="AT8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>81</v>
-      </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BB8" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -1984,7 +1984,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>l8uhrXe8</t>
+          <t>E1chGh3C</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1994,167 +1994,167 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
+        <v>6</v>
+      </c>
+      <c r="X9" t="n">
         <v>8.5</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI9" t="n">
         <v>15</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AJ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO9" t="n">
         <v>12</v>
       </c>
-      <c r="Z9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AP9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>41</v>
       </c>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>401</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ9" t="n">
+      <c r="AR9" t="n">
         <v>67</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>101</v>
       </c>
       <c r="AS9" t="n">
         <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2166,7 +2166,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IZ3qIEYa</t>
+          <t>MREUeAWQ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2176,536 +2176,172 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>3.15</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="X10" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT10" t="n">
         <v>2.6</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W10" t="n">
-        <v>5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.25</v>
-      </c>
       <c r="AU10" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AV10" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="AW10" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AX10" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AY10" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AZ10" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="BA10" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BB10" t="n">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>E1chGh3C</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>20/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>22:30</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>COLOMBIA - PRIMERA A</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Atl. Nacional</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W11" t="n">
-        <v>6</v>
-      </c>
-      <c r="X11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>MREUeAWQ</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>20/11/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Celaya</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W12" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="X12" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>175</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD12" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IcW6Ba5m</t>
+          <t>bev0F86L</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,37 +738,37 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Estudiantes L.P.</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Union de Santa Fe</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -777,10 +777,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -789,22 +789,22 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
         <v>19</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -825,34 +825,34 @@
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.5</v>
+        <v>501</v>
       </c>
       <c r="AH2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI2" t="n">
         <v>21</v>
       </c>
-      <c r="AI2" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK2" t="n">
         <v>51</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>41</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>51</v>
       </c>
-      <c r="AM2" t="n">
-        <v>201</v>
-      </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
         <v>11</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -861,7 +861,7 @@
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
         <v>2.25</v>
@@ -876,7 +876,7 @@
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -888,19 +888,19 @@
         <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dpZZ86qk</t>
+          <t>YeqaRSKa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,41 +910,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Blooming</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -971,73 +971,73 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>501</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1049,40 +1049,36 @@
         <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY3" t="n">
         <v>34</v>
       </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA3" t="n">
         <v>126</v>
       </c>
-      <c r="BA3" t="n">
-        <v>151</v>
-      </c>
       <c r="BB3" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>151</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bev0F86L</t>
+          <t>OAukwB1L</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,131 +1088,131 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Union de Santa Fe</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.5</v>
       </c>
-      <c r="P4" t="n">
+      <c r="T4" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
         <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH4" t="n">
         <v>9</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM4" t="n">
         <v>41</v>
       </c>
-      <c r="AL4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>501</v>
-      </c>
       <c r="AN4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
@@ -1225,46 +1221,42 @@
         <v>67</v>
       </c>
       <c r="AS4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB4" t="n">
         <v>251</v>
       </c>
-      <c r="AT4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>401</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>151</v>
-      </c>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>YeqaRSKa</t>
+          <t>l8uhrXe8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,95 +1266,95 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blooming</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V5" t="n">
         <v>1.8</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1371,46 +1363,46 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>401</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>6.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>51</v>
+        <v>9.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="n">
-        <v>351</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
         <v>8.5</v>
@@ -1419,30 +1411,34 @@
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AX5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY5" t="n">
         <v>26</v>
       </c>
-      <c r="AY5" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BA5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC5" t="n">
         <v>126</v>
       </c>
-      <c r="BB5" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
+      <c r="BD5" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OAukwB1L</t>
+          <t>IZ3qIEYa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1452,175 +1448,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>1.73</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X6" t="n">
         <v>6.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>9.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
         <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL6" t="n">
         <v>51</v>
       </c>
-      <c r="AG6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ6" t="n">
+      <c r="AM6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>34</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
       </c>
       <c r="AR6" t="n">
         <v>67</v>
       </c>
       <c r="AS6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA6" t="n">
         <v>201</v>
       </c>
-      <c r="AT6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>101</v>
-      </c>
       <c r="BB6" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
+        <v>501</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>l8uhrXe8</t>
+          <t>E1chGh3C</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1630,167 +1630,167 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.25</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
+        <v>6</v>
+      </c>
+      <c r="X7" t="n">
         <v>8.5</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>15</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO7" t="n">
         <v>12</v>
       </c>
-      <c r="Z7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AP7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>41</v>
       </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>401</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ7" t="n">
+      <c r="AR7" t="n">
         <v>67</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>101</v>
       </c>
       <c r="AS7" t="n">
         <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1802,7 +1802,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IZ3qIEYa</t>
+          <t>MREUeAWQ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1812,536 +1812,172 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="K8" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.53</v>
+        <v>1.26</v>
       </c>
       <c r="P8" t="n">
-        <v>2.38</v>
+        <v>3.15</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.7</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>1.41</v>
+        <v>1.88</v>
       </c>
       <c r="S8" t="n">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="T8" t="n">
-        <v>2.25</v>
+        <v>2.57</v>
       </c>
       <c r="U8" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="X8" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="Z8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA8" t="n">
         <v>13</v>
       </c>
-      <c r="AA8" t="n">
-        <v>19</v>
-      </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="AC8" t="n">
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AI8" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AJ8" t="n">
-        <v>67</v>
+        <v>16.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="AL8" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.5</v>
+        <v>7.7</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>17.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AS8" t="n">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="AU8" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AV8" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="AW8" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AX8" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AY8" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AZ8" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="BA8" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BB8" t="n">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>E1chGh3C</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>20/11/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>22:30</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>COLOMBIA - PRIMERA A</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Atl. Nacional</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6</v>
-      </c>
-      <c r="X9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MREUeAWQ</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>20/11/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Celaya</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" t="n">
-        <v>10</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="X10" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>175</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD10" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
         <v>2.75</v>
@@ -765,10 +765,10 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -1125,10 +1125,10 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1137,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1306,13 +1306,13 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
         <v>2.3</v>
@@ -1467,13 +1467,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
         <v>2.5</v>
@@ -1518,7 +1518,7 @@
         <v>5</v>
       </c>
       <c r="X6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
@@ -1542,7 +1542,7 @@
         <v>23</v>
       </c>
       <c r="AF6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
@@ -1551,13 +1551,13 @@
         <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
         <v>19</v>
       </c>
       <c r="AK6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
         <v>51</v>
@@ -1569,7 +1569,7 @@
         <v>3.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
         <v>29</v>
@@ -1593,7 +1593,7 @@
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX6" t="n">
         <v>34</v>
@@ -1602,7 +1602,7 @@
         <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA6" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -798,7 +798,7 @@
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
@@ -807,7 +807,7 @@
         <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -819,7 +819,7 @@
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -828,16 +828,16 @@
         <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -849,16 +849,16 @@
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
         <v>251</v>
@@ -873,19 +873,19 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
         <v>401</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>YeqaRSKa</t>
+          <t>OAukwB1L</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,31 +920,31 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blooming</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -959,16 +959,16 @@
         <v>3.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
         <v>1.91</v>
@@ -980,19 +980,19 @@
         <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
         <v>8.5</v>
@@ -1010,43 +1010,43 @@
         <v>351</v>
       </c>
       <c r="AH3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>12</v>
       </c>
-      <c r="AI3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>17</v>
-      </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
         <v>8.5</v>
@@ -1055,22 +1055,22 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA3" t="n">
         <v>101</v>
       </c>
-      <c r="BA3" t="n">
-        <v>126</v>
-      </c>
       <c r="BB3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OAukwB1L</t>
+          <t>l8uhrXe8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1088,59 +1088,59 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1149,34 +1149,34 @@
         <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V4" t="n">
         <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1185,43 +1185,43 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AK4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM4" t="n">
         <v>34</v>
       </c>
-      <c r="AL4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
         <v>2.5</v>
@@ -1233,30 +1233,34 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA4" t="n">
         <v>67</v>
       </c>
-      <c r="BA4" t="n">
-        <v>101</v>
-      </c>
       <c r="BB4" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
+        <v>201</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>l8uhrXe8</t>
+          <t>IZ3qIEYa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1266,167 +1270,167 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.5</v>
       </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W5" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="Y5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" t="n">
         <v>13</v>
       </c>
-      <c r="Z5" t="n">
-        <v>41</v>
-      </c>
       <c r="AA5" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL5" t="n">
         <v>51</v>
       </c>
-      <c r="AG5" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI5" t="n">
+      <c r="AM5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO5" t="n">
         <v>9.5</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>34</v>
       </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP5" t="n">
+      <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX5" t="n">
         <v>34</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>13</v>
-      </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1438,7 +1442,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IZ3qIEYa</t>
+          <t>E1chGh3C</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1448,7 +1452,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1458,157 +1462,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>5.25</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
       </c>
       <c r="L6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W6" t="n">
         <v>6</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5</v>
-      </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
         <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
         <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>81</v>
       </c>
-      <c r="AW6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ6" t="n">
+      <c r="BA6" t="n">
         <v>126</v>
       </c>
-      <c r="BA6" t="n">
-        <v>201</v>
-      </c>
       <c r="BB6" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1620,7 +1624,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>E1chGh3C</t>
+          <t>MREUeAWQ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1630,354 +1634,172 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>4.33</v>
+        <v>5.1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="L7" t="n">
-        <v>4.75</v>
+        <v>5.1</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
-        <v>2.63</v>
+        <v>3.15</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.88</v>
       </c>
       <c r="S7" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="T7" t="n">
-        <v>2.38</v>
+        <v>2.57</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="X7" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="n">
-        <v>1250</v>
+        <v>600</v>
       </c>
       <c r="AH7" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AM7" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>7.7</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AS7" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="AX7" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AY7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AZ7" t="n">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="BA7" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="BB7" t="n">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MREUeAWQ</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>20/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Celaya</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="X8" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>175</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD8" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -777,10 +777,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -932,16 +932,16 @@
         <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
         <v>4</v>
@@ -965,22 +965,22 @@
         <v>1.7</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
@@ -992,28 +992,28 @@
         <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH3" t="n">
         <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
         <v>12</v>
@@ -1043,22 +1043,22 @@
         <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>
@@ -1067,10 +1067,10 @@
         <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
@@ -1107,22 +1107,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1131,10 +1131,10 @@
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
         <v>2.3</v>
@@ -1149,25 +1149,25 @@
         <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
         <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
@@ -1176,70 +1176,70 @@
         <v>7.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="n">
         <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
         <v>34</v>
       </c>
       <c r="AQ4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT4" t="n">
         <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
         <v>41</v>
@@ -1471,28 +1471,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1537,13 +1537,13 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
@@ -1552,7 +1552,7 @@
         <v>1250</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI6" t="n">
         <v>19</v>
@@ -1567,10 +1567,10 @@
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
         <v>12</v>
@@ -1653,13 +1653,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
         <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J7" t="n">
         <v>2.15</v>
@@ -1701,22 +1701,22 @@
         <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X7" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="Y7" t="n">
         <v>8</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
         <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
         <v>10.5</v>
@@ -1728,28 +1728,28 @@
         <v>16.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="n">
         <v>50</v>
       </c>
       <c r="AM7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN7" t="n">
         <v>3.4</v>
@@ -1758,7 +1758,7 @@
         <v>7.7</v>
       </c>
       <c r="AP7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
         <v>25</v>
@@ -1773,19 +1773,19 @@
         <v>2.6</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AX7" t="n">
         <v>28</v>
       </c>
       <c r="AY7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ7" t="n">
         <v>175</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -798,7 +798,7 @@
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
@@ -819,7 +819,7 @@
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -837,7 +837,7 @@
         <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -861,7 +861,7 @@
         <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
         <v>2.25</v>
@@ -873,19 +873,19 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
         <v>401</v>
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>4.75</v>
@@ -1125,10 +1125,10 @@
         <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1137,22 +1137,22 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
         <v>9.5</v>
@@ -1176,16 +1176,16 @@
         <v>7.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH4" t="n">
         <v>6</v>
@@ -1206,7 +1206,7 @@
         <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO4" t="n">
         <v>23</v>
@@ -1221,10 +1221,10 @@
         <v>126</v>
       </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
         <v>9</v>
@@ -1239,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>41</v>
@@ -1260,7 +1260,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IZ3qIEYa</t>
+          <t>E1chGh3C</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1280,31 +1280,31 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
@@ -1313,124 +1313,124 @@
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
         <v>19</v>
       </c>
       <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="n">
         <v>41</v>
       </c>
-      <c r="AC5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI5" t="n">
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP5" t="n">
         <v>26</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>81</v>
       </c>
-      <c r="AW5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>151</v>
-      </c>
       <c r="BA5" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1442,7 +1442,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E1chGh3C</t>
+          <t>MREUeAWQ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1452,354 +1452,172 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>2.15</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="L6" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW6" t="n">
         <v>6.5</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6</v>
-      </c>
-      <c r="X6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AX6" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MREUeAWQ</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>20/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Celaya</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
-        <v>10</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>35</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>175</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD7" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J2" t="n">
         <v>2.75</v>
@@ -777,10 +777,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -807,7 +807,7 @@
         <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -828,10 +828,10 @@
         <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>15</v>
@@ -849,7 +849,7 @@
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
@@ -888,7 +888,7 @@
         <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OAukwB1L</t>
+          <t>l8uhrXe8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,175 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>3.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="J3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.88</v>
       </c>
-      <c r="K3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W3" t="n">
+        <v>9</v>
+      </c>
+      <c r="X3" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
         <v>4</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>10</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7</v>
-      </c>
-      <c r="X3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ3" t="n">
+      <c r="AX3" t="n">
         <v>12</v>
       </c>
-      <c r="AK3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM3" t="n">
+      <c r="AY3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>41</v>
       </c>
-      <c r="AN3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="BA3" t="n">
         <v>67</v>
       </c>
-      <c r="AS3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>81</v>
-      </c>
       <c r="BB3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>l8uhrXe8</t>
+          <t>E1chGh3C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1088,53 +1092,53 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>4.75</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
         <v>2.4</v>
@@ -1149,79 +1153,79 @@
         <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
+        <v>6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y4" t="n">
         <v>9.5</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA4" t="n">
         <v>19</v>
       </c>
-      <c r="Y4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>41</v>
-      </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>501</v>
+        <v>1250</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
         <v>2.38</v>
@@ -1233,22 +1237,22 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1260,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E1chGh3C</t>
+          <t>MREUeAWQ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1270,354 +1274,172 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>2.15</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.57</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>7.9</v>
       </c>
       <c r="Z5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>17</v>
       </c>
-      <c r="AA5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>15</v>
-      </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="AX5" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AZ5" t="n">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="BB5" t="n">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MREUeAWQ</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>20/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Celaya</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N6" t="n">
-        <v>10</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>35</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>175</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD6" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
@@ -1183,7 +1183,7 @@
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1195,7 +1195,7 @@
         <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
         <v>15</v>
@@ -1210,10 +1210,10 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
@@ -1237,13 +1237,13 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
         <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
         <v>81</v>
@@ -1311,10 +1311,10 @@
         <v>5.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>1.27</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bev0F86L</t>
+          <t>E1chGh3C</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,71 +728,71 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Union de Santa Fe</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
@@ -804,37 +804,37 @@
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
         <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>501</v>
+        <v>1250</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -852,25 +852,25 @@
         <v>11</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU2" t="n">
         <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
@@ -888,7 +888,7 @@
         <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>l8uhrXe8</t>
+          <t>MREUeAWQ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,536 +910,172 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.9</v>
+        <v>1.62</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="I3" t="n">
-        <v>2.05</v>
+        <v>5.3</v>
       </c>
       <c r="J3" t="n">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="L3" t="n">
-        <v>2.88</v>
+        <v>5.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="n">
         <v>7</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W3" t="n">
-        <v>9</v>
-      </c>
-      <c r="X3" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="n">
-        <v>501</v>
+        <v>600</v>
       </c>
       <c r="AH3" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AI3" t="n">
-        <v>8.5</v>
+        <v>32</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>7.8</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="AR3" t="n">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="AS3" t="n">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AW3" t="n">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="AX3" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AZ3" t="n">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>500</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>E1chGh3C</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>20/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>22:30</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>COLOMBIA - PRIMERA A</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Atl. Nacional</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6</v>
-      </c>
-      <c r="X4" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MREUeAWQ</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>20/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Celaya</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X5" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>35</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>200</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>250</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD5" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -792,10 +792,10 @@
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
         <v>8</v>
@@ -804,7 +804,7 @@
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
         <v>19</v>
@@ -813,13 +813,13 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
@@ -834,7 +834,7 @@
         <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -867,7 +867,7 @@
         <v>2.38</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
@@ -882,10 +882,10 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,7 +750,7 @@
         <v>1.95</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>4.5</v>
@@ -759,10 +759,10 @@
         <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -792,10 +792,10 @@
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
         <v>8</v>
@@ -810,16 +810,16 @@
         <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
@@ -834,7 +834,7 @@
         <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -867,10 +867,10 @@
         <v>2.38</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
@@ -882,10 +882,10 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
         <v>351</v>
@@ -895,188 +895,6 @@
       </c>
       <c r="BD2" t="n">
         <v>126</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MREUeAWQ</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>20/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Celaya</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X3" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>35</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>200</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>250</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>E1chGh3C</t>
+          <t>CvxlIAM2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,143 +728,143 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Newells Old Boys</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Central Cordoba</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.44</v>
       </c>
-      <c r="P2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.53</v>
-      </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>1250</v>
+        <v>6.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO2" t="n">
         <v>17</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AP2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>51</v>
       </c>
-      <c r="AL2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>41</v>
-      </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AU2" t="n">
         <v>9.5</v>
@@ -873,19 +873,19 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
         <v>351</v>
@@ -895,6 +895,3638 @@
       </c>
       <c r="BD2" t="n">
         <v>126</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IcW6Ba5m</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Estudiantes L.P.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Rosario Central</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>451</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>dpZZ86qk</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Velez Sarsfield</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Lanus</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>bev0F86L</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Union de Santa Fe</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>451</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GbLZ1izi</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>GV San Jose</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>17</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W6" t="n">
+        <v>10</v>
+      </c>
+      <c r="X6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>YeqaRSKa</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Blooming</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>OAukwB1L</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Universitario de Vinto</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Oriente Petrolero</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7</v>
+      </c>
+      <c r="X8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>vgnPzklr</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>401</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>C6pXYSIf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Athletico-PR</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Atletico GO</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7</v>
+      </c>
+      <c r="X10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>IqoTZ83l</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7</v>
+      </c>
+      <c r="X11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>401</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>8YwtX6m7</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2BqdsiBE</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W13" t="n">
+        <v>13</v>
+      </c>
+      <c r="X13" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Q9lyYnY0</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cuiaba</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W14" t="n">
+        <v>9</v>
+      </c>
+      <c r="X14" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>451</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>n319JmJ7</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7</v>
+      </c>
+      <c r="X15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>l8uhrXe8</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Botafogo RJ</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W16" t="n">
+        <v>9</v>
+      </c>
+      <c r="X16" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>IZ3qIEYa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Dep. Pasto</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>E1chGh3C</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Atl. Nacional</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>468pA9I6</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LATVIA - VIRSLIGA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Grobina</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Alberts JDFS</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>11</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W19" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>45</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>350</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>350</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MREUeAWQ</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Celaya</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tapatio</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X20" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>35</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>200</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>zuhsk28K</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W21" t="n">
+        <v>5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>6uOnIaCm</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Briton Ferry</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>13</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="T22" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W22" t="n">
+        <v>90</v>
+      </c>
+      <c r="X22" t="n">
+        <v>300</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>400</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>175</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>500</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>110</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
